--- a/APM_files/144981168/Bismuth Partners VR APM Onboarding Form V4_07082025 (1)_vS.xlsx
+++ b/APM_files/144981168/Bismuth Partners VR APM Onboarding Form V4_07082025 (1)_vS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Dev/workspace/APM_files/144513187/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Dev/workspace/APM_files/144981168/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C6DB9-73B2-294D-AEF1-B4DDDE4DD195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35841862-A104-B546-9197-65466FDBF4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26660" tabRatio="830" activeTab="1" xr2:uid="{CC4D25E3-5543-4132-BDE9-DB37E2CE9E54}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="26660" tabRatio="830" activeTab="1" xr2:uid="{CC4D25E3-5543-4132-BDE9-DB37E2CE9E54}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -3339,7 +3339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6852,7 +6852,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
@@ -6872,7 +6872,7 @@
     <col min="16" max="16384" width="9.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.5" customHeight="1">
+    <row r="1" spans="1:15" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6889,7 +6889,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="39"/>
     </row>
-    <row r="2" spans="1:15" ht="13.25" customHeight="1">
+    <row r="2" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
@@ -6905,7 +6905,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="35" t="s">
         <v>117</v>
@@ -6924,7 +6924,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="39"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -6943,7 +6943,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="39"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>114</v>
@@ -6962,7 +6962,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="39"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6979,7 +6979,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="39"/>
     </row>
-    <row r="7" spans="1:15" ht="23">
+    <row r="7" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
         <v>115</v>
@@ -6997,7 +6997,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="39"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
         <v>1</v>
@@ -7016,7 +7016,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="39"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
@@ -7033,7 +7033,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="39"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -7052,7 +7052,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="41"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -7071,7 +7071,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="41"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="8" t="s">
         <v>389</v>
@@ -7090,7 +7090,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="41"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="8" t="s">
         <v>390</v>
@@ -7109,7 +7109,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="41"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="8" t="s">
         <v>391</v>
@@ -7128,7 +7128,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="41"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -7145,7 +7145,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="41"/>
     </row>
-    <row r="16" spans="1:15" ht="23">
+    <row r="16" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="9" t="s">
         <v>116</v>
@@ -7164,7 +7164,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="41"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="8" t="s">
         <v>344</v>
@@ -7183,7 +7183,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="41"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="8" t="s">
         <v>118</v>
@@ -7202,7 +7202,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="41"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -7219,7 +7219,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="39"/>
     </row>
-    <row r="20" spans="1:15" ht="18">
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -7238,7 +7238,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="39"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
@@ -7257,7 +7257,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="39"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
@@ -7278,7 +7278,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="39"/>
     </row>
-    <row r="23" spans="1:15" ht="17" thickBot="1">
+    <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -7295,7 +7295,7 @@
       <c r="N23" s="24"/>
       <c r="O23" s="42"/>
     </row>
-    <row r="24" spans="1:15" s="46" customFormat="1" ht="19" thickBot="1">
+    <row r="24" spans="1:15" s="46" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>8</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="N24" s="50"/>
       <c r="O24" s="51"/>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1">
+    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="182" t="s">
         <v>14</v>
       </c>
@@ -7325,7 +7325,7 @@
       <c r="D25" s="30"/>
       <c r="O25" s="39"/>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1">
+    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="183"/>
       <c r="B26" s="29" t="s">
         <v>16</v>
@@ -7334,105 +7334,105 @@
       <c r="D26" s="30"/>
       <c r="O26" s="39"/>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1">
+    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="183"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="O27" s="39"/>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1">
+    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="183"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="O28" s="39"/>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1">
+    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="183"/>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="O29" s="39"/>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1">
+    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="183"/>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="O30" s="39"/>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1">
+    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="183"/>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="O31" s="39"/>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1">
+    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="183"/>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="O32" s="39"/>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1">
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="183"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="O33" s="39"/>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1">
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="183"/>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="O34" s="39"/>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1">
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="183"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="O35" s="39"/>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1">
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="183"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="O36" s="39"/>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1">
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="183"/>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="O37" s="39"/>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1">
+    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="183"/>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="O38" s="39"/>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1">
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="183"/>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="O39" s="39"/>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="183"/>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="O40" s="39"/>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1">
+    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="183"/>
       <c r="B41" s="29" t="s">
         <v>176</v>
@@ -7442,7 +7442,7 @@
       <c r="H41" s="38"/>
       <c r="O41" s="39"/>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1">
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="183"/>
       <c r="B42" s="29" t="s">
         <v>177</v>
@@ -7452,7 +7452,7 @@
       <c r="H42" s="38"/>
       <c r="O42" s="39"/>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1">
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="183"/>
       <c r="B43" s="29"/>
       <c r="C43" s="30"/>
@@ -7460,7 +7460,7 @@
       <c r="H43" s="38"/>
       <c r="O43" s="39"/>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1">
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="183"/>
       <c r="B44" s="29"/>
       <c r="C44" s="30"/>
@@ -7468,7 +7468,7 @@
       <c r="H44" s="38"/>
       <c r="O44" s="39"/>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1">
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="183"/>
       <c r="B45" s="29"/>
       <c r="C45" s="30"/>
@@ -7476,7 +7476,7 @@
       <c r="H45" s="38"/>
       <c r="O45" s="39"/>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1">
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="183"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30"/>
@@ -7484,7 +7484,7 @@
       <c r="H46" s="38"/>
       <c r="O46" s="39"/>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1">
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="183"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
@@ -7492,7 +7492,7 @@
       <c r="H47" s="38"/>
       <c r="O47" s="39"/>
     </row>
-    <row r="48" spans="1:15" s="1" customFormat="1">
+    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="183"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
@@ -7500,7 +7500,7 @@
       <c r="H48" s="38"/>
       <c r="O48" s="39"/>
     </row>
-    <row r="49" spans="1:15" s="1" customFormat="1">
+    <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="183"/>
       <c r="B49" s="29"/>
       <c r="C49" s="30"/>
@@ -7508,7 +7508,7 @@
       <c r="H49" s="38"/>
       <c r="O49" s="39"/>
     </row>
-    <row r="50" spans="1:15" s="1" customFormat="1">
+    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="183"/>
       <c r="B50" s="29"/>
       <c r="C50" s="30"/>
@@ -7516,7 +7516,7 @@
       <c r="H50" s="38"/>
       <c r="O50" s="39"/>
     </row>
-    <row r="51" spans="1:15" s="1" customFormat="1">
+    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="183"/>
       <c r="B51" s="29"/>
       <c r="C51" s="30"/>
@@ -7524,7 +7524,7 @@
       <c r="H51" s="38"/>
       <c r="O51" s="39"/>
     </row>
-    <row r="52" spans="1:15" s="1" customFormat="1">
+    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="183"/>
       <c r="B52" s="29"/>
       <c r="C52" s="30"/>
@@ -7532,7 +7532,7 @@
       <c r="H52" s="38"/>
       <c r="O52" s="39"/>
     </row>
-    <row r="53" spans="1:15" s="1" customFormat="1">
+    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="183"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
@@ -7540,7 +7540,7 @@
       <c r="H53" s="38"/>
       <c r="O53" s="39"/>
     </row>
-    <row r="54" spans="1:15" s="1" customFormat="1">
+    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="184"/>
       <c r="B54" s="36"/>
       <c r="C54" s="28"/>
@@ -7557,7 +7557,7 @@
       <c r="N54" s="27"/>
       <c r="O54" s="40"/>
     </row>
-    <row r="55" spans="1:15" s="47" customFormat="1" ht="17.5" customHeight="1">
+    <row r="55" spans="1:15" s="47" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="188" t="s">
         <v>9</v>
       </c>
@@ -7578,7 +7578,7 @@
       <c r="N55" s="44"/>
       <c r="O55" s="45"/>
     </row>
-    <row r="56" spans="1:15" ht="26.5" customHeight="1">
+    <row r="56" spans="1:15" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="189"/>
       <c r="B56" s="1" t="s">
         <v>11</v>
@@ -7597,7 +7597,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="39"/>
     </row>
-    <row r="57" spans="1:15" ht="64.5" customHeight="1">
+    <row r="57" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="189"/>
       <c r="B57" s="185" t="s">
         <v>12</v>
@@ -7616,7 +7616,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="39"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="189"/>
       <c r="B58" s="185"/>
       <c r="C58" s="185"/>
@@ -7633,7 +7633,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="39"/>
     </row>
-    <row r="59" spans="1:15" ht="18" customHeight="1">
+    <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="189"/>
       <c r="B59" s="185"/>
       <c r="C59" s="185"/>
@@ -7650,7 +7650,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="39"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="189"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
@@ -7667,7 +7667,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="39"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="189"/>
       <c r="B61" s="186" t="s">
         <v>13</v>
@@ -7686,7 +7686,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="39"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="189"/>
       <c r="B62" s="186"/>
       <c r="C62" s="186"/>
@@ -7703,7 +7703,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="39"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="189"/>
       <c r="B63" s="186"/>
       <c r="C63" s="186"/>
@@ -7720,7 +7720,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="39"/>
     </row>
-    <row r="64" spans="1:15" ht="65.5" customHeight="1">
+    <row r="64" spans="1:15" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="190"/>
       <c r="B64" s="187"/>
       <c r="C64" s="187"/>
@@ -7737,7 +7737,7 @@
       <c r="N64" s="27"/>
       <c r="O64" s="40"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="193" t="s">
         <v>282</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="M65" s="71"/>
       <c r="O65" s="69"/>
     </row>
-    <row r="66" spans="1:15" ht="15.5" customHeight="1">
+    <row r="66" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="194"/>
       <c r="B66" s="81" t="s">
         <v>285</v>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="O66" s="41"/>
     </row>
-    <row r="67" spans="1:15" ht="15.5" customHeight="1">
+    <row r="67" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="194"/>
       <c r="B67" s="60" t="s">
         <v>279</v>
@@ -7803,7 +7803,7 @@
       </c>
       <c r="O67" s="41"/>
     </row>
-    <row r="68" spans="1:15" ht="15.5" customHeight="1">
+    <row r="68" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="194"/>
       <c r="B68" s="62" t="s">
         <v>288</v>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="O68" s="41"/>
     </row>
-    <row r="69" spans="1:15" ht="15.5" customHeight="1">
+    <row r="69" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="194"/>
       <c r="B69" s="62" t="s">
         <v>276</v>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="O69" s="41"/>
     </row>
-    <row r="70" spans="1:15" ht="15.5" customHeight="1">
+    <row r="70" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="194"/>
       <c r="B70" s="62" t="s">
         <v>278</v>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="O70" s="41"/>
     </row>
-    <row r="71" spans="1:15" ht="15.5" customHeight="1" thickBot="1">
+    <row r="71" spans="1:15" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="194"/>
       <c r="B71" s="64" t="s">
         <v>277</v>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="O71" s="41"/>
     </row>
-    <row r="72" spans="1:15" ht="15.5" customHeight="1">
+    <row r="72" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="194"/>
       <c r="B72" s="78"/>
       <c r="C72" s="79"/>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="O72" s="41"/>
     </row>
-    <row r="73" spans="1:15" ht="15.5" customHeight="1">
+    <row r="73" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="194"/>
       <c r="B73" s="80"/>
       <c r="G73" s="67" t="s">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="O73" s="41"/>
     </row>
-    <row r="74" spans="1:15" ht="15.5" customHeight="1">
+    <row r="74" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="194"/>
       <c r="B74" s="80"/>
       <c r="G74" s="67" t="s">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="O74" s="41"/>
     </row>
-    <row r="75" spans="1:15" ht="15.5" customHeight="1">
+    <row r="75" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="194"/>
       <c r="B75" s="80"/>
       <c r="G75" s="67" t="s">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="O75" s="41"/>
     </row>
-    <row r="76" spans="1:15" ht="15.5" customHeight="1">
+    <row r="76" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="194"/>
       <c r="B76" s="80"/>
       <c r="G76" s="67" t="s">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="O76" s="41"/>
     </row>
-    <row r="77" spans="1:15" ht="15.5" customHeight="1">
+    <row r="77" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="194"/>
       <c r="B77" s="80"/>
       <c r="G77" s="67" t="s">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="O77" s="41"/>
     </row>
-    <row r="78" spans="1:15" ht="15.5" customHeight="1">
+    <row r="78" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="194"/>
       <c r="B78" s="80"/>
       <c r="G78" s="67" t="s">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="O78" s="41"/>
     </row>
-    <row r="79" spans="1:15" ht="15.5" customHeight="1" thickBot="1">
+    <row r="79" spans="1:15" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="195"/>
       <c r="B79" s="83"/>
       <c r="C79" s="73"/>
@@ -7984,7 +7984,7 @@
       <c r="N79" s="73"/>
       <c r="O79" s="70"/>
     </row>
-    <row r="80" spans="1:15" ht="17" thickTop="1"/>
+    <row r="80" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A25:A54"/>
@@ -8009,31 +8009,31 @@
   <dimension ref="A1:AO1044"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="31" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="154" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="154" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="31" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="34.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="49.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.83203125" style="76" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.1640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="36.5" style="56" customWidth="1"/>
-    <col min="17" max="17" width="37.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.83203125" style="31" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="31" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="31" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="31" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" style="31" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="31" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="31" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.83203125" style="31" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="27.83203125" style="76" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="28.1640625" style="31" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5" style="56" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="37.1640625" style="56" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="38.83203125" style="56" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5" style="31" bestFit="1" customWidth="1"/>
@@ -8061,7 +8061,7 @@
     <col min="43" max="16384" width="9.6640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="84" customFormat="1" ht="180">
+    <row r="1" spans="1:41" s="84" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A1" s="180"/>
       <c r="B1" s="165" t="s">
         <v>173</v>
@@ -8176,7 +8176,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="56" customFormat="1" ht="101.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:41" s="56" customFormat="1" ht="101.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="181"/>
       <c r="B2" s="93" t="s">
         <v>22</v>
@@ -8299,7 +8299,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="18" customHeight="1">
+    <row r="3" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>679</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="18" customHeight="1">
+    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>680</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="18" customHeight="1">
+    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>681</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="18" customHeight="1">
+    <row r="6" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>682</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="18" customHeight="1">
+    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>683</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="18" customHeight="1">
+    <row r="8" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>684</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="18" customHeight="1">
+    <row r="9" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>685</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="18" customHeight="1">
+    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>686</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="18" customHeight="1">
+    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>687</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="18" customHeight="1">
+    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>688</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="18" customHeight="1">
+    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>689</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="18" customHeight="1">
+    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>690</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="18" customHeight="1">
+    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>691</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="18" customHeight="1">
+    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>692</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="18" customHeight="1">
+    <row r="17" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>693</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="18" customHeight="1">
+    <row r="18" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>694</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="18" customHeight="1">
+    <row r="19" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>695</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="18" customHeight="1">
+    <row r="20" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>696</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="18" customHeight="1">
+    <row r="21" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>697</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="18" customHeight="1">
+    <row r="22" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>698</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="18" customHeight="1">
+    <row r="23" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>699</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="18" customHeight="1">
+    <row r="24" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="130"/>
       <c r="F24" s="57"/>
       <c r="P24" s="55"/>
@@ -10652,7 +10652,7 @@
       <c r="AH24" s="56"/>
       <c r="AI24" s="33"/>
     </row>
-    <row r="25" spans="1:41" ht="18" customHeight="1">
+    <row r="25" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="130"/>
       <c r="F25" s="57"/>
       <c r="P25" s="55"/>
@@ -10676,7 +10676,7 @@
       <c r="AH25" s="56"/>
       <c r="AI25" s="33"/>
     </row>
-    <row r="26" spans="1:41" ht="18" customHeight="1">
+    <row r="26" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="130"/>
       <c r="F26" s="57"/>
       <c r="P26" s="55"/>
@@ -10700,7 +10700,7 @@
       <c r="AH26" s="56"/>
       <c r="AI26" s="33"/>
     </row>
-    <row r="27" spans="1:41" ht="18" customHeight="1">
+    <row r="27" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="130"/>
       <c r="F27" s="57"/>
       <c r="P27" s="55"/>
@@ -10724,7 +10724,7 @@
       <c r="AH27" s="56"/>
       <c r="AI27" s="33"/>
     </row>
-    <row r="28" spans="1:41" ht="18" customHeight="1">
+    <row r="28" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="130"/>
       <c r="F28" s="57"/>
       <c r="P28" s="55"/>
@@ -10748,7 +10748,7 @@
       <c r="AH28" s="56"/>
       <c r="AI28" s="33"/>
     </row>
-    <row r="29" spans="1:41" ht="18" customHeight="1">
+    <row r="29" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="130"/>
       <c r="F29" s="57"/>
       <c r="P29" s="55"/>
@@ -10772,7 +10772,7 @@
       <c r="AH29" s="56"/>
       <c r="AI29" s="33"/>
     </row>
-    <row r="30" spans="1:41" ht="18" customHeight="1">
+    <row r="30" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="130"/>
       <c r="F30" s="57"/>
       <c r="P30" s="55"/>
@@ -10796,7 +10796,7 @@
       <c r="AH30" s="56"/>
       <c r="AI30" s="33"/>
     </row>
-    <row r="31" spans="1:41" ht="18" customHeight="1">
+    <row r="31" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="130"/>
       <c r="F31" s="57"/>
       <c r="P31" s="55"/>
@@ -10820,7 +10820,7 @@
       <c r="AH31" s="56"/>
       <c r="AI31" s="33"/>
     </row>
-    <row r="32" spans="1:41" ht="18" customHeight="1">
+    <row r="32" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="130"/>
       <c r="F32" s="57"/>
       <c r="P32" s="55"/>
@@ -10844,7 +10844,7 @@
       <c r="AH32" s="56"/>
       <c r="AI32" s="33"/>
     </row>
-    <row r="33" spans="3:35" ht="18" customHeight="1">
+    <row r="33" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="130"/>
       <c r="F33" s="57"/>
       <c r="P33" s="55"/>
@@ -10868,7 +10868,7 @@
       <c r="AH33" s="56"/>
       <c r="AI33" s="33"/>
     </row>
-    <row r="34" spans="3:35" ht="18" customHeight="1">
+    <row r="34" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="130"/>
       <c r="F34" s="57"/>
       <c r="P34" s="55"/>
@@ -10892,7 +10892,7 @@
       <c r="AH34" s="56"/>
       <c r="AI34" s="33"/>
     </row>
-    <row r="35" spans="3:35" ht="18" customHeight="1">
+    <row r="35" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="130"/>
       <c r="F35" s="57"/>
       <c r="P35" s="55"/>
@@ -10916,7 +10916,7 @@
       <c r="AH35" s="56"/>
       <c r="AI35" s="33"/>
     </row>
-    <row r="36" spans="3:35" ht="18" customHeight="1">
+    <row r="36" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="130"/>
       <c r="F36" s="57"/>
       <c r="P36" s="55"/>
@@ -10940,7 +10940,7 @@
       <c r="AH36" s="56"/>
       <c r="AI36" s="33"/>
     </row>
-    <row r="37" spans="3:35" ht="18" customHeight="1">
+    <row r="37" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="130"/>
       <c r="F37" s="57"/>
       <c r="P37" s="55"/>
@@ -10964,7 +10964,7 @@
       <c r="AH37" s="56"/>
       <c r="AI37" s="33"/>
     </row>
-    <row r="38" spans="3:35" ht="18" customHeight="1">
+    <row r="38" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="130"/>
       <c r="F38" s="57"/>
       <c r="P38" s="55"/>
@@ -10988,7 +10988,7 @@
       <c r="AH38" s="56"/>
       <c r="AI38" s="33"/>
     </row>
-    <row r="39" spans="3:35" ht="18" customHeight="1">
+    <row r="39" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="57"/>
       <c r="P39" s="55"/>
       <c r="Q39" s="55"/>
@@ -11011,7 +11011,7 @@
       <c r="AH39" s="56"/>
       <c r="AI39" s="33"/>
     </row>
-    <row r="40" spans="3:35" ht="18" customHeight="1">
+    <row r="40" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="57"/>
       <c r="P40" s="55"/>
       <c r="Q40" s="55"/>
@@ -11034,7 +11034,7 @@
       <c r="AH40" s="56"/>
       <c r="AI40" s="33"/>
     </row>
-    <row r="41" spans="3:35" ht="18" customHeight="1">
+    <row r="41" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" s="57"/>
       <c r="P41" s="55"/>
       <c r="Q41" s="55"/>
@@ -11057,7 +11057,7 @@
       <c r="AH41" s="56"/>
       <c r="AI41" s="33"/>
     </row>
-    <row r="42" spans="3:35" ht="18" customHeight="1">
+    <row r="42" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="57"/>
       <c r="P42" s="55"/>
       <c r="Q42" s="55"/>
@@ -11080,4447 +11080,4447 @@
       <c r="AH42" s="56"/>
       <c r="AI42" s="33"/>
     </row>
-    <row r="43" spans="3:35" ht="18" customHeight="1">
+    <row r="43" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" s="57"/>
       <c r="P43" s="55"/>
       <c r="Q43" s="55"/>
       <c r="R43" s="55"/>
     </row>
-    <row r="44" spans="3:35" ht="18" customHeight="1">
+    <row r="44" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="57"/>
       <c r="P44" s="55"/>
       <c r="Q44" s="55"/>
       <c r="R44" s="55"/>
     </row>
-    <row r="45" spans="3:35" ht="18" customHeight="1">
+    <row r="45" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="57"/>
       <c r="P45" s="55"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="55"/>
     </row>
-    <row r="46" spans="3:35" ht="18" customHeight="1">
+    <row r="46" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="57"/>
       <c r="P46" s="55"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="55"/>
     </row>
-    <row r="47" spans="3:35" ht="18" customHeight="1">
+    <row r="47" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="57"/>
       <c r="P47" s="55"/>
       <c r="Q47" s="55"/>
       <c r="R47" s="55"/>
     </row>
-    <row r="48" spans="3:35" ht="18" customHeight="1">
+    <row r="48" spans="3:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="57"/>
       <c r="P48" s="55"/>
       <c r="Q48" s="55"/>
       <c r="R48" s="55"/>
     </row>
-    <row r="49" spans="6:18" ht="18" customHeight="1">
+    <row r="49" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="57"/>
       <c r="P49" s="55"/>
       <c r="Q49" s="55"/>
       <c r="R49" s="55"/>
     </row>
-    <row r="50" spans="6:18" ht="18" customHeight="1">
+    <row r="50" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" s="57"/>
       <c r="P50" s="55"/>
       <c r="Q50" s="55"/>
       <c r="R50" s="55"/>
     </row>
-    <row r="51" spans="6:18" ht="18" customHeight="1">
+    <row r="51" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F51" s="57"/>
       <c r="P51" s="55"/>
       <c r="Q51" s="55"/>
       <c r="R51" s="55"/>
     </row>
-    <row r="52" spans="6:18" ht="18" customHeight="1">
+    <row r="52" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="57"/>
       <c r="P52" s="55"/>
       <c r="Q52" s="55"/>
       <c r="R52" s="55"/>
     </row>
-    <row r="53" spans="6:18" ht="18" customHeight="1">
+    <row r="53" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F53" s="57"/>
       <c r="P53" s="55"/>
       <c r="Q53" s="55"/>
       <c r="R53" s="55"/>
     </row>
-    <row r="54" spans="6:18" ht="18" customHeight="1">
+    <row r="54" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F54" s="57"/>
       <c r="P54" s="55"/>
       <c r="Q54" s="55"/>
       <c r="R54" s="55"/>
     </row>
-    <row r="55" spans="6:18" ht="18" customHeight="1">
+    <row r="55" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F55" s="57"/>
       <c r="P55" s="55"/>
       <c r="Q55" s="55"/>
       <c r="R55" s="55"/>
     </row>
-    <row r="56" spans="6:18" ht="18" customHeight="1">
+    <row r="56" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F56" s="57"/>
       <c r="P56" s="55"/>
       <c r="Q56" s="55"/>
       <c r="R56" s="55"/>
     </row>
-    <row r="57" spans="6:18" ht="18" customHeight="1">
+    <row r="57" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F57" s="57"/>
       <c r="P57" s="55"/>
       <c r="Q57" s="55"/>
       <c r="R57" s="55"/>
     </row>
-    <row r="58" spans="6:18" ht="18" customHeight="1">
+    <row r="58" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F58" s="57"/>
       <c r="P58" s="55"/>
       <c r="Q58" s="55"/>
       <c r="R58" s="55"/>
     </row>
-    <row r="59" spans="6:18" ht="18" customHeight="1">
+    <row r="59" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F59" s="57"/>
       <c r="P59" s="55"/>
       <c r="Q59" s="55"/>
       <c r="R59" s="55"/>
     </row>
-    <row r="60" spans="6:18" ht="18" customHeight="1">
+    <row r="60" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F60" s="57"/>
       <c r="P60" s="55"/>
       <c r="Q60" s="55"/>
       <c r="R60" s="55"/>
     </row>
-    <row r="61" spans="6:18" ht="18" customHeight="1">
+    <row r="61" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="57"/>
       <c r="P61" s="55"/>
       <c r="Q61" s="55"/>
       <c r="R61" s="55"/>
     </row>
-    <row r="62" spans="6:18" ht="18" customHeight="1">
+    <row r="62" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" s="57"/>
       <c r="P62" s="55"/>
       <c r="Q62" s="55"/>
       <c r="R62" s="55"/>
     </row>
-    <row r="63" spans="6:18" ht="18" customHeight="1">
+    <row r="63" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" s="57"/>
       <c r="P63" s="55"/>
       <c r="Q63" s="55"/>
       <c r="R63" s="55"/>
     </row>
-    <row r="64" spans="6:18" ht="18" customHeight="1">
+    <row r="64" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F64" s="57"/>
       <c r="P64" s="55"/>
       <c r="Q64" s="55"/>
       <c r="R64" s="55"/>
     </row>
-    <row r="65" spans="6:18" ht="18" customHeight="1">
+    <row r="65" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F65" s="57"/>
       <c r="P65" s="55"/>
       <c r="Q65" s="55"/>
       <c r="R65" s="55"/>
     </row>
-    <row r="66" spans="6:18" ht="18" customHeight="1">
+    <row r="66" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F66" s="57"/>
       <c r="P66" s="55"/>
       <c r="Q66" s="55"/>
       <c r="R66" s="55"/>
     </row>
-    <row r="67" spans="6:18" ht="18" customHeight="1">
+    <row r="67" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F67" s="57"/>
       <c r="P67" s="55"/>
       <c r="Q67" s="55"/>
       <c r="R67" s="55"/>
     </row>
-    <row r="68" spans="6:18" ht="18" customHeight="1">
+    <row r="68" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F68" s="57"/>
       <c r="P68" s="55"/>
       <c r="Q68" s="55"/>
       <c r="R68" s="55"/>
     </row>
-    <row r="69" spans="6:18" ht="18" customHeight="1">
+    <row r="69" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F69" s="57"/>
       <c r="P69" s="55"/>
       <c r="Q69" s="55"/>
       <c r="R69" s="55"/>
     </row>
-    <row r="70" spans="6:18" ht="18" customHeight="1">
+    <row r="70" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F70" s="57"/>
       <c r="P70" s="55"/>
       <c r="Q70" s="55"/>
       <c r="R70" s="55"/>
     </row>
-    <row r="71" spans="6:18" ht="18" customHeight="1">
+    <row r="71" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F71" s="57"/>
       <c r="P71" s="55"/>
       <c r="Q71" s="55"/>
       <c r="R71" s="55"/>
     </row>
-    <row r="72" spans="6:18" ht="18" customHeight="1">
+    <row r="72" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F72" s="57"/>
       <c r="P72" s="55"/>
       <c r="Q72" s="55"/>
       <c r="R72" s="55"/>
     </row>
-    <row r="73" spans="6:18" ht="18" customHeight="1">
+    <row r="73" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F73" s="57"/>
       <c r="P73" s="55"/>
       <c r="Q73" s="55"/>
       <c r="R73" s="55"/>
     </row>
-    <row r="74" spans="6:18" ht="18" customHeight="1">
+    <row r="74" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F74" s="57"/>
       <c r="P74" s="55"/>
       <c r="Q74" s="55"/>
       <c r="R74" s="55"/>
     </row>
-    <row r="75" spans="6:18" ht="18" customHeight="1">
+    <row r="75" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F75" s="57"/>
       <c r="P75" s="55"/>
       <c r="Q75" s="55"/>
       <c r="R75" s="55"/>
     </row>
-    <row r="76" spans="6:18" ht="18" customHeight="1">
+    <row r="76" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F76" s="57"/>
       <c r="P76" s="55"/>
       <c r="Q76" s="55"/>
       <c r="R76" s="55"/>
     </row>
-    <row r="77" spans="6:18" ht="18" customHeight="1">
+    <row r="77" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F77" s="57"/>
       <c r="P77" s="55"/>
       <c r="Q77" s="55"/>
       <c r="R77" s="55"/>
     </row>
-    <row r="78" spans="6:18" ht="18" customHeight="1">
+    <row r="78" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F78" s="57"/>
       <c r="P78" s="55"/>
       <c r="Q78" s="55"/>
       <c r="R78" s="55"/>
     </row>
-    <row r="79" spans="6:18" ht="18" customHeight="1">
+    <row r="79" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F79" s="57"/>
       <c r="P79" s="55"/>
       <c r="Q79" s="55"/>
       <c r="R79" s="55"/>
     </row>
-    <row r="80" spans="6:18" ht="18" customHeight="1">
+    <row r="80" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F80" s="57"/>
       <c r="P80" s="55"/>
       <c r="Q80" s="55"/>
       <c r="R80" s="55"/>
     </row>
-    <row r="81" spans="6:18" ht="18" customHeight="1">
+    <row r="81" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F81" s="57"/>
       <c r="P81" s="55"/>
       <c r="Q81" s="55"/>
       <c r="R81" s="55"/>
     </row>
-    <row r="82" spans="6:18" ht="18" customHeight="1">
+    <row r="82" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F82" s="57"/>
       <c r="P82" s="55"/>
       <c r="Q82" s="55"/>
       <c r="R82" s="55"/>
     </row>
-    <row r="83" spans="6:18" ht="18" customHeight="1">
+    <row r="83" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F83" s="57"/>
       <c r="P83" s="55"/>
       <c r="Q83" s="55"/>
       <c r="R83" s="55"/>
     </row>
-    <row r="84" spans="6:18" ht="18" customHeight="1">
+    <row r="84" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F84" s="57"/>
       <c r="P84" s="55"/>
       <c r="Q84" s="55"/>
       <c r="R84" s="55"/>
     </row>
-    <row r="85" spans="6:18" ht="18" customHeight="1">
+    <row r="85" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F85" s="57"/>
       <c r="P85" s="55"/>
       <c r="Q85" s="55"/>
       <c r="R85" s="55"/>
     </row>
-    <row r="86" spans="6:18" ht="18" customHeight="1">
+    <row r="86" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F86" s="57"/>
       <c r="P86" s="55"/>
       <c r="Q86" s="55"/>
       <c r="R86" s="55"/>
     </row>
-    <row r="87" spans="6:18" ht="18" customHeight="1">
+    <row r="87" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F87" s="57"/>
       <c r="P87" s="55"/>
       <c r="Q87" s="55"/>
       <c r="R87" s="55"/>
     </row>
-    <row r="88" spans="6:18" ht="18" customHeight="1">
+    <row r="88" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F88" s="57"/>
       <c r="P88" s="55"/>
       <c r="Q88" s="55"/>
       <c r="R88" s="55"/>
     </row>
-    <row r="89" spans="6:18" ht="18" customHeight="1">
+    <row r="89" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F89" s="57"/>
       <c r="P89" s="55"/>
       <c r="Q89" s="55"/>
       <c r="R89" s="55"/>
     </row>
-    <row r="90" spans="6:18" ht="18" customHeight="1">
+    <row r="90" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F90" s="57"/>
       <c r="P90" s="55"/>
       <c r="Q90" s="55"/>
       <c r="R90" s="55"/>
     </row>
-    <row r="91" spans="6:18" ht="18" customHeight="1">
+    <row r="91" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F91" s="57"/>
       <c r="P91" s="55"/>
       <c r="Q91" s="55"/>
       <c r="R91" s="55"/>
     </row>
-    <row r="92" spans="6:18" ht="18" customHeight="1">
+    <row r="92" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F92" s="57"/>
       <c r="P92" s="55"/>
       <c r="Q92" s="55"/>
       <c r="R92" s="55"/>
     </row>
-    <row r="93" spans="6:18" ht="18" customHeight="1">
+    <row r="93" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F93" s="57"/>
       <c r="P93" s="55"/>
       <c r="Q93" s="55"/>
       <c r="R93" s="55"/>
     </row>
-    <row r="94" spans="6:18" ht="18" customHeight="1">
+    <row r="94" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F94" s="57"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
       <c r="R94" s="55"/>
     </row>
-    <row r="95" spans="6:18" ht="18" customHeight="1">
+    <row r="95" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F95" s="57"/>
       <c r="P95" s="55"/>
       <c r="Q95" s="55"/>
       <c r="R95" s="55"/>
     </row>
-    <row r="96" spans="6:18" ht="18" customHeight="1">
+    <row r="96" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F96" s="57"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
       <c r="R96" s="55"/>
     </row>
-    <row r="97" spans="6:18" ht="18" customHeight="1">
+    <row r="97" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F97" s="57"/>
       <c r="P97" s="55"/>
       <c r="Q97" s="55"/>
       <c r="R97" s="55"/>
     </row>
-    <row r="98" spans="6:18" ht="18" customHeight="1">
+    <row r="98" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F98" s="57"/>
       <c r="P98" s="55"/>
       <c r="Q98" s="55"/>
       <c r="R98" s="55"/>
     </row>
-    <row r="99" spans="6:18" ht="18" customHeight="1">
+    <row r="99" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F99" s="57"/>
       <c r="P99" s="55"/>
       <c r="Q99" s="55"/>
       <c r="R99" s="55"/>
     </row>
-    <row r="100" spans="6:18" ht="18" customHeight="1">
+    <row r="100" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F100" s="57"/>
       <c r="P100" s="55"/>
       <c r="Q100" s="55"/>
       <c r="R100" s="55"/>
     </row>
-    <row r="101" spans="6:18" ht="18" customHeight="1">
+    <row r="101" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F101" s="57"/>
       <c r="P101" s="55"/>
       <c r="Q101" s="55"/>
       <c r="R101" s="55"/>
     </row>
-    <row r="102" spans="6:18" ht="18" customHeight="1">
+    <row r="102" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F102" s="57"/>
       <c r="P102" s="55"/>
       <c r="Q102" s="55"/>
       <c r="R102" s="55"/>
     </row>
-    <row r="103" spans="6:18" ht="18" customHeight="1">
+    <row r="103" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F103" s="57"/>
       <c r="P103" s="55"/>
       <c r="Q103" s="55"/>
       <c r="R103" s="55"/>
     </row>
-    <row r="104" spans="6:18" ht="18" customHeight="1">
+    <row r="104" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F104" s="57"/>
       <c r="P104" s="55"/>
       <c r="Q104" s="55"/>
       <c r="R104" s="55"/>
     </row>
-    <row r="105" spans="6:18" ht="18" customHeight="1">
+    <row r="105" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F105" s="57"/>
       <c r="P105" s="55"/>
       <c r="Q105" s="55"/>
       <c r="R105" s="55"/>
     </row>
-    <row r="106" spans="6:18" ht="18" customHeight="1">
+    <row r="106" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F106" s="57"/>
       <c r="P106" s="55"/>
       <c r="Q106" s="55"/>
       <c r="R106" s="55"/>
     </row>
-    <row r="107" spans="6:18" ht="18" customHeight="1">
+    <row r="107" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F107" s="57"/>
       <c r="P107" s="55"/>
       <c r="Q107" s="55"/>
       <c r="R107" s="55"/>
     </row>
-    <row r="108" spans="6:18" ht="18" customHeight="1">
+    <row r="108" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F108" s="57"/>
       <c r="P108" s="55"/>
       <c r="Q108" s="55"/>
       <c r="R108" s="55"/>
     </row>
-    <row r="109" spans="6:18" ht="18" customHeight="1">
+    <row r="109" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F109" s="57"/>
       <c r="P109" s="55"/>
       <c r="Q109" s="55"/>
       <c r="R109" s="55"/>
     </row>
-    <row r="110" spans="6:18" ht="18" customHeight="1">
+    <row r="110" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F110" s="57"/>
       <c r="P110" s="55"/>
       <c r="Q110" s="55"/>
       <c r="R110" s="55"/>
     </row>
-    <row r="111" spans="6:18" ht="18" customHeight="1">
+    <row r="111" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F111" s="57"/>
       <c r="P111" s="55"/>
       <c r="Q111" s="55"/>
       <c r="R111" s="55"/>
     </row>
-    <row r="112" spans="6:18" ht="18" customHeight="1">
+    <row r="112" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F112" s="57"/>
       <c r="P112" s="55"/>
       <c r="Q112" s="55"/>
       <c r="R112" s="55"/>
     </row>
-    <row r="113" spans="6:18" ht="18" customHeight="1">
+    <row r="113" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F113" s="57"/>
       <c r="P113" s="55"/>
       <c r="Q113" s="55"/>
       <c r="R113" s="55"/>
     </row>
-    <row r="114" spans="6:18" ht="18" customHeight="1">
+    <row r="114" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F114" s="57"/>
       <c r="P114" s="55"/>
       <c r="Q114" s="55"/>
       <c r="R114" s="55"/>
     </row>
-    <row r="115" spans="6:18" ht="18" customHeight="1">
+    <row r="115" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F115" s="57"/>
       <c r="P115" s="55"/>
       <c r="Q115" s="55"/>
       <c r="R115" s="55"/>
     </row>
-    <row r="116" spans="6:18" ht="18" customHeight="1">
+    <row r="116" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F116" s="57"/>
       <c r="P116" s="55"/>
       <c r="Q116" s="55"/>
       <c r="R116" s="55"/>
     </row>
-    <row r="117" spans="6:18" ht="18" customHeight="1">
+    <row r="117" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F117" s="57"/>
       <c r="P117" s="55"/>
       <c r="Q117" s="55"/>
       <c r="R117" s="55"/>
     </row>
-    <row r="118" spans="6:18" ht="18" customHeight="1">
+    <row r="118" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F118" s="57"/>
       <c r="P118" s="55"/>
       <c r="Q118" s="55"/>
       <c r="R118" s="55"/>
     </row>
-    <row r="119" spans="6:18" ht="18" customHeight="1">
+    <row r="119" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F119" s="57"/>
       <c r="P119" s="55"/>
       <c r="Q119" s="55"/>
       <c r="R119" s="55"/>
     </row>
-    <row r="120" spans="6:18" ht="18" customHeight="1">
+    <row r="120" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F120" s="57"/>
       <c r="P120" s="55"/>
       <c r="Q120" s="55"/>
       <c r="R120" s="55"/>
     </row>
-    <row r="121" spans="6:18" ht="18" customHeight="1">
+    <row r="121" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F121" s="57"/>
       <c r="P121" s="55"/>
       <c r="Q121" s="55"/>
       <c r="R121" s="55"/>
     </row>
-    <row r="122" spans="6:18" ht="18" customHeight="1">
+    <row r="122" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F122" s="57"/>
       <c r="P122" s="55"/>
       <c r="Q122" s="55"/>
       <c r="R122" s="55"/>
     </row>
-    <row r="123" spans="6:18" ht="18" customHeight="1">
+    <row r="123" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F123" s="57"/>
       <c r="P123" s="55"/>
       <c r="Q123" s="55"/>
       <c r="R123" s="55"/>
     </row>
-    <row r="124" spans="6:18" ht="18" customHeight="1">
+    <row r="124" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F124" s="57"/>
       <c r="P124" s="55"/>
       <c r="Q124" s="55"/>
       <c r="R124" s="55"/>
     </row>
-    <row r="125" spans="6:18" ht="18" customHeight="1">
+    <row r="125" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F125" s="57"/>
       <c r="P125" s="55"/>
       <c r="Q125" s="55"/>
       <c r="R125" s="55"/>
     </row>
-    <row r="126" spans="6:18" ht="18" customHeight="1">
+    <row r="126" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F126" s="57"/>
       <c r="P126" s="55"/>
       <c r="Q126" s="55"/>
       <c r="R126" s="55"/>
     </row>
-    <row r="127" spans="6:18" ht="18" customHeight="1">
+    <row r="127" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F127" s="57"/>
       <c r="P127" s="55"/>
       <c r="Q127" s="55"/>
       <c r="R127" s="55"/>
     </row>
-    <row r="128" spans="6:18" ht="18" customHeight="1">
+    <row r="128" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F128" s="57"/>
       <c r="P128" s="55"/>
       <c r="Q128" s="55"/>
       <c r="R128" s="55"/>
     </row>
-    <row r="129" spans="6:18" ht="18" customHeight="1">
+    <row r="129" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F129" s="57"/>
       <c r="P129" s="55"/>
       <c r="Q129" s="55"/>
       <c r="R129" s="55"/>
     </row>
-    <row r="130" spans="6:18" ht="18" customHeight="1">
+    <row r="130" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F130" s="57"/>
       <c r="P130" s="55"/>
       <c r="Q130" s="55"/>
       <c r="R130" s="55"/>
     </row>
-    <row r="131" spans="6:18" ht="18" customHeight="1">
+    <row r="131" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F131" s="57"/>
       <c r="P131" s="55"/>
       <c r="Q131" s="55"/>
       <c r="R131" s="55"/>
     </row>
-    <row r="132" spans="6:18" ht="18" customHeight="1">
+    <row r="132" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F132" s="57"/>
       <c r="P132" s="55"/>
       <c r="Q132" s="55"/>
       <c r="R132" s="55"/>
     </row>
-    <row r="133" spans="6:18" ht="18" customHeight="1">
+    <row r="133" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F133" s="57"/>
       <c r="P133" s="55"/>
       <c r="Q133" s="55"/>
       <c r="R133" s="55"/>
     </row>
-    <row r="134" spans="6:18" ht="18" customHeight="1">
+    <row r="134" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F134" s="57"/>
       <c r="P134" s="55"/>
       <c r="Q134" s="55"/>
       <c r="R134" s="55"/>
     </row>
-    <row r="135" spans="6:18" ht="18" customHeight="1">
+    <row r="135" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F135" s="57"/>
       <c r="P135" s="55"/>
       <c r="Q135" s="55"/>
       <c r="R135" s="55"/>
     </row>
-    <row r="136" spans="6:18" ht="18" customHeight="1">
+    <row r="136" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F136" s="57"/>
       <c r="P136" s="55"/>
       <c r="Q136" s="55"/>
       <c r="R136" s="55"/>
     </row>
-    <row r="137" spans="6:18" ht="18" customHeight="1">
+    <row r="137" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F137" s="57"/>
       <c r="P137" s="55"/>
       <c r="Q137" s="55"/>
       <c r="R137" s="55"/>
     </row>
-    <row r="138" spans="6:18" ht="18" customHeight="1">
+    <row r="138" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F138" s="57"/>
       <c r="P138" s="55"/>
       <c r="Q138" s="55"/>
       <c r="R138" s="55"/>
     </row>
-    <row r="139" spans="6:18" ht="18" customHeight="1">
+    <row r="139" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F139" s="57"/>
       <c r="P139" s="55"/>
       <c r="Q139" s="55"/>
       <c r="R139" s="55"/>
     </row>
-    <row r="140" spans="6:18" ht="18" customHeight="1">
+    <row r="140" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F140" s="57"/>
       <c r="P140" s="55"/>
       <c r="Q140" s="55"/>
       <c r="R140" s="55"/>
     </row>
-    <row r="141" spans="6:18" ht="18" customHeight="1">
+    <row r="141" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F141" s="57"/>
       <c r="P141" s="55"/>
       <c r="Q141" s="55"/>
       <c r="R141" s="55"/>
     </row>
-    <row r="142" spans="6:18" ht="18" customHeight="1">
+    <row r="142" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F142" s="57"/>
       <c r="P142" s="55"/>
       <c r="Q142" s="55"/>
       <c r="R142" s="55"/>
     </row>
-    <row r="143" spans="6:18" ht="18" customHeight="1">
+    <row r="143" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F143" s="57"/>
       <c r="P143" s="55"/>
       <c r="Q143" s="55"/>
       <c r="R143" s="55"/>
     </row>
-    <row r="144" spans="6:18" ht="18" customHeight="1">
+    <row r="144" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F144" s="57"/>
       <c r="P144" s="55"/>
       <c r="Q144" s="55"/>
       <c r="R144" s="55"/>
     </row>
-    <row r="145" spans="6:18" ht="18" customHeight="1">
+    <row r="145" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F145" s="57"/>
       <c r="P145" s="55"/>
       <c r="Q145" s="55"/>
       <c r="R145" s="55"/>
     </row>
-    <row r="146" spans="6:18" ht="18" customHeight="1">
+    <row r="146" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F146" s="57"/>
       <c r="P146" s="55"/>
       <c r="Q146" s="55"/>
       <c r="R146" s="55"/>
     </row>
-    <row r="147" spans="6:18" ht="18" customHeight="1">
+    <row r="147" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F147" s="57"/>
       <c r="P147" s="55"/>
       <c r="Q147" s="55"/>
       <c r="R147" s="55"/>
     </row>
-    <row r="148" spans="6:18" ht="18" customHeight="1">
+    <row r="148" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F148" s="57"/>
       <c r="P148" s="55"/>
       <c r="Q148" s="55"/>
       <c r="R148" s="55"/>
     </row>
-    <row r="149" spans="6:18" ht="18" customHeight="1">
+    <row r="149" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F149" s="57"/>
       <c r="P149" s="55"/>
       <c r="Q149" s="55"/>
       <c r="R149" s="55"/>
     </row>
-    <row r="150" spans="6:18" ht="18" customHeight="1">
+    <row r="150" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F150" s="57"/>
       <c r="P150" s="55"/>
       <c r="Q150" s="55"/>
       <c r="R150" s="55"/>
     </row>
-    <row r="151" spans="6:18" ht="18" customHeight="1">
+    <row r="151" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F151" s="57"/>
       <c r="P151" s="55"/>
       <c r="Q151" s="55"/>
       <c r="R151" s="55"/>
     </row>
-    <row r="152" spans="6:18" ht="18" customHeight="1">
+    <row r="152" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F152" s="57"/>
       <c r="P152" s="55"/>
       <c r="Q152" s="55"/>
       <c r="R152" s="55"/>
     </row>
-    <row r="153" spans="6:18" ht="18" customHeight="1">
+    <row r="153" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F153" s="57"/>
       <c r="P153" s="55"/>
       <c r="Q153" s="55"/>
       <c r="R153" s="55"/>
     </row>
-    <row r="154" spans="6:18" ht="18" customHeight="1">
+    <row r="154" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F154" s="57"/>
       <c r="P154" s="55"/>
       <c r="Q154" s="55"/>
       <c r="R154" s="55"/>
     </row>
-    <row r="155" spans="6:18" ht="18" customHeight="1">
+    <row r="155" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F155" s="57"/>
       <c r="P155" s="55"/>
       <c r="Q155" s="55"/>
       <c r="R155" s="55"/>
     </row>
-    <row r="156" spans="6:18" ht="18" customHeight="1">
+    <row r="156" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F156" s="57"/>
       <c r="P156" s="55"/>
       <c r="Q156" s="55"/>
       <c r="R156" s="55"/>
     </row>
-    <row r="157" spans="6:18" ht="18" customHeight="1">
+    <row r="157" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F157" s="57"/>
       <c r="P157" s="55"/>
       <c r="Q157" s="55"/>
       <c r="R157" s="55"/>
     </row>
-    <row r="158" spans="6:18" ht="18" customHeight="1">
+    <row r="158" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F158" s="57"/>
       <c r="P158" s="55"/>
       <c r="Q158" s="55"/>
       <c r="R158" s="55"/>
     </row>
-    <row r="159" spans="6:18" ht="18" customHeight="1">
+    <row r="159" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F159" s="57"/>
       <c r="P159" s="55"/>
       <c r="Q159" s="55"/>
       <c r="R159" s="55"/>
     </row>
-    <row r="160" spans="6:18" ht="18" customHeight="1">
+    <row r="160" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F160" s="57"/>
       <c r="P160" s="55"/>
       <c r="Q160" s="55"/>
       <c r="R160" s="55"/>
     </row>
-    <row r="161" spans="6:18" ht="18" customHeight="1">
+    <row r="161" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F161" s="57"/>
       <c r="P161" s="55"/>
       <c r="Q161" s="55"/>
       <c r="R161" s="55"/>
     </row>
-    <row r="162" spans="6:18" ht="18" customHeight="1">
+    <row r="162" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F162" s="57"/>
       <c r="P162" s="55"/>
       <c r="Q162" s="55"/>
       <c r="R162" s="55"/>
     </row>
-    <row r="163" spans="6:18" ht="18" customHeight="1">
+    <row r="163" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F163" s="57"/>
       <c r="P163" s="55"/>
       <c r="Q163" s="55"/>
       <c r="R163" s="55"/>
     </row>
-    <row r="164" spans="6:18" ht="18" customHeight="1">
+    <row r="164" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F164" s="57"/>
       <c r="P164" s="55"/>
       <c r="Q164" s="55"/>
       <c r="R164" s="55"/>
     </row>
-    <row r="165" spans="6:18" ht="18" customHeight="1">
+    <row r="165" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F165" s="57"/>
       <c r="P165" s="55"/>
       <c r="Q165" s="55"/>
       <c r="R165" s="55"/>
     </row>
-    <row r="166" spans="6:18" ht="18" customHeight="1">
+    <row r="166" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F166" s="57"/>
       <c r="P166" s="55"/>
       <c r="Q166" s="55"/>
       <c r="R166" s="55"/>
     </row>
-    <row r="167" spans="6:18" ht="18" customHeight="1">
+    <row r="167" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F167" s="57"/>
       <c r="P167" s="55"/>
       <c r="Q167" s="55"/>
       <c r="R167" s="55"/>
     </row>
-    <row r="168" spans="6:18" ht="18" customHeight="1">
+    <row r="168" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F168" s="57"/>
       <c r="P168" s="55"/>
       <c r="Q168" s="55"/>
       <c r="R168" s="55"/>
     </row>
-    <row r="169" spans="6:18" ht="18" customHeight="1">
+    <row r="169" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F169" s="57"/>
       <c r="P169" s="55"/>
       <c r="Q169" s="55"/>
       <c r="R169" s="55"/>
     </row>
-    <row r="170" spans="6:18" ht="18" customHeight="1">
+    <row r="170" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F170" s="57"/>
       <c r="P170" s="55"/>
       <c r="Q170" s="55"/>
       <c r="R170" s="55"/>
     </row>
-    <row r="171" spans="6:18" ht="18" customHeight="1">
+    <row r="171" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F171" s="57"/>
       <c r="P171" s="55"/>
       <c r="Q171" s="55"/>
       <c r="R171" s="55"/>
     </row>
-    <row r="172" spans="6:18" ht="18" customHeight="1">
+    <row r="172" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F172" s="57"/>
       <c r="P172" s="55"/>
       <c r="Q172" s="55"/>
       <c r="R172" s="55"/>
     </row>
-    <row r="173" spans="6:18" ht="18" customHeight="1">
+    <row r="173" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F173" s="57"/>
       <c r="P173" s="55"/>
       <c r="Q173" s="55"/>
       <c r="R173" s="55"/>
     </row>
-    <row r="174" spans="6:18" ht="18" customHeight="1">
+    <row r="174" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F174" s="57"/>
       <c r="P174" s="55"/>
       <c r="Q174" s="55"/>
       <c r="R174" s="55"/>
     </row>
-    <row r="175" spans="6:18" ht="18" customHeight="1">
+    <row r="175" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F175" s="57"/>
       <c r="P175" s="55"/>
       <c r="Q175" s="55"/>
       <c r="R175" s="55"/>
     </row>
-    <row r="176" spans="6:18" ht="18" customHeight="1">
+    <row r="176" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F176" s="57"/>
       <c r="P176" s="55"/>
       <c r="Q176" s="55"/>
       <c r="R176" s="55"/>
     </row>
-    <row r="177" spans="6:18" ht="18" customHeight="1">
+    <row r="177" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F177" s="57"/>
       <c r="P177" s="55"/>
       <c r="Q177" s="55"/>
       <c r="R177" s="55"/>
     </row>
-    <row r="178" spans="6:18" ht="18" customHeight="1">
+    <row r="178" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F178" s="57"/>
       <c r="P178" s="55"/>
       <c r="Q178" s="55"/>
       <c r="R178" s="55"/>
     </row>
-    <row r="179" spans="6:18" ht="18" customHeight="1">
+    <row r="179" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F179" s="57"/>
       <c r="P179" s="55"/>
       <c r="Q179" s="55"/>
       <c r="R179" s="55"/>
     </row>
-    <row r="180" spans="6:18" ht="18" customHeight="1">
+    <row r="180" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F180" s="57"/>
       <c r="P180" s="55"/>
       <c r="Q180" s="55"/>
       <c r="R180" s="55"/>
     </row>
-    <row r="181" spans="6:18" ht="18" customHeight="1">
+    <row r="181" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F181" s="57"/>
       <c r="P181" s="55"/>
       <c r="Q181" s="55"/>
       <c r="R181" s="55"/>
     </row>
-    <row r="182" spans="6:18" ht="18" customHeight="1">
+    <row r="182" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F182" s="57"/>
       <c r="P182" s="55"/>
       <c r="Q182" s="55"/>
       <c r="R182" s="55"/>
     </row>
-    <row r="183" spans="6:18" ht="18" customHeight="1">
+    <row r="183" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F183" s="57"/>
       <c r="P183" s="55"/>
       <c r="Q183" s="55"/>
       <c r="R183" s="55"/>
     </row>
-    <row r="184" spans="6:18" ht="18" customHeight="1">
+    <row r="184" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F184" s="57"/>
       <c r="P184" s="55"/>
       <c r="Q184" s="55"/>
       <c r="R184" s="55"/>
     </row>
-    <row r="185" spans="6:18" ht="18" customHeight="1">
+    <row r="185" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F185" s="57"/>
       <c r="P185" s="55"/>
       <c r="Q185" s="55"/>
       <c r="R185" s="55"/>
     </row>
-    <row r="186" spans="6:18" ht="18" customHeight="1">
+    <row r="186" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F186" s="57"/>
       <c r="P186" s="55"/>
       <c r="Q186" s="55"/>
       <c r="R186" s="55"/>
     </row>
-    <row r="187" spans="6:18" ht="18" customHeight="1">
+    <row r="187" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F187" s="57"/>
       <c r="P187" s="55"/>
       <c r="Q187" s="55"/>
       <c r="R187" s="55"/>
     </row>
-    <row r="188" spans="6:18" ht="18" customHeight="1">
+    <row r="188" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F188" s="57"/>
       <c r="P188" s="55"/>
       <c r="Q188" s="55"/>
       <c r="R188" s="55"/>
     </row>
-    <row r="189" spans="6:18" ht="18" customHeight="1">
+    <row r="189" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F189" s="57"/>
       <c r="P189" s="55"/>
       <c r="Q189" s="55"/>
       <c r="R189" s="55"/>
     </row>
-    <row r="190" spans="6:18" ht="18" customHeight="1">
+    <row r="190" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F190" s="57"/>
       <c r="P190" s="55"/>
       <c r="Q190" s="55"/>
       <c r="R190" s="55"/>
     </row>
-    <row r="191" spans="6:18" ht="18" customHeight="1">
+    <row r="191" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F191" s="57"/>
       <c r="P191" s="55"/>
       <c r="Q191" s="55"/>
       <c r="R191" s="55"/>
     </row>
-    <row r="192" spans="6:18" ht="18" customHeight="1">
+    <row r="192" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F192" s="57"/>
       <c r="P192" s="55"/>
       <c r="Q192" s="55"/>
       <c r="R192" s="55"/>
     </row>
-    <row r="193" spans="6:18" ht="18" customHeight="1">
+    <row r="193" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F193" s="57"/>
       <c r="P193" s="55"/>
       <c r="Q193" s="55"/>
       <c r="R193" s="55"/>
     </row>
-    <row r="194" spans="6:18" ht="18" customHeight="1">
+    <row r="194" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F194" s="57"/>
       <c r="P194" s="55"/>
       <c r="Q194" s="55"/>
       <c r="R194" s="55"/>
     </row>
-    <row r="195" spans="6:18" ht="18" customHeight="1">
+    <row r="195" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F195" s="57"/>
       <c r="P195" s="55"/>
       <c r="Q195" s="55"/>
       <c r="R195" s="55"/>
     </row>
-    <row r="196" spans="6:18" ht="18" customHeight="1">
+    <row r="196" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F196" s="57"/>
       <c r="P196" s="55"/>
       <c r="Q196" s="55"/>
       <c r="R196" s="55"/>
     </row>
-    <row r="197" spans="6:18" ht="18" customHeight="1">
+    <row r="197" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F197" s="57"/>
       <c r="P197" s="55"/>
       <c r="Q197" s="55"/>
       <c r="R197" s="55"/>
     </row>
-    <row r="198" spans="6:18" ht="18" customHeight="1">
+    <row r="198" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F198" s="57"/>
       <c r="P198" s="55"/>
       <c r="Q198" s="55"/>
       <c r="R198" s="55"/>
     </row>
-    <row r="199" spans="6:18" ht="18" customHeight="1">
+    <row r="199" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F199" s="57"/>
       <c r="P199" s="55"/>
       <c r="Q199" s="55"/>
       <c r="R199" s="55"/>
     </row>
-    <row r="200" spans="6:18" ht="18" customHeight="1">
+    <row r="200" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F200" s="57"/>
       <c r="P200" s="55"/>
       <c r="Q200" s="55"/>
       <c r="R200" s="55"/>
     </row>
-    <row r="201" spans="6:18" ht="18" customHeight="1">
+    <row r="201" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F201" s="57"/>
       <c r="P201" s="55"/>
       <c r="Q201" s="55"/>
       <c r="R201" s="55"/>
     </row>
-    <row r="202" spans="6:18" ht="18" customHeight="1">
+    <row r="202" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F202" s="57"/>
       <c r="P202" s="55"/>
       <c r="Q202" s="55"/>
       <c r="R202" s="55"/>
     </row>
-    <row r="203" spans="6:18" ht="18" customHeight="1">
+    <row r="203" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F203" s="57"/>
       <c r="P203" s="55"/>
       <c r="Q203" s="55"/>
       <c r="R203" s="55"/>
     </row>
-    <row r="204" spans="6:18" ht="18" customHeight="1">
+    <row r="204" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F204" s="57"/>
       <c r="P204" s="55"/>
       <c r="Q204" s="55"/>
       <c r="R204" s="55"/>
     </row>
-    <row r="205" spans="6:18" ht="18" customHeight="1">
+    <row r="205" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F205" s="57"/>
       <c r="P205" s="55"/>
       <c r="Q205" s="55"/>
       <c r="R205" s="55"/>
     </row>
-    <row r="206" spans="6:18" ht="18" customHeight="1">
+    <row r="206" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F206" s="57"/>
       <c r="P206" s="55"/>
       <c r="Q206" s="55"/>
       <c r="R206" s="55"/>
     </row>
-    <row r="207" spans="6:18" ht="18" customHeight="1">
+    <row r="207" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F207" s="57"/>
       <c r="P207" s="55"/>
       <c r="Q207" s="55"/>
       <c r="R207" s="55"/>
     </row>
-    <row r="208" spans="6:18" ht="18" customHeight="1">
+    <row r="208" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F208" s="57"/>
       <c r="P208" s="55"/>
       <c r="Q208" s="55"/>
       <c r="R208" s="55"/>
     </row>
-    <row r="209" spans="6:18" ht="18" customHeight="1">
+    <row r="209" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F209" s="57"/>
       <c r="P209" s="55"/>
       <c r="Q209" s="55"/>
       <c r="R209" s="55"/>
     </row>
-    <row r="210" spans="6:18" ht="18" customHeight="1">
+    <row r="210" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F210" s="57"/>
       <c r="P210" s="55"/>
       <c r="Q210" s="55"/>
       <c r="R210" s="55"/>
     </row>
-    <row r="211" spans="6:18" ht="18" customHeight="1">
+    <row r="211" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F211" s="57"/>
       <c r="P211" s="55"/>
       <c r="Q211" s="55"/>
       <c r="R211" s="55"/>
     </row>
-    <row r="212" spans="6:18" ht="18" customHeight="1">
+    <row r="212" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F212" s="57"/>
       <c r="P212" s="55"/>
       <c r="Q212" s="55"/>
       <c r="R212" s="55"/>
     </row>
-    <row r="213" spans="6:18" ht="18" customHeight="1">
+    <row r="213" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F213" s="57"/>
       <c r="P213" s="55"/>
       <c r="Q213" s="55"/>
       <c r="R213" s="55"/>
     </row>
-    <row r="214" spans="6:18" ht="18" customHeight="1">
+    <row r="214" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F214" s="57"/>
       <c r="P214" s="55"/>
       <c r="Q214" s="55"/>
       <c r="R214" s="55"/>
     </row>
-    <row r="215" spans="6:18" ht="18" customHeight="1">
+    <row r="215" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F215" s="57"/>
       <c r="P215" s="55"/>
       <c r="Q215" s="55"/>
       <c r="R215" s="55"/>
     </row>
-    <row r="216" spans="6:18" ht="18" customHeight="1">
+    <row r="216" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F216" s="57"/>
       <c r="P216" s="55"/>
       <c r="Q216" s="55"/>
       <c r="R216" s="55"/>
     </row>
-    <row r="217" spans="6:18" ht="18" customHeight="1">
+    <row r="217" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F217" s="57"/>
       <c r="P217" s="55"/>
       <c r="Q217" s="55"/>
       <c r="R217" s="55"/>
     </row>
-    <row r="218" spans="6:18" ht="18" customHeight="1">
+    <row r="218" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F218" s="57"/>
       <c r="P218" s="55"/>
       <c r="Q218" s="55"/>
       <c r="R218" s="55"/>
     </row>
-    <row r="219" spans="6:18" ht="18" customHeight="1">
+    <row r="219" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F219" s="57"/>
       <c r="P219" s="55"/>
       <c r="Q219" s="55"/>
       <c r="R219" s="55"/>
     </row>
-    <row r="220" spans="6:18" ht="18" customHeight="1">
+    <row r="220" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F220" s="57"/>
       <c r="P220" s="55"/>
       <c r="Q220" s="55"/>
       <c r="R220" s="55"/>
     </row>
-    <row r="221" spans="6:18" ht="18" customHeight="1">
+    <row r="221" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F221" s="57"/>
       <c r="P221" s="55"/>
       <c r="Q221" s="55"/>
       <c r="R221" s="55"/>
     </row>
-    <row r="222" spans="6:18" ht="18" customHeight="1">
+    <row r="222" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F222" s="57"/>
       <c r="P222" s="55"/>
       <c r="Q222" s="55"/>
       <c r="R222" s="55"/>
     </row>
-    <row r="223" spans="6:18" ht="18" customHeight="1">
+    <row r="223" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F223" s="57"/>
       <c r="P223" s="55"/>
       <c r="Q223" s="55"/>
       <c r="R223" s="55"/>
     </row>
-    <row r="224" spans="6:18" ht="18" customHeight="1">
+    <row r="224" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F224" s="57"/>
       <c r="P224" s="55"/>
       <c r="Q224" s="55"/>
       <c r="R224" s="55"/>
     </row>
-    <row r="225" spans="6:18" ht="18" customHeight="1">
+    <row r="225" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F225" s="57"/>
       <c r="P225" s="55"/>
       <c r="Q225" s="55"/>
       <c r="R225" s="55"/>
     </row>
-    <row r="226" spans="6:18" ht="18" customHeight="1">
+    <row r="226" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F226" s="57"/>
       <c r="P226" s="55"/>
       <c r="Q226" s="55"/>
       <c r="R226" s="55"/>
     </row>
-    <row r="227" spans="6:18" ht="18" customHeight="1">
+    <row r="227" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F227" s="57"/>
       <c r="P227" s="55"/>
       <c r="Q227" s="55"/>
       <c r="R227" s="55"/>
     </row>
-    <row r="228" spans="6:18" ht="18" customHeight="1">
+    <row r="228" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F228" s="57"/>
       <c r="P228" s="55"/>
       <c r="Q228" s="55"/>
       <c r="R228" s="55"/>
     </row>
-    <row r="229" spans="6:18" ht="18" customHeight="1">
+    <row r="229" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F229" s="57"/>
       <c r="P229" s="55"/>
       <c r="Q229" s="55"/>
       <c r="R229" s="55"/>
     </row>
-    <row r="230" spans="6:18" ht="18" customHeight="1">
+    <row r="230" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F230" s="57"/>
       <c r="P230" s="55"/>
       <c r="Q230" s="55"/>
       <c r="R230" s="55"/>
     </row>
-    <row r="231" spans="6:18" ht="18" customHeight="1">
+    <row r="231" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F231" s="57"/>
       <c r="P231" s="55"/>
       <c r="Q231" s="55"/>
       <c r="R231" s="55"/>
     </row>
-    <row r="232" spans="6:18" ht="18" customHeight="1">
+    <row r="232" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F232" s="57"/>
       <c r="P232" s="55"/>
       <c r="Q232" s="55"/>
       <c r="R232" s="55"/>
     </row>
-    <row r="233" spans="6:18" ht="18" customHeight="1">
+    <row r="233" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F233" s="57"/>
       <c r="P233" s="55"/>
       <c r="Q233" s="55"/>
       <c r="R233" s="55"/>
     </row>
-    <row r="234" spans="6:18" ht="18" customHeight="1">
+    <row r="234" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F234" s="57"/>
       <c r="P234" s="55"/>
       <c r="Q234" s="55"/>
       <c r="R234" s="55"/>
     </row>
-    <row r="235" spans="6:18" ht="18" customHeight="1">
+    <row r="235" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F235" s="57"/>
       <c r="P235" s="55"/>
       <c r="Q235" s="55"/>
       <c r="R235" s="55"/>
     </row>
-    <row r="236" spans="6:18" ht="18" customHeight="1">
+    <row r="236" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F236" s="57"/>
       <c r="P236" s="55"/>
       <c r="Q236" s="55"/>
       <c r="R236" s="55"/>
     </row>
-    <row r="237" spans="6:18" ht="18" customHeight="1">
+    <row r="237" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F237" s="57"/>
       <c r="P237" s="55"/>
       <c r="Q237" s="55"/>
       <c r="R237" s="55"/>
     </row>
-    <row r="238" spans="6:18" ht="18" customHeight="1">
+    <row r="238" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F238" s="57"/>
       <c r="P238" s="55"/>
       <c r="Q238" s="55"/>
       <c r="R238" s="55"/>
     </row>
-    <row r="239" spans="6:18" ht="18" customHeight="1">
+    <row r="239" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F239" s="57"/>
       <c r="P239" s="55"/>
       <c r="Q239" s="55"/>
       <c r="R239" s="55"/>
     </row>
-    <row r="240" spans="6:18" ht="18" customHeight="1">
+    <row r="240" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F240" s="57"/>
       <c r="P240" s="55"/>
       <c r="Q240" s="55"/>
       <c r="R240" s="55"/>
     </row>
-    <row r="241" spans="6:18" ht="18" customHeight="1">
+    <row r="241" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F241" s="57"/>
       <c r="P241" s="55"/>
       <c r="Q241" s="55"/>
       <c r="R241" s="55"/>
     </row>
-    <row r="242" spans="6:18" ht="18" customHeight="1">
+    <row r="242" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F242" s="57"/>
       <c r="P242" s="55"/>
       <c r="Q242" s="55"/>
       <c r="R242" s="55"/>
     </row>
-    <row r="243" spans="6:18" ht="18" customHeight="1">
+    <row r="243" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F243" s="57"/>
       <c r="P243" s="55"/>
       <c r="Q243" s="55"/>
       <c r="R243" s="55"/>
     </row>
-    <row r="244" spans="6:18" ht="18" customHeight="1">
+    <row r="244" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F244" s="57"/>
       <c r="P244" s="55"/>
       <c r="Q244" s="55"/>
       <c r="R244" s="55"/>
     </row>
-    <row r="245" spans="6:18" ht="18" customHeight="1">
+    <row r="245" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F245" s="57"/>
       <c r="P245" s="55"/>
       <c r="Q245" s="55"/>
       <c r="R245" s="55"/>
     </row>
-    <row r="246" spans="6:18" ht="18" customHeight="1">
+    <row r="246" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F246" s="57"/>
       <c r="P246" s="55"/>
       <c r="Q246" s="55"/>
       <c r="R246" s="55"/>
     </row>
-    <row r="247" spans="6:18" ht="18" customHeight="1">
+    <row r="247" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F247" s="57"/>
       <c r="P247" s="55"/>
       <c r="Q247" s="55"/>
       <c r="R247" s="55"/>
     </row>
-    <row r="248" spans="6:18" ht="18" customHeight="1">
+    <row r="248" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F248" s="57"/>
       <c r="P248" s="55"/>
       <c r="Q248" s="55"/>
       <c r="R248" s="55"/>
     </row>
-    <row r="249" spans="6:18" ht="18" customHeight="1">
+    <row r="249" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F249" s="57"/>
       <c r="P249" s="55"/>
       <c r="Q249" s="55"/>
       <c r="R249" s="55"/>
     </row>
-    <row r="250" spans="6:18" ht="18" customHeight="1">
+    <row r="250" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F250" s="57"/>
       <c r="P250" s="55"/>
       <c r="Q250" s="55"/>
       <c r="R250" s="55"/>
     </row>
-    <row r="251" spans="6:18" ht="18" customHeight="1">
+    <row r="251" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F251" s="57"/>
       <c r="P251" s="55"/>
       <c r="Q251" s="55"/>
       <c r="R251" s="55"/>
     </row>
-    <row r="252" spans="6:18" ht="18" customHeight="1">
+    <row r="252" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F252" s="57"/>
       <c r="P252" s="55"/>
       <c r="Q252" s="55"/>
       <c r="R252" s="55"/>
     </row>
-    <row r="253" spans="6:18" ht="18" customHeight="1">
+    <row r="253" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F253" s="57"/>
       <c r="P253" s="55"/>
       <c r="Q253" s="55"/>
       <c r="R253" s="55"/>
     </row>
-    <row r="254" spans="6:18" ht="18" customHeight="1">
+    <row r="254" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F254" s="57"/>
       <c r="P254" s="55"/>
       <c r="Q254" s="55"/>
       <c r="R254" s="55"/>
     </row>
-    <row r="255" spans="6:18" ht="18" customHeight="1">
+    <row r="255" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F255" s="57"/>
       <c r="P255" s="55"/>
       <c r="Q255" s="55"/>
       <c r="R255" s="55"/>
     </row>
-    <row r="256" spans="6:18" ht="18" customHeight="1">
+    <row r="256" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F256" s="57"/>
       <c r="P256" s="55"/>
       <c r="Q256" s="55"/>
       <c r="R256" s="55"/>
     </row>
-    <row r="257" spans="6:18" ht="18" customHeight="1">
+    <row r="257" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F257" s="57"/>
       <c r="P257" s="55"/>
       <c r="Q257" s="55"/>
       <c r="R257" s="55"/>
     </row>
-    <row r="258" spans="6:18" ht="18" customHeight="1">
+    <row r="258" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F258" s="57"/>
       <c r="P258" s="55"/>
       <c r="Q258" s="55"/>
       <c r="R258" s="55"/>
     </row>
-    <row r="259" spans="6:18" ht="18" customHeight="1">
+    <row r="259" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F259" s="57"/>
       <c r="P259" s="55"/>
       <c r="Q259" s="55"/>
       <c r="R259" s="55"/>
     </row>
-    <row r="260" spans="6:18" ht="18" customHeight="1">
+    <row r="260" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F260" s="57"/>
       <c r="P260" s="55"/>
       <c r="Q260" s="55"/>
       <c r="R260" s="55"/>
     </row>
-    <row r="261" spans="6:18" ht="18" customHeight="1">
+    <row r="261" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F261" s="57"/>
       <c r="P261" s="55"/>
       <c r="Q261" s="55"/>
       <c r="R261" s="55"/>
     </row>
-    <row r="262" spans="6:18" ht="18" customHeight="1">
+    <row r="262" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F262" s="57"/>
       <c r="P262" s="55"/>
       <c r="Q262" s="55"/>
       <c r="R262" s="55"/>
     </row>
-    <row r="263" spans="6:18" ht="18" customHeight="1">
+    <row r="263" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F263" s="57"/>
       <c r="P263" s="55"/>
       <c r="Q263" s="55"/>
       <c r="R263" s="55"/>
     </row>
-    <row r="264" spans="6:18" ht="18" customHeight="1">
+    <row r="264" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F264" s="57"/>
       <c r="P264" s="55"/>
       <c r="Q264" s="55"/>
       <c r="R264" s="55"/>
     </row>
-    <row r="265" spans="6:18" ht="18" customHeight="1">
+    <row r="265" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F265" s="57"/>
       <c r="P265" s="55"/>
       <c r="Q265" s="55"/>
       <c r="R265" s="55"/>
     </row>
-    <row r="266" spans="6:18" ht="18" customHeight="1">
+    <row r="266" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F266" s="57"/>
       <c r="P266" s="55"/>
       <c r="Q266" s="55"/>
       <c r="R266" s="55"/>
     </row>
-    <row r="267" spans="6:18" ht="18" customHeight="1">
+    <row r="267" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F267" s="57"/>
       <c r="P267" s="55"/>
       <c r="Q267" s="55"/>
       <c r="R267" s="55"/>
     </row>
-    <row r="268" spans="6:18" ht="18" customHeight="1">
+    <row r="268" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F268" s="57"/>
       <c r="P268" s="55"/>
       <c r="Q268" s="55"/>
       <c r="R268" s="55"/>
     </row>
-    <row r="269" spans="6:18" ht="18" customHeight="1">
+    <row r="269" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F269" s="57"/>
       <c r="P269" s="55"/>
       <c r="Q269" s="55"/>
       <c r="R269" s="55"/>
     </row>
-    <row r="270" spans="6:18" ht="18" customHeight="1">
+    <row r="270" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F270" s="57"/>
       <c r="P270" s="55"/>
       <c r="Q270" s="55"/>
       <c r="R270" s="55"/>
     </row>
-    <row r="271" spans="6:18" ht="18" customHeight="1">
+    <row r="271" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F271" s="57"/>
       <c r="P271" s="55"/>
       <c r="Q271" s="55"/>
       <c r="R271" s="55"/>
     </row>
-    <row r="272" spans="6:18" ht="18" customHeight="1">
+    <row r="272" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F272" s="57"/>
       <c r="P272" s="55"/>
       <c r="Q272" s="55"/>
       <c r="R272" s="55"/>
     </row>
-    <row r="273" spans="6:18" ht="18" customHeight="1">
+    <row r="273" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F273" s="57"/>
       <c r="P273" s="55"/>
       <c r="Q273" s="55"/>
       <c r="R273" s="55"/>
     </row>
-    <row r="274" spans="6:18" ht="18" customHeight="1">
+    <row r="274" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F274" s="57"/>
       <c r="P274" s="55"/>
       <c r="Q274" s="55"/>
       <c r="R274" s="55"/>
     </row>
-    <row r="275" spans="6:18" ht="18" customHeight="1">
+    <row r="275" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F275" s="57"/>
       <c r="P275" s="55"/>
       <c r="Q275" s="55"/>
       <c r="R275" s="55"/>
     </row>
-    <row r="276" spans="6:18" ht="18" customHeight="1">
+    <row r="276" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F276" s="57"/>
       <c r="P276" s="55"/>
       <c r="Q276" s="55"/>
       <c r="R276" s="55"/>
     </row>
-    <row r="277" spans="6:18" ht="18" customHeight="1">
+    <row r="277" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F277" s="57"/>
       <c r="P277" s="55"/>
       <c r="Q277" s="55"/>
       <c r="R277" s="55"/>
     </row>
-    <row r="278" spans="6:18" ht="18" customHeight="1">
+    <row r="278" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F278" s="57"/>
       <c r="P278" s="55"/>
       <c r="Q278" s="55"/>
       <c r="R278" s="55"/>
     </row>
-    <row r="279" spans="6:18" ht="18" customHeight="1">
+    <row r="279" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F279" s="57"/>
       <c r="P279" s="55"/>
       <c r="Q279" s="55"/>
       <c r="R279" s="55"/>
     </row>
-    <row r="280" spans="6:18" ht="18" customHeight="1">
+    <row r="280" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F280" s="57"/>
       <c r="P280" s="55"/>
       <c r="Q280" s="55"/>
       <c r="R280" s="55"/>
     </row>
-    <row r="281" spans="6:18" ht="18" customHeight="1">
+    <row r="281" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F281" s="57"/>
       <c r="P281" s="55"/>
       <c r="Q281" s="55"/>
       <c r="R281" s="55"/>
     </row>
-    <row r="282" spans="6:18" ht="18" customHeight="1">
+    <row r="282" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F282" s="57"/>
       <c r="P282" s="55"/>
       <c r="Q282" s="55"/>
       <c r="R282" s="55"/>
     </row>
-    <row r="283" spans="6:18" ht="18" customHeight="1">
+    <row r="283" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F283" s="57"/>
       <c r="P283" s="55"/>
       <c r="Q283" s="55"/>
       <c r="R283" s="55"/>
     </row>
-    <row r="284" spans="6:18" ht="18" customHeight="1">
+    <row r="284" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F284" s="57"/>
       <c r="P284" s="55"/>
       <c r="Q284" s="55"/>
       <c r="R284" s="55"/>
     </row>
-    <row r="285" spans="6:18" ht="18" customHeight="1">
+    <row r="285" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F285" s="57"/>
       <c r="P285" s="55"/>
       <c r="Q285" s="55"/>
       <c r="R285" s="55"/>
     </row>
-    <row r="286" spans="6:18" ht="18" customHeight="1">
+    <row r="286" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F286" s="57"/>
       <c r="P286" s="55"/>
       <c r="Q286" s="55"/>
       <c r="R286" s="55"/>
     </row>
-    <row r="287" spans="6:18" ht="18" customHeight="1">
+    <row r="287" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F287" s="57"/>
       <c r="P287" s="55"/>
       <c r="Q287" s="55"/>
       <c r="R287" s="55"/>
     </row>
-    <row r="288" spans="6:18" ht="18" customHeight="1">
+    <row r="288" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F288" s="57"/>
       <c r="P288" s="55"/>
       <c r="Q288" s="55"/>
       <c r="R288" s="55"/>
     </row>
-    <row r="289" spans="6:18" ht="18" customHeight="1">
+    <row r="289" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F289" s="57"/>
       <c r="P289" s="55"/>
       <c r="Q289" s="55"/>
       <c r="R289" s="55"/>
     </row>
-    <row r="290" spans="6:18" ht="18" customHeight="1">
+    <row r="290" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F290" s="57"/>
       <c r="P290" s="55"/>
       <c r="Q290" s="55"/>
       <c r="R290" s="55"/>
     </row>
-    <row r="291" spans="6:18" ht="18" customHeight="1">
+    <row r="291" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F291" s="57"/>
       <c r="P291" s="55"/>
       <c r="Q291" s="55"/>
       <c r="R291" s="55"/>
     </row>
-    <row r="292" spans="6:18" ht="18" customHeight="1">
+    <row r="292" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F292" s="57"/>
       <c r="P292" s="55"/>
       <c r="Q292" s="55"/>
       <c r="R292" s="55"/>
     </row>
-    <row r="293" spans="6:18" ht="18" customHeight="1">
+    <row r="293" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F293" s="57"/>
       <c r="P293" s="55"/>
       <c r="Q293" s="55"/>
       <c r="R293" s="55"/>
     </row>
-    <row r="294" spans="6:18" ht="18" customHeight="1">
+    <row r="294" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F294" s="57"/>
       <c r="P294" s="55"/>
       <c r="Q294" s="55"/>
       <c r="R294" s="55"/>
     </row>
-    <row r="295" spans="6:18" ht="18" customHeight="1">
+    <row r="295" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F295" s="57"/>
       <c r="P295" s="55"/>
       <c r="Q295" s="55"/>
       <c r="R295" s="55"/>
     </row>
-    <row r="296" spans="6:18" ht="18" customHeight="1">
+    <row r="296" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F296" s="57"/>
       <c r="P296" s="55"/>
       <c r="Q296" s="55"/>
       <c r="R296" s="55"/>
     </row>
-    <row r="297" spans="6:18" ht="18" customHeight="1">
+    <row r="297" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F297" s="57"/>
       <c r="P297" s="55"/>
       <c r="Q297" s="55"/>
       <c r="R297" s="55"/>
     </row>
-    <row r="298" spans="6:18" ht="18" customHeight="1">
+    <row r="298" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F298" s="57"/>
       <c r="P298" s="55"/>
       <c r="Q298" s="55"/>
       <c r="R298" s="55"/>
     </row>
-    <row r="299" spans="6:18" ht="18" customHeight="1">
+    <row r="299" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F299" s="57"/>
       <c r="P299" s="55"/>
       <c r="Q299" s="55"/>
       <c r="R299" s="55"/>
     </row>
-    <row r="300" spans="6:18" ht="18" customHeight="1">
+    <row r="300" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F300" s="57"/>
       <c r="P300" s="55"/>
       <c r="Q300" s="55"/>
       <c r="R300" s="55"/>
     </row>
-    <row r="301" spans="6:18" ht="18" customHeight="1">
+    <row r="301" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F301" s="57"/>
       <c r="P301" s="55"/>
       <c r="Q301" s="55"/>
       <c r="R301" s="55"/>
     </row>
-    <row r="302" spans="6:18" ht="18" customHeight="1">
+    <row r="302" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F302" s="57"/>
       <c r="P302" s="55"/>
       <c r="Q302" s="55"/>
       <c r="R302" s="55"/>
     </row>
-    <row r="303" spans="6:18" ht="18" customHeight="1">
+    <row r="303" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F303" s="57"/>
       <c r="P303" s="55"/>
       <c r="Q303" s="55"/>
       <c r="R303" s="55"/>
     </row>
-    <row r="304" spans="6:18" ht="18" customHeight="1">
+    <row r="304" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F304" s="57"/>
       <c r="P304" s="55"/>
       <c r="Q304" s="55"/>
       <c r="R304" s="55"/>
     </row>
-    <row r="305" spans="6:18" ht="18" customHeight="1">
+    <row r="305" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F305" s="57"/>
       <c r="P305" s="55"/>
       <c r="Q305" s="55"/>
       <c r="R305" s="55"/>
     </row>
-    <row r="306" spans="6:18" ht="18" customHeight="1">
+    <row r="306" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F306" s="57"/>
       <c r="P306" s="55"/>
       <c r="Q306" s="55"/>
       <c r="R306" s="55"/>
     </row>
-    <row r="307" spans="6:18" ht="18" customHeight="1">
+    <row r="307" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F307" s="57"/>
       <c r="P307" s="55"/>
       <c r="Q307" s="55"/>
       <c r="R307" s="55"/>
     </row>
-    <row r="308" spans="6:18" ht="18" customHeight="1">
+    <row r="308" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F308" s="57"/>
       <c r="P308" s="55"/>
       <c r="Q308" s="55"/>
       <c r="R308" s="55"/>
     </row>
-    <row r="309" spans="6:18" ht="18" customHeight="1">
+    <row r="309" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F309" s="57"/>
       <c r="P309" s="55"/>
       <c r="Q309" s="55"/>
       <c r="R309" s="55"/>
     </row>
-    <row r="310" spans="6:18" ht="18" customHeight="1">
+    <row r="310" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F310" s="57"/>
       <c r="P310" s="55"/>
       <c r="Q310" s="55"/>
       <c r="R310" s="55"/>
     </row>
-    <row r="311" spans="6:18" ht="18" customHeight="1">
+    <row r="311" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F311" s="57"/>
       <c r="P311" s="55"/>
       <c r="Q311" s="55"/>
       <c r="R311" s="55"/>
     </row>
-    <row r="312" spans="6:18" ht="18" customHeight="1">
+    <row r="312" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F312" s="57"/>
       <c r="P312" s="55"/>
       <c r="Q312" s="55"/>
       <c r="R312" s="55"/>
     </row>
-    <row r="313" spans="6:18" ht="18" customHeight="1">
+    <row r="313" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F313" s="57"/>
       <c r="P313" s="55"/>
       <c r="Q313" s="55"/>
       <c r="R313" s="55"/>
     </row>
-    <row r="314" spans="6:18" ht="18" customHeight="1">
+    <row r="314" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F314" s="57"/>
       <c r="P314" s="55"/>
       <c r="Q314" s="55"/>
       <c r="R314" s="55"/>
     </row>
-    <row r="315" spans="6:18" ht="18" customHeight="1">
+    <row r="315" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F315" s="57"/>
       <c r="P315" s="55"/>
       <c r="Q315" s="55"/>
       <c r="R315" s="55"/>
     </row>
-    <row r="316" spans="6:18" ht="18" customHeight="1">
+    <row r="316" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F316" s="57"/>
       <c r="P316" s="55"/>
       <c r="Q316" s="55"/>
       <c r="R316" s="55"/>
     </row>
-    <row r="317" spans="6:18" ht="18" customHeight="1">
+    <row r="317" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F317" s="57"/>
       <c r="P317" s="55"/>
       <c r="Q317" s="55"/>
       <c r="R317" s="55"/>
     </row>
-    <row r="318" spans="6:18" ht="18" customHeight="1">
+    <row r="318" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F318" s="57"/>
       <c r="P318" s="55"/>
       <c r="Q318" s="55"/>
       <c r="R318" s="55"/>
     </row>
-    <row r="319" spans="6:18" ht="18" customHeight="1">
+    <row r="319" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F319" s="57"/>
       <c r="P319" s="55"/>
       <c r="Q319" s="55"/>
       <c r="R319" s="55"/>
     </row>
-    <row r="320" spans="6:18" ht="18" customHeight="1">
+    <row r="320" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F320" s="57"/>
       <c r="P320" s="55"/>
       <c r="Q320" s="55"/>
       <c r="R320" s="55"/>
     </row>
-    <row r="321" spans="6:18" ht="18" customHeight="1">
+    <row r="321" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F321" s="57"/>
       <c r="P321" s="55"/>
       <c r="Q321" s="55"/>
       <c r="R321" s="55"/>
     </row>
-    <row r="322" spans="6:18" ht="18" customHeight="1">
+    <row r="322" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F322" s="57"/>
       <c r="P322" s="55"/>
       <c r="Q322" s="55"/>
       <c r="R322" s="55"/>
     </row>
-    <row r="323" spans="6:18" ht="18" customHeight="1">
+    <row r="323" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F323" s="57"/>
       <c r="P323" s="55"/>
       <c r="Q323" s="55"/>
       <c r="R323" s="55"/>
     </row>
-    <row r="324" spans="6:18" ht="18" customHeight="1">
+    <row r="324" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F324" s="57"/>
       <c r="P324" s="55"/>
       <c r="Q324" s="55"/>
       <c r="R324" s="55"/>
     </row>
-    <row r="325" spans="6:18" ht="18" customHeight="1">
+    <row r="325" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F325" s="57"/>
       <c r="P325" s="55"/>
       <c r="Q325" s="55"/>
       <c r="R325" s="55"/>
     </row>
-    <row r="326" spans="6:18" ht="18" customHeight="1">
+    <row r="326" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F326" s="57"/>
       <c r="P326" s="55"/>
       <c r="Q326" s="55"/>
       <c r="R326" s="55"/>
     </row>
-    <row r="327" spans="6:18" ht="18" customHeight="1">
+    <row r="327" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F327" s="57"/>
       <c r="P327" s="55"/>
       <c r="Q327" s="55"/>
       <c r="R327" s="55"/>
     </row>
-    <row r="328" spans="6:18" ht="18" customHeight="1">
+    <row r="328" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F328" s="57"/>
       <c r="P328" s="55"/>
       <c r="Q328" s="55"/>
       <c r="R328" s="55"/>
     </row>
-    <row r="329" spans="6:18" ht="18" customHeight="1">
+    <row r="329" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F329" s="57"/>
       <c r="P329" s="55"/>
       <c r="Q329" s="55"/>
       <c r="R329" s="55"/>
     </row>
-    <row r="330" spans="6:18" ht="18" customHeight="1">
+    <row r="330" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F330" s="57"/>
       <c r="P330" s="55"/>
       <c r="Q330" s="55"/>
       <c r="R330" s="55"/>
     </row>
-    <row r="331" spans="6:18" ht="18" customHeight="1">
+    <row r="331" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F331" s="57"/>
       <c r="P331" s="55"/>
       <c r="Q331" s="55"/>
       <c r="R331" s="55"/>
     </row>
-    <row r="332" spans="6:18" ht="18" customHeight="1">
+    <row r="332" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F332" s="57"/>
       <c r="P332" s="55"/>
       <c r="Q332" s="55"/>
       <c r="R332" s="55"/>
     </row>
-    <row r="333" spans="6:18" ht="18" customHeight="1">
+    <row r="333" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F333" s="57"/>
       <c r="P333" s="55"/>
       <c r="Q333" s="55"/>
       <c r="R333" s="55"/>
     </row>
-    <row r="334" spans="6:18" ht="18" customHeight="1">
+    <row r="334" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F334" s="57"/>
       <c r="P334" s="55"/>
       <c r="Q334" s="55"/>
       <c r="R334" s="55"/>
     </row>
-    <row r="335" spans="6:18" ht="18" customHeight="1">
+    <row r="335" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F335" s="57"/>
       <c r="P335" s="55"/>
       <c r="Q335" s="55"/>
       <c r="R335" s="55"/>
     </row>
-    <row r="336" spans="6:18" ht="18" customHeight="1">
+    <row r="336" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F336" s="57"/>
       <c r="P336" s="55"/>
       <c r="Q336" s="55"/>
       <c r="R336" s="55"/>
     </row>
-    <row r="337" spans="6:18" ht="18" customHeight="1">
+    <row r="337" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F337" s="57"/>
       <c r="P337" s="55"/>
       <c r="Q337" s="55"/>
       <c r="R337" s="55"/>
     </row>
-    <row r="338" spans="6:18" ht="18" customHeight="1">
+    <row r="338" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F338" s="57"/>
       <c r="P338" s="55"/>
       <c r="Q338" s="55"/>
       <c r="R338" s="55"/>
     </row>
-    <row r="339" spans="6:18" ht="18" customHeight="1">
+    <row r="339" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F339" s="57"/>
       <c r="P339" s="55"/>
       <c r="Q339" s="55"/>
       <c r="R339" s="55"/>
     </row>
-    <row r="340" spans="6:18" ht="18" customHeight="1">
+    <row r="340" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F340" s="57"/>
       <c r="P340" s="55"/>
       <c r="Q340" s="55"/>
       <c r="R340" s="55"/>
     </row>
-    <row r="341" spans="6:18" ht="18" customHeight="1">
+    <row r="341" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F341" s="57"/>
       <c r="P341" s="55"/>
       <c r="Q341" s="55"/>
       <c r="R341" s="55"/>
     </row>
-    <row r="342" spans="6:18" ht="18" customHeight="1">
+    <row r="342" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F342" s="57"/>
       <c r="P342" s="55"/>
       <c r="Q342" s="55"/>
       <c r="R342" s="55"/>
     </row>
-    <row r="343" spans="6:18" ht="18" customHeight="1">
+    <row r="343" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F343" s="57"/>
       <c r="P343" s="55"/>
       <c r="Q343" s="55"/>
       <c r="R343" s="55"/>
     </row>
-    <row r="344" spans="6:18" ht="18" customHeight="1">
+    <row r="344" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F344" s="57"/>
       <c r="P344" s="55"/>
       <c r="Q344" s="55"/>
       <c r="R344" s="55"/>
     </row>
-    <row r="345" spans="6:18" ht="18" customHeight="1">
+    <row r="345" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F345" s="57"/>
       <c r="P345" s="55"/>
       <c r="Q345" s="55"/>
       <c r="R345" s="55"/>
     </row>
-    <row r="346" spans="6:18" ht="18" customHeight="1">
+    <row r="346" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F346" s="57"/>
       <c r="P346" s="55"/>
       <c r="Q346" s="55"/>
       <c r="R346" s="55"/>
     </row>
-    <row r="347" spans="6:18" ht="18" customHeight="1">
+    <row r="347" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F347" s="57"/>
       <c r="P347" s="55"/>
       <c r="Q347" s="55"/>
       <c r="R347" s="55"/>
     </row>
-    <row r="348" spans="6:18" ht="18" customHeight="1">
+    <row r="348" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F348" s="57"/>
       <c r="P348" s="55"/>
       <c r="Q348" s="55"/>
       <c r="R348" s="55"/>
     </row>
-    <row r="349" spans="6:18" ht="18" customHeight="1">
+    <row r="349" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F349" s="57"/>
       <c r="P349" s="55"/>
       <c r="Q349" s="55"/>
       <c r="R349" s="55"/>
     </row>
-    <row r="350" spans="6:18" ht="18" customHeight="1">
+    <row r="350" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F350" s="57"/>
       <c r="P350" s="55"/>
       <c r="Q350" s="55"/>
       <c r="R350" s="55"/>
     </row>
-    <row r="351" spans="6:18" ht="18" customHeight="1">
+    <row r="351" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F351" s="57"/>
       <c r="P351" s="55"/>
       <c r="Q351" s="55"/>
       <c r="R351" s="55"/>
     </row>
-    <row r="352" spans="6:18" ht="18" customHeight="1">
+    <row r="352" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F352" s="57"/>
       <c r="P352" s="55"/>
       <c r="Q352" s="55"/>
       <c r="R352" s="55"/>
     </row>
-    <row r="353" spans="6:18" ht="18" customHeight="1">
+    <row r="353" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F353" s="57"/>
       <c r="P353" s="55"/>
       <c r="Q353" s="55"/>
       <c r="R353" s="55"/>
     </row>
-    <row r="354" spans="6:18" ht="18" customHeight="1">
+    <row r="354" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F354" s="57"/>
       <c r="P354" s="55"/>
       <c r="Q354" s="55"/>
       <c r="R354" s="55"/>
     </row>
-    <row r="355" spans="6:18" ht="18" customHeight="1">
+    <row r="355" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F355" s="57"/>
       <c r="P355" s="55"/>
       <c r="Q355" s="55"/>
       <c r="R355" s="55"/>
     </row>
-    <row r="356" spans="6:18" ht="18" customHeight="1">
+    <row r="356" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F356" s="57"/>
       <c r="P356" s="55"/>
       <c r="Q356" s="55"/>
       <c r="R356" s="55"/>
     </row>
-    <row r="357" spans="6:18" ht="18" customHeight="1">
+    <row r="357" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F357" s="57"/>
       <c r="P357" s="55"/>
       <c r="Q357" s="55"/>
       <c r="R357" s="55"/>
     </row>
-    <row r="358" spans="6:18" ht="18" customHeight="1">
+    <row r="358" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F358" s="57"/>
       <c r="P358" s="55"/>
       <c r="Q358" s="55"/>
       <c r="R358" s="55"/>
     </row>
-    <row r="359" spans="6:18" ht="18" customHeight="1">
+    <row r="359" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F359" s="57"/>
       <c r="P359" s="55"/>
       <c r="Q359" s="55"/>
       <c r="R359" s="55"/>
     </row>
-    <row r="360" spans="6:18" ht="18" customHeight="1">
+    <row r="360" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F360" s="57"/>
       <c r="P360" s="55"/>
       <c r="Q360" s="55"/>
       <c r="R360" s="55"/>
     </row>
-    <row r="361" spans="6:18" ht="18" customHeight="1">
+    <row r="361" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F361" s="57"/>
       <c r="P361" s="55"/>
       <c r="Q361" s="55"/>
       <c r="R361" s="55"/>
     </row>
-    <row r="362" spans="6:18" ht="18" customHeight="1">
+    <row r="362" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F362" s="57"/>
       <c r="P362" s="55"/>
       <c r="Q362" s="55"/>
       <c r="R362" s="55"/>
     </row>
-    <row r="363" spans="6:18" ht="18" customHeight="1">
+    <row r="363" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F363" s="57"/>
       <c r="P363" s="55"/>
       <c r="Q363" s="55"/>
       <c r="R363" s="55"/>
     </row>
-    <row r="364" spans="6:18" ht="18" customHeight="1">
+    <row r="364" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F364" s="57"/>
       <c r="P364" s="55"/>
       <c r="Q364" s="55"/>
       <c r="R364" s="55"/>
     </row>
-    <row r="365" spans="6:18" ht="18" customHeight="1">
+    <row r="365" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F365" s="57"/>
       <c r="P365" s="55"/>
       <c r="Q365" s="55"/>
       <c r="R365" s="55"/>
     </row>
-    <row r="366" spans="6:18" ht="18" customHeight="1">
+    <row r="366" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F366" s="57"/>
       <c r="P366" s="55"/>
       <c r="Q366" s="55"/>
       <c r="R366" s="55"/>
     </row>
-    <row r="367" spans="6:18" ht="18" customHeight="1">
+    <row r="367" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F367" s="57"/>
       <c r="P367" s="55"/>
       <c r="Q367" s="55"/>
       <c r="R367" s="55"/>
     </row>
-    <row r="368" spans="6:18" ht="18" customHeight="1">
+    <row r="368" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F368" s="57"/>
       <c r="P368" s="55"/>
       <c r="Q368" s="55"/>
       <c r="R368" s="55"/>
     </row>
-    <row r="369" spans="6:18" ht="18" customHeight="1">
+    <row r="369" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F369" s="57"/>
       <c r="P369" s="55"/>
       <c r="Q369" s="55"/>
       <c r="R369" s="55"/>
     </row>
-    <row r="370" spans="6:18" ht="18" customHeight="1">
+    <row r="370" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F370" s="57"/>
       <c r="P370" s="55"/>
       <c r="Q370" s="55"/>
       <c r="R370" s="55"/>
     </row>
-    <row r="371" spans="6:18" ht="18" customHeight="1">
+    <row r="371" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F371" s="57"/>
       <c r="P371" s="55"/>
       <c r="Q371" s="55"/>
       <c r="R371" s="55"/>
     </row>
-    <row r="372" spans="6:18" ht="18" customHeight="1">
+    <row r="372" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F372" s="57"/>
       <c r="P372" s="55"/>
       <c r="Q372" s="55"/>
       <c r="R372" s="55"/>
     </row>
-    <row r="373" spans="6:18" ht="18" customHeight="1">
+    <row r="373" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F373" s="57"/>
       <c r="P373" s="55"/>
       <c r="Q373" s="55"/>
       <c r="R373" s="55"/>
     </row>
-    <row r="374" spans="6:18" ht="18" customHeight="1">
+    <row r="374" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F374" s="57"/>
       <c r="P374" s="55"/>
       <c r="Q374" s="55"/>
       <c r="R374" s="55"/>
     </row>
-    <row r="375" spans="6:18" ht="18" customHeight="1">
+    <row r="375" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F375" s="57"/>
       <c r="P375" s="55"/>
       <c r="Q375" s="55"/>
       <c r="R375" s="55"/>
     </row>
-    <row r="376" spans="6:18" ht="18" customHeight="1">
+    <row r="376" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F376" s="57"/>
       <c r="P376" s="55"/>
       <c r="Q376" s="55"/>
       <c r="R376" s="55"/>
     </row>
-    <row r="377" spans="6:18" ht="18" customHeight="1">
+    <row r="377" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F377" s="57"/>
       <c r="P377" s="55"/>
       <c r="Q377" s="55"/>
       <c r="R377" s="55"/>
     </row>
-    <row r="378" spans="6:18" ht="18" customHeight="1">
+    <row r="378" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F378" s="57"/>
       <c r="P378" s="55"/>
       <c r="Q378" s="55"/>
       <c r="R378" s="55"/>
     </row>
-    <row r="379" spans="6:18" ht="18" customHeight="1">
+    <row r="379" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F379" s="57"/>
       <c r="P379" s="55"/>
       <c r="Q379" s="55"/>
       <c r="R379" s="55"/>
     </row>
-    <row r="380" spans="6:18" ht="18" customHeight="1">
+    <row r="380" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F380" s="57"/>
       <c r="P380" s="55"/>
       <c r="Q380" s="55"/>
       <c r="R380" s="55"/>
     </row>
-    <row r="381" spans="6:18" ht="18" customHeight="1">
+    <row r="381" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F381" s="57"/>
       <c r="P381" s="55"/>
       <c r="Q381" s="55"/>
       <c r="R381" s="55"/>
     </row>
-    <row r="382" spans="6:18" ht="18" customHeight="1">
+    <row r="382" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F382" s="57"/>
       <c r="P382" s="55"/>
       <c r="Q382" s="55"/>
       <c r="R382" s="55"/>
     </row>
-    <row r="383" spans="6:18" ht="18" customHeight="1">
+    <row r="383" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F383" s="57"/>
       <c r="P383" s="55"/>
       <c r="Q383" s="55"/>
       <c r="R383" s="55"/>
     </row>
-    <row r="384" spans="6:18" ht="18" customHeight="1">
+    <row r="384" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F384" s="57"/>
       <c r="P384" s="55"/>
       <c r="Q384" s="55"/>
       <c r="R384" s="55"/>
     </row>
-    <row r="385" spans="6:18" ht="18" customHeight="1">
+    <row r="385" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F385" s="57"/>
       <c r="P385" s="55"/>
       <c r="Q385" s="55"/>
       <c r="R385" s="55"/>
     </row>
-    <row r="386" spans="6:18" ht="18" customHeight="1">
+    <row r="386" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F386" s="57"/>
       <c r="P386" s="55"/>
       <c r="Q386" s="55"/>
       <c r="R386" s="55"/>
     </row>
-    <row r="387" spans="6:18" ht="18" customHeight="1">
+    <row r="387" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F387" s="57"/>
       <c r="P387" s="55"/>
       <c r="Q387" s="55"/>
       <c r="R387" s="55"/>
     </row>
-    <row r="388" spans="6:18" ht="18" customHeight="1">
+    <row r="388" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F388" s="57"/>
       <c r="P388" s="55"/>
       <c r="Q388" s="55"/>
       <c r="R388" s="55"/>
     </row>
-    <row r="389" spans="6:18" ht="18" customHeight="1">
+    <row r="389" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F389" s="57"/>
       <c r="P389" s="55"/>
       <c r="Q389" s="55"/>
       <c r="R389" s="55"/>
     </row>
-    <row r="390" spans="6:18" ht="18" customHeight="1">
+    <row r="390" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F390" s="57"/>
       <c r="P390" s="55"/>
       <c r="Q390" s="55"/>
       <c r="R390" s="55"/>
     </row>
-    <row r="391" spans="6:18" ht="18" customHeight="1">
+    <row r="391" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F391" s="57"/>
       <c r="P391" s="55"/>
       <c r="Q391" s="55"/>
       <c r="R391" s="55"/>
     </row>
-    <row r="392" spans="6:18" ht="18" customHeight="1">
+    <row r="392" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F392" s="57"/>
       <c r="P392" s="55"/>
       <c r="Q392" s="55"/>
       <c r="R392" s="55"/>
     </row>
-    <row r="393" spans="6:18" ht="18" customHeight="1">
+    <row r="393" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F393" s="57"/>
       <c r="P393" s="55"/>
       <c r="Q393" s="55"/>
       <c r="R393" s="55"/>
     </row>
-    <row r="394" spans="6:18" ht="18" customHeight="1">
+    <row r="394" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F394" s="57"/>
       <c r="P394" s="55"/>
       <c r="Q394" s="55"/>
       <c r="R394" s="55"/>
     </row>
-    <row r="395" spans="6:18" ht="18" customHeight="1">
+    <row r="395" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F395" s="57"/>
       <c r="P395" s="55"/>
       <c r="Q395" s="55"/>
       <c r="R395" s="55"/>
     </row>
-    <row r="396" spans="6:18" ht="18" customHeight="1">
+    <row r="396" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F396" s="57"/>
       <c r="P396" s="55"/>
       <c r="Q396" s="55"/>
       <c r="R396" s="55"/>
     </row>
-    <row r="397" spans="6:18" ht="18" customHeight="1">
+    <row r="397" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F397" s="57"/>
       <c r="P397" s="55"/>
       <c r="Q397" s="55"/>
       <c r="R397" s="55"/>
     </row>
-    <row r="398" spans="6:18" ht="18" customHeight="1">
+    <row r="398" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F398" s="57"/>
       <c r="P398" s="55"/>
       <c r="Q398" s="55"/>
       <c r="R398" s="55"/>
     </row>
-    <row r="399" spans="6:18" ht="18" customHeight="1">
+    <row r="399" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F399" s="57"/>
       <c r="P399" s="55"/>
       <c r="Q399" s="55"/>
       <c r="R399" s="55"/>
     </row>
-    <row r="400" spans="6:18" ht="18" customHeight="1">
+    <row r="400" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F400" s="57"/>
       <c r="P400" s="55"/>
       <c r="Q400" s="55"/>
       <c r="R400" s="55"/>
     </row>
-    <row r="401" spans="6:18" ht="18" customHeight="1">
+    <row r="401" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F401" s="57"/>
       <c r="P401" s="55"/>
       <c r="Q401" s="55"/>
       <c r="R401" s="55"/>
     </row>
-    <row r="402" spans="6:18" ht="18" customHeight="1">
+    <row r="402" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F402" s="57"/>
       <c r="P402" s="55"/>
       <c r="Q402" s="55"/>
       <c r="R402" s="55"/>
     </row>
-    <row r="403" spans="6:18" ht="18" customHeight="1">
+    <row r="403" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F403" s="57"/>
       <c r="P403" s="55"/>
       <c r="Q403" s="55"/>
       <c r="R403" s="55"/>
     </row>
-    <row r="404" spans="6:18" ht="18" customHeight="1">
+    <row r="404" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F404" s="57"/>
       <c r="P404" s="55"/>
       <c r="Q404" s="55"/>
       <c r="R404" s="55"/>
     </row>
-    <row r="405" spans="6:18" ht="18" customHeight="1">
+    <row r="405" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F405" s="57"/>
       <c r="P405" s="55"/>
       <c r="Q405" s="55"/>
       <c r="R405" s="55"/>
     </row>
-    <row r="406" spans="6:18" ht="18" customHeight="1">
+    <row r="406" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F406" s="57"/>
       <c r="P406" s="55"/>
       <c r="Q406" s="55"/>
       <c r="R406" s="55"/>
     </row>
-    <row r="407" spans="6:18" ht="18" customHeight="1">
+    <row r="407" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F407" s="57"/>
       <c r="P407" s="55"/>
       <c r="Q407" s="55"/>
       <c r="R407" s="55"/>
     </row>
-    <row r="408" spans="6:18" ht="18" customHeight="1">
+    <row r="408" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F408" s="57"/>
       <c r="P408" s="55"/>
       <c r="Q408" s="55"/>
       <c r="R408" s="55"/>
     </row>
-    <row r="409" spans="6:18" ht="18" customHeight="1">
+    <row r="409" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F409" s="57"/>
       <c r="P409" s="55"/>
       <c r="Q409" s="55"/>
       <c r="R409" s="55"/>
     </row>
-    <row r="410" spans="6:18" ht="18" customHeight="1">
+    <row r="410" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F410" s="57"/>
       <c r="P410" s="55"/>
       <c r="Q410" s="55"/>
       <c r="R410" s="55"/>
     </row>
-    <row r="411" spans="6:18" ht="18" customHeight="1">
+    <row r="411" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F411" s="57"/>
       <c r="P411" s="55"/>
       <c r="Q411" s="55"/>
       <c r="R411" s="55"/>
     </row>
-    <row r="412" spans="6:18" ht="18" customHeight="1">
+    <row r="412" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F412" s="57"/>
       <c r="P412" s="55"/>
       <c r="Q412" s="55"/>
       <c r="R412" s="55"/>
     </row>
-    <row r="413" spans="6:18" ht="18" customHeight="1">
+    <row r="413" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F413" s="57"/>
       <c r="P413" s="55"/>
       <c r="Q413" s="55"/>
       <c r="R413" s="55"/>
     </row>
-    <row r="414" spans="6:18" ht="18" customHeight="1">
+    <row r="414" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F414" s="57"/>
       <c r="P414" s="55"/>
       <c r="Q414" s="55"/>
       <c r="R414" s="55"/>
     </row>
-    <row r="415" spans="6:18" ht="18" customHeight="1">
+    <row r="415" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F415" s="57"/>
       <c r="P415" s="55"/>
       <c r="Q415" s="55"/>
       <c r="R415" s="55"/>
     </row>
-    <row r="416" spans="6:18" ht="18" customHeight="1">
+    <row r="416" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F416" s="57"/>
       <c r="P416" s="55"/>
       <c r="Q416" s="55"/>
       <c r="R416" s="55"/>
     </row>
-    <row r="417" spans="6:18" ht="18" customHeight="1">
+    <row r="417" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F417" s="57"/>
       <c r="P417" s="55"/>
       <c r="Q417" s="55"/>
       <c r="R417" s="55"/>
     </row>
-    <row r="418" spans="6:18" ht="18" customHeight="1">
+    <row r="418" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F418" s="57"/>
       <c r="P418" s="55"/>
       <c r="Q418" s="55"/>
       <c r="R418" s="55"/>
     </row>
-    <row r="419" spans="6:18" ht="18" customHeight="1">
+    <row r="419" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F419" s="57"/>
       <c r="P419" s="55"/>
       <c r="Q419" s="55"/>
       <c r="R419" s="55"/>
     </row>
-    <row r="420" spans="6:18" ht="18" customHeight="1">
+    <row r="420" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F420" s="57"/>
       <c r="P420" s="55"/>
       <c r="Q420" s="55"/>
       <c r="R420" s="55"/>
     </row>
-    <row r="421" spans="6:18" ht="18" customHeight="1">
+    <row r="421" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F421" s="57"/>
       <c r="P421" s="55"/>
       <c r="Q421" s="55"/>
       <c r="R421" s="55"/>
     </row>
-    <row r="422" spans="6:18" ht="18" customHeight="1">
+    <row r="422" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F422" s="57"/>
       <c r="P422" s="55"/>
       <c r="Q422" s="55"/>
       <c r="R422" s="55"/>
     </row>
-    <row r="423" spans="6:18" ht="18" customHeight="1">
+    <row r="423" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F423" s="57"/>
       <c r="P423" s="55"/>
       <c r="Q423" s="55"/>
       <c r="R423" s="55"/>
     </row>
-    <row r="424" spans="6:18" ht="18" customHeight="1">
+    <row r="424" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F424" s="57"/>
       <c r="P424" s="55"/>
       <c r="Q424" s="55"/>
       <c r="R424" s="55"/>
     </row>
-    <row r="425" spans="6:18" ht="18" customHeight="1">
+    <row r="425" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F425" s="57"/>
       <c r="P425" s="55"/>
       <c r="Q425" s="55"/>
       <c r="R425" s="55"/>
     </row>
-    <row r="426" spans="6:18" ht="18" customHeight="1">
+    <row r="426" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F426" s="57"/>
       <c r="P426" s="55"/>
       <c r="Q426" s="55"/>
       <c r="R426" s="55"/>
     </row>
-    <row r="427" spans="6:18" ht="18" customHeight="1">
+    <row r="427" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F427" s="57"/>
       <c r="P427" s="55"/>
       <c r="Q427" s="55"/>
       <c r="R427" s="55"/>
     </row>
-    <row r="428" spans="6:18" ht="18" customHeight="1">
+    <row r="428" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F428" s="57"/>
       <c r="P428" s="55"/>
       <c r="Q428" s="55"/>
       <c r="R428" s="55"/>
     </row>
-    <row r="429" spans="6:18" ht="18" customHeight="1">
+    <row r="429" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F429" s="57"/>
       <c r="P429" s="55"/>
       <c r="Q429" s="55"/>
       <c r="R429" s="55"/>
     </row>
-    <row r="430" spans="6:18" ht="18" customHeight="1">
+    <row r="430" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F430" s="57"/>
       <c r="P430" s="55"/>
       <c r="Q430" s="55"/>
       <c r="R430" s="55"/>
     </row>
-    <row r="431" spans="6:18" ht="18" customHeight="1">
+    <row r="431" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F431" s="57"/>
       <c r="P431" s="55"/>
       <c r="Q431" s="55"/>
       <c r="R431" s="55"/>
     </row>
-    <row r="432" spans="6:18" ht="18" customHeight="1">
+    <row r="432" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F432" s="57"/>
       <c r="P432" s="55"/>
       <c r="Q432" s="55"/>
       <c r="R432" s="55"/>
     </row>
-    <row r="433" spans="6:18" ht="18" customHeight="1">
+    <row r="433" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F433" s="57"/>
       <c r="P433" s="55"/>
       <c r="Q433" s="55"/>
       <c r="R433" s="55"/>
     </row>
-    <row r="434" spans="6:18" ht="18" customHeight="1">
+    <row r="434" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F434" s="57"/>
       <c r="P434" s="55"/>
       <c r="Q434" s="55"/>
       <c r="R434" s="55"/>
     </row>
-    <row r="435" spans="6:18" ht="18" customHeight="1">
+    <row r="435" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F435" s="57"/>
       <c r="P435" s="55"/>
       <c r="Q435" s="55"/>
       <c r="R435" s="55"/>
     </row>
-    <row r="436" spans="6:18" ht="18" customHeight="1">
+    <row r="436" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F436" s="57"/>
       <c r="P436" s="55"/>
       <c r="Q436" s="55"/>
       <c r="R436" s="55"/>
     </row>
-    <row r="437" spans="6:18" ht="18" customHeight="1">
+    <row r="437" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F437" s="57"/>
       <c r="P437" s="55"/>
       <c r="Q437" s="55"/>
       <c r="R437" s="55"/>
     </row>
-    <row r="438" spans="6:18" ht="18" customHeight="1">
+    <row r="438" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F438" s="57"/>
       <c r="P438" s="55"/>
       <c r="Q438" s="55"/>
       <c r="R438" s="55"/>
     </row>
-    <row r="439" spans="6:18" ht="18" customHeight="1">
+    <row r="439" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F439" s="57"/>
       <c r="P439" s="55"/>
       <c r="Q439" s="55"/>
       <c r="R439" s="55"/>
     </row>
-    <row r="440" spans="6:18" ht="18" customHeight="1">
+    <row r="440" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F440" s="57"/>
       <c r="P440" s="55"/>
       <c r="Q440" s="55"/>
       <c r="R440" s="55"/>
     </row>
-    <row r="441" spans="6:18" ht="18" customHeight="1">
+    <row r="441" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F441" s="57"/>
       <c r="P441" s="55"/>
       <c r="Q441" s="55"/>
       <c r="R441" s="55"/>
     </row>
-    <row r="442" spans="6:18" ht="18" customHeight="1">
+    <row r="442" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F442" s="57"/>
       <c r="P442" s="55"/>
       <c r="Q442" s="55"/>
       <c r="R442" s="55"/>
     </row>
-    <row r="443" spans="6:18" ht="18" customHeight="1">
+    <row r="443" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F443" s="57"/>
       <c r="P443" s="55"/>
       <c r="Q443" s="55"/>
       <c r="R443" s="55"/>
     </row>
-    <row r="444" spans="6:18" ht="18" customHeight="1">
+    <row r="444" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F444" s="57"/>
       <c r="P444" s="55"/>
       <c r="Q444" s="55"/>
       <c r="R444" s="55"/>
     </row>
-    <row r="445" spans="6:18" ht="18" customHeight="1">
+    <row r="445" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F445" s="57"/>
       <c r="P445" s="55"/>
       <c r="Q445" s="55"/>
       <c r="R445" s="55"/>
     </row>
-    <row r="446" spans="6:18" ht="18" customHeight="1">
+    <row r="446" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F446" s="57"/>
       <c r="P446" s="55"/>
       <c r="Q446" s="55"/>
       <c r="R446" s="55"/>
     </row>
-    <row r="447" spans="6:18" ht="18" customHeight="1">
+    <row r="447" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F447" s="57"/>
       <c r="P447" s="55"/>
       <c r="Q447" s="55"/>
       <c r="R447" s="55"/>
     </row>
-    <row r="448" spans="6:18" ht="18" customHeight="1">
+    <row r="448" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F448" s="57"/>
       <c r="P448" s="55"/>
       <c r="Q448" s="55"/>
       <c r="R448" s="55"/>
     </row>
-    <row r="449" spans="6:18" ht="18" customHeight="1">
+    <row r="449" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F449" s="57"/>
       <c r="P449" s="55"/>
       <c r="Q449" s="55"/>
       <c r="R449" s="55"/>
     </row>
-    <row r="450" spans="6:18" ht="18" customHeight="1">
+    <row r="450" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F450" s="57"/>
       <c r="P450" s="55"/>
       <c r="Q450" s="55"/>
       <c r="R450" s="55"/>
     </row>
-    <row r="451" spans="6:18" ht="18" customHeight="1">
+    <row r="451" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F451" s="57"/>
       <c r="P451" s="55"/>
       <c r="Q451" s="55"/>
       <c r="R451" s="55"/>
     </row>
-    <row r="452" spans="6:18" ht="18" customHeight="1">
+    <row r="452" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F452" s="57"/>
       <c r="P452" s="55"/>
       <c r="Q452" s="55"/>
       <c r="R452" s="55"/>
     </row>
-    <row r="453" spans="6:18" ht="18" customHeight="1">
+    <row r="453" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F453" s="57"/>
       <c r="P453" s="55"/>
       <c r="Q453" s="55"/>
       <c r="R453" s="55"/>
     </row>
-    <row r="454" spans="6:18" ht="18" customHeight="1">
+    <row r="454" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F454" s="57"/>
       <c r="P454" s="55"/>
       <c r="Q454" s="55"/>
       <c r="R454" s="55"/>
     </row>
-    <row r="455" spans="6:18" ht="18" customHeight="1">
+    <row r="455" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F455" s="57"/>
       <c r="P455" s="55"/>
       <c r="Q455" s="55"/>
       <c r="R455" s="55"/>
     </row>
-    <row r="456" spans="6:18" ht="18" customHeight="1">
+    <row r="456" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F456" s="57"/>
       <c r="P456" s="55"/>
       <c r="Q456" s="55"/>
       <c r="R456" s="55"/>
     </row>
-    <row r="457" spans="6:18" ht="18" customHeight="1">
+    <row r="457" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F457" s="57"/>
       <c r="P457" s="55"/>
       <c r="Q457" s="55"/>
       <c r="R457" s="55"/>
     </row>
-    <row r="458" spans="6:18" ht="18" customHeight="1">
+    <row r="458" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F458" s="57"/>
       <c r="P458" s="55"/>
       <c r="Q458" s="55"/>
       <c r="R458" s="55"/>
     </row>
-    <row r="459" spans="6:18" ht="18" customHeight="1">
+    <row r="459" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F459" s="57"/>
       <c r="P459" s="55"/>
       <c r="Q459" s="55"/>
       <c r="R459" s="55"/>
     </row>
-    <row r="460" spans="6:18" ht="18" customHeight="1">
+    <row r="460" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F460" s="57"/>
       <c r="P460" s="55"/>
       <c r="Q460" s="55"/>
       <c r="R460" s="55"/>
     </row>
-    <row r="461" spans="6:18" ht="18" customHeight="1">
+    <row r="461" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F461" s="57"/>
       <c r="P461" s="55"/>
       <c r="Q461" s="55"/>
       <c r="R461" s="55"/>
     </row>
-    <row r="462" spans="6:18" ht="18" customHeight="1">
+    <row r="462" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F462" s="57"/>
       <c r="P462" s="55"/>
       <c r="Q462" s="55"/>
       <c r="R462" s="55"/>
     </row>
-    <row r="463" spans="6:18" ht="18" customHeight="1">
+    <row r="463" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F463" s="57"/>
       <c r="P463" s="55"/>
       <c r="Q463" s="55"/>
       <c r="R463" s="55"/>
     </row>
-    <row r="464" spans="6:18" ht="18" customHeight="1">
+    <row r="464" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F464" s="57"/>
       <c r="P464" s="55"/>
       <c r="Q464" s="55"/>
       <c r="R464" s="55"/>
     </row>
-    <row r="465" spans="6:18" ht="18" customHeight="1">
+    <row r="465" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F465" s="57"/>
       <c r="P465" s="55"/>
       <c r="Q465" s="55"/>
       <c r="R465" s="55"/>
     </row>
-    <row r="466" spans="6:18" ht="18" customHeight="1">
+    <row r="466" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F466" s="57"/>
       <c r="P466" s="55"/>
       <c r="Q466" s="55"/>
       <c r="R466" s="55"/>
     </row>
-    <row r="467" spans="6:18" ht="18" customHeight="1">
+    <row r="467" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F467" s="57"/>
       <c r="P467" s="55"/>
       <c r="Q467" s="55"/>
       <c r="R467" s="55"/>
     </row>
-    <row r="468" spans="6:18" ht="18" customHeight="1">
+    <row r="468" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F468" s="57"/>
       <c r="P468" s="55"/>
       <c r="Q468" s="55"/>
       <c r="R468" s="55"/>
     </row>
-    <row r="469" spans="6:18" ht="18" customHeight="1">
+    <row r="469" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F469" s="57"/>
       <c r="P469" s="55"/>
       <c r="Q469" s="55"/>
       <c r="R469" s="55"/>
     </row>
-    <row r="470" spans="6:18" ht="18" customHeight="1">
+    <row r="470" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F470" s="57"/>
       <c r="P470" s="55"/>
       <c r="Q470" s="55"/>
       <c r="R470" s="55"/>
     </row>
-    <row r="471" spans="6:18" ht="18" customHeight="1">
+    <row r="471" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F471" s="57"/>
       <c r="P471" s="55"/>
       <c r="Q471" s="55"/>
       <c r="R471" s="55"/>
     </row>
-    <row r="472" spans="6:18" ht="18" customHeight="1">
+    <row r="472" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F472" s="57"/>
       <c r="P472" s="55"/>
       <c r="Q472" s="55"/>
       <c r="R472" s="55"/>
     </row>
-    <row r="473" spans="6:18" ht="18" customHeight="1">
+    <row r="473" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F473" s="57"/>
       <c r="P473" s="55"/>
       <c r="Q473" s="55"/>
       <c r="R473" s="55"/>
     </row>
-    <row r="474" spans="6:18" ht="18" customHeight="1">
+    <row r="474" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F474" s="57"/>
       <c r="P474" s="55"/>
       <c r="Q474" s="55"/>
       <c r="R474" s="55"/>
     </row>
-    <row r="475" spans="6:18" ht="18" customHeight="1">
+    <row r="475" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F475" s="57"/>
       <c r="P475" s="55"/>
       <c r="Q475" s="55"/>
       <c r="R475" s="55"/>
     </row>
-    <row r="476" spans="6:18" ht="18" customHeight="1">
+    <row r="476" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F476" s="57"/>
       <c r="P476" s="55"/>
       <c r="Q476" s="55"/>
       <c r="R476" s="55"/>
     </row>
-    <row r="477" spans="6:18" ht="18" customHeight="1">
+    <row r="477" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F477" s="57"/>
       <c r="P477" s="55"/>
       <c r="Q477" s="55"/>
       <c r="R477" s="55"/>
     </row>
-    <row r="478" spans="6:18" ht="18" customHeight="1">
+    <row r="478" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F478" s="57"/>
       <c r="P478" s="55"/>
       <c r="Q478" s="55"/>
       <c r="R478" s="55"/>
     </row>
-    <row r="479" spans="6:18" ht="18" customHeight="1">
+    <row r="479" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F479" s="57"/>
       <c r="P479" s="55"/>
       <c r="Q479" s="55"/>
       <c r="R479" s="55"/>
     </row>
-    <row r="480" spans="6:18" ht="18" customHeight="1">
+    <row r="480" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F480" s="57"/>
       <c r="P480" s="55"/>
       <c r="Q480" s="55"/>
       <c r="R480" s="55"/>
     </row>
-    <row r="481" spans="6:18" ht="18" customHeight="1">
+    <row r="481" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F481" s="57"/>
       <c r="P481" s="55"/>
       <c r="Q481" s="55"/>
       <c r="R481" s="55"/>
     </row>
-    <row r="482" spans="6:18" ht="18" customHeight="1">
+    <row r="482" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F482" s="57"/>
       <c r="P482" s="55"/>
       <c r="Q482" s="55"/>
       <c r="R482" s="55"/>
     </row>
-    <row r="483" spans="6:18" ht="18" customHeight="1">
+    <row r="483" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F483" s="57"/>
       <c r="P483" s="55"/>
       <c r="Q483" s="55"/>
       <c r="R483" s="55"/>
     </row>
-    <row r="484" spans="6:18" ht="18" customHeight="1">
+    <row r="484" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F484" s="57"/>
       <c r="P484" s="55"/>
       <c r="Q484" s="55"/>
       <c r="R484" s="55"/>
     </row>
-    <row r="485" spans="6:18" ht="18" customHeight="1">
+    <row r="485" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F485" s="57"/>
       <c r="P485" s="55"/>
       <c r="Q485" s="55"/>
       <c r="R485" s="55"/>
     </row>
-    <row r="486" spans="6:18" ht="18" customHeight="1">
+    <row r="486" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F486" s="57"/>
       <c r="P486" s="55"/>
       <c r="Q486" s="55"/>
       <c r="R486" s="55"/>
     </row>
-    <row r="487" spans="6:18" ht="18" customHeight="1">
+    <row r="487" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F487" s="57"/>
       <c r="P487" s="55"/>
       <c r="Q487" s="55"/>
       <c r="R487" s="55"/>
     </row>
-    <row r="488" spans="6:18" ht="18" customHeight="1">
+    <row r="488" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F488" s="57"/>
       <c r="P488" s="55"/>
       <c r="Q488" s="55"/>
       <c r="R488" s="55"/>
     </row>
-    <row r="489" spans="6:18" ht="18" customHeight="1">
+    <row r="489" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F489" s="57"/>
       <c r="P489" s="55"/>
       <c r="Q489" s="55"/>
       <c r="R489" s="55"/>
     </row>
-    <row r="490" spans="6:18" ht="18" customHeight="1">
+    <row r="490" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F490" s="57"/>
       <c r="P490" s="55"/>
       <c r="Q490" s="55"/>
       <c r="R490" s="55"/>
     </row>
-    <row r="491" spans="6:18" ht="18" customHeight="1">
+    <row r="491" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="57"/>
       <c r="P491" s="55"/>
       <c r="Q491" s="55"/>
       <c r="R491" s="55"/>
     </row>
-    <row r="492" spans="6:18" ht="18" customHeight="1">
+    <row r="492" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="57"/>
       <c r="P492" s="55"/>
       <c r="Q492" s="55"/>
       <c r="R492" s="55"/>
     </row>
-    <row r="493" spans="6:18" ht="18" customHeight="1">
+    <row r="493" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F493" s="57"/>
       <c r="P493" s="55"/>
       <c r="Q493" s="55"/>
       <c r="R493" s="55"/>
     </row>
-    <row r="494" spans="6:18" ht="18" customHeight="1">
+    <row r="494" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F494" s="57"/>
       <c r="P494" s="55"/>
       <c r="Q494" s="55"/>
       <c r="R494" s="55"/>
     </row>
-    <row r="495" spans="6:18" ht="18" customHeight="1">
+    <row r="495" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F495" s="57"/>
       <c r="P495" s="55"/>
       <c r="Q495" s="55"/>
       <c r="R495" s="55"/>
     </row>
-    <row r="496" spans="6:18" ht="18" customHeight="1">
+    <row r="496" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F496" s="57"/>
       <c r="P496" s="55"/>
       <c r="Q496" s="55"/>
       <c r="R496" s="55"/>
     </row>
-    <row r="497" spans="6:18" ht="18" customHeight="1">
+    <row r="497" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F497" s="57"/>
       <c r="P497" s="55"/>
       <c r="Q497" s="55"/>
       <c r="R497" s="55"/>
     </row>
-    <row r="498" spans="6:18" ht="18" customHeight="1">
+    <row r="498" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F498" s="57"/>
       <c r="P498" s="55"/>
       <c r="Q498" s="55"/>
       <c r="R498" s="55"/>
     </row>
-    <row r="499" spans="6:18" ht="18" customHeight="1">
+    <row r="499" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F499" s="57"/>
       <c r="P499" s="55"/>
       <c r="Q499" s="55"/>
       <c r="R499" s="55"/>
     </row>
-    <row r="500" spans="6:18" ht="18" customHeight="1">
+    <row r="500" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F500" s="57"/>
       <c r="P500" s="55"/>
       <c r="Q500" s="55"/>
       <c r="R500" s="55"/>
     </row>
-    <row r="501" spans="6:18" ht="18" customHeight="1">
+    <row r="501" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F501" s="57"/>
       <c r="P501" s="55"/>
       <c r="Q501" s="55"/>
       <c r="R501" s="55"/>
     </row>
-    <row r="502" spans="6:18" ht="18" customHeight="1">
+    <row r="502" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F502" s="57"/>
       <c r="P502" s="55"/>
       <c r="Q502" s="55"/>
       <c r="R502" s="55"/>
     </row>
-    <row r="503" spans="6:18" ht="18" customHeight="1">
+    <row r="503" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F503" s="57"/>
       <c r="P503" s="55"/>
       <c r="Q503" s="55"/>
       <c r="R503" s="55"/>
     </row>
-    <row r="504" spans="6:18" ht="18" customHeight="1">
+    <row r="504" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F504" s="57"/>
       <c r="P504" s="55"/>
       <c r="Q504" s="55"/>
       <c r="R504" s="55"/>
     </row>
-    <row r="505" spans="6:18" ht="18" customHeight="1">
+    <row r="505" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F505" s="57"/>
       <c r="P505" s="55"/>
       <c r="Q505" s="55"/>
       <c r="R505" s="55"/>
     </row>
-    <row r="506" spans="6:18" ht="18" customHeight="1">
+    <row r="506" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F506" s="57"/>
       <c r="P506" s="55"/>
       <c r="Q506" s="55"/>
       <c r="R506" s="55"/>
     </row>
-    <row r="507" spans="6:18" ht="18" customHeight="1">
+    <row r="507" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F507" s="57"/>
       <c r="P507" s="55"/>
       <c r="Q507" s="55"/>
       <c r="R507" s="55"/>
     </row>
-    <row r="508" spans="6:18" ht="18" customHeight="1">
+    <row r="508" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F508" s="57"/>
       <c r="P508" s="55"/>
       <c r="Q508" s="55"/>
       <c r="R508" s="55"/>
     </row>
-    <row r="509" spans="6:18" ht="18" customHeight="1">
+    <row r="509" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F509" s="57"/>
       <c r="P509" s="55"/>
       <c r="Q509" s="55"/>
       <c r="R509" s="55"/>
     </row>
-    <row r="510" spans="6:18" ht="18" customHeight="1">
+    <row r="510" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F510" s="57"/>
       <c r="P510" s="55"/>
       <c r="Q510" s="55"/>
       <c r="R510" s="55"/>
     </row>
-    <row r="511" spans="6:18" ht="18" customHeight="1">
+    <row r="511" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F511" s="57"/>
       <c r="P511" s="55"/>
       <c r="Q511" s="55"/>
       <c r="R511" s="55"/>
     </row>
-    <row r="512" spans="6:18" ht="18" customHeight="1">
+    <row r="512" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F512" s="57"/>
       <c r="P512" s="55"/>
       <c r="Q512" s="55"/>
       <c r="R512" s="55"/>
     </row>
-    <row r="513" spans="6:18" ht="18" customHeight="1">
+    <row r="513" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F513" s="57"/>
       <c r="P513" s="55"/>
       <c r="Q513" s="55"/>
       <c r="R513" s="55"/>
     </row>
-    <row r="514" spans="6:18" ht="18" customHeight="1">
+    <row r="514" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F514" s="57"/>
       <c r="P514" s="55"/>
       <c r="Q514" s="55"/>
       <c r="R514" s="55"/>
     </row>
-    <row r="515" spans="6:18" ht="18" customHeight="1">
+    <row r="515" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F515" s="57"/>
       <c r="P515" s="55"/>
       <c r="Q515" s="55"/>
       <c r="R515" s="55"/>
     </row>
-    <row r="516" spans="6:18" ht="18" customHeight="1">
+    <row r="516" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F516" s="57"/>
       <c r="P516" s="55"/>
       <c r="Q516" s="55"/>
       <c r="R516" s="55"/>
     </row>
-    <row r="517" spans="6:18" ht="18" customHeight="1">
+    <row r="517" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F517" s="57"/>
       <c r="P517" s="55"/>
       <c r="Q517" s="55"/>
       <c r="R517" s="55"/>
     </row>
-    <row r="518" spans="6:18" ht="18" customHeight="1">
+    <row r="518" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F518" s="57"/>
       <c r="P518" s="55"/>
       <c r="Q518" s="55"/>
       <c r="R518" s="55"/>
     </row>
-    <row r="519" spans="6:18" ht="18" customHeight="1">
+    <row r="519" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F519" s="57"/>
       <c r="P519" s="55"/>
       <c r="Q519" s="55"/>
       <c r="R519" s="55"/>
     </row>
-    <row r="520" spans="6:18" ht="18" customHeight="1">
+    <row r="520" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F520" s="57"/>
       <c r="P520" s="55"/>
       <c r="Q520" s="55"/>
       <c r="R520" s="55"/>
     </row>
-    <row r="521" spans="6:18" ht="18" customHeight="1">
+    <row r="521" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F521" s="57"/>
       <c r="P521" s="55"/>
       <c r="Q521" s="55"/>
       <c r="R521" s="55"/>
     </row>
-    <row r="522" spans="6:18" ht="18" customHeight="1">
+    <row r="522" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F522" s="57"/>
     </row>
-    <row r="523" spans="6:18" ht="18" customHeight="1">
+    <row r="523" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F523" s="57"/>
     </row>
-    <row r="524" spans="6:18" ht="18" customHeight="1">
+    <row r="524" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F524" s="57"/>
     </row>
-    <row r="525" spans="6:18" ht="18" customHeight="1">
+    <row r="525" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F525" s="57"/>
     </row>
-    <row r="526" spans="6:18" ht="18" customHeight="1">
+    <row r="526" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F526" s="57"/>
     </row>
-    <row r="527" spans="6:18" ht="18" customHeight="1">
+    <row r="527" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F527" s="57"/>
     </row>
-    <row r="528" spans="6:18" ht="18" customHeight="1">
+    <row r="528" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F528" s="57"/>
     </row>
-    <row r="529" spans="6:6" ht="18" customHeight="1">
+    <row r="529" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F529" s="57"/>
     </row>
-    <row r="530" spans="6:6" ht="18" customHeight="1">
+    <row r="530" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F530" s="57"/>
     </row>
-    <row r="531" spans="6:6" ht="18" customHeight="1">
+    <row r="531" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F531" s="57"/>
     </row>
-    <row r="532" spans="6:6" ht="18" customHeight="1">
+    <row r="532" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F532" s="57"/>
     </row>
-    <row r="533" spans="6:6" ht="18" customHeight="1">
+    <row r="533" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F533" s="57"/>
     </row>
-    <row r="534" spans="6:6" ht="18" customHeight="1">
+    <row r="534" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F534" s="57"/>
     </row>
-    <row r="535" spans="6:6" ht="18" customHeight="1">
+    <row r="535" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F535" s="57"/>
     </row>
-    <row r="536" spans="6:6" ht="18" customHeight="1">
+    <row r="536" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F536" s="57"/>
     </row>
-    <row r="537" spans="6:6" ht="18" customHeight="1">
+    <row r="537" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F537" s="57"/>
     </row>
-    <row r="538" spans="6:6" ht="18" customHeight="1">
+    <row r="538" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F538" s="57"/>
     </row>
-    <row r="539" spans="6:6" ht="18" customHeight="1">
+    <row r="539" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F539" s="57"/>
     </row>
-    <row r="540" spans="6:6" ht="18" customHeight="1">
+    <row r="540" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F540" s="57"/>
     </row>
-    <row r="541" spans="6:6" ht="18" customHeight="1">
+    <row r="541" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F541" s="57"/>
     </row>
-    <row r="542" spans="6:6" ht="18" customHeight="1">
+    <row r="542" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F542" s="57"/>
     </row>
-    <row r="543" spans="6:6" ht="18" customHeight="1">
+    <row r="543" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F543" s="57"/>
     </row>
-    <row r="544" spans="6:6" ht="18" customHeight="1">
+    <row r="544" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F544" s="57"/>
     </row>
-    <row r="545" spans="6:6" ht="18" customHeight="1">
+    <row r="545" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F545" s="57"/>
     </row>
-    <row r="546" spans="6:6" ht="18" customHeight="1">
+    <row r="546" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F546" s="57"/>
     </row>
-    <row r="547" spans="6:6" ht="18" customHeight="1">
+    <row r="547" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F547" s="57"/>
     </row>
-    <row r="548" spans="6:6" ht="18" customHeight="1">
+    <row r="548" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F548" s="57"/>
     </row>
-    <row r="549" spans="6:6" ht="18" customHeight="1">
+    <row r="549" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F549" s="57"/>
     </row>
-    <row r="550" spans="6:6" ht="18" customHeight="1">
+    <row r="550" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F550" s="57"/>
     </row>
-    <row r="551" spans="6:6" ht="18" customHeight="1">
+    <row r="551" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F551" s="57"/>
     </row>
-    <row r="552" spans="6:6" ht="18" customHeight="1">
+    <row r="552" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F552" s="57"/>
     </row>
-    <row r="553" spans="6:6" ht="18" customHeight="1">
+    <row r="553" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F553" s="57"/>
     </row>
-    <row r="554" spans="6:6" ht="18" customHeight="1">
+    <row r="554" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F554" s="57"/>
     </row>
-    <row r="555" spans="6:6" ht="18" customHeight="1">
+    <row r="555" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F555" s="57"/>
     </row>
-    <row r="556" spans="6:6" ht="18" customHeight="1">
+    <row r="556" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F556" s="57"/>
     </row>
-    <row r="557" spans="6:6" ht="18" customHeight="1">
+    <row r="557" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F557" s="57"/>
     </row>
-    <row r="558" spans="6:6" ht="18" customHeight="1">
+    <row r="558" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F558" s="57"/>
     </row>
-    <row r="559" spans="6:6" ht="18" customHeight="1">
+    <row r="559" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F559" s="57"/>
     </row>
-    <row r="560" spans="6:6" ht="18" customHeight="1">
+    <row r="560" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F560" s="57"/>
     </row>
-    <row r="561" spans="6:6" ht="18" customHeight="1">
+    <row r="561" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F561" s="57"/>
     </row>
-    <row r="562" spans="6:6" ht="18" customHeight="1">
+    <row r="562" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F562" s="57"/>
     </row>
-    <row r="563" spans="6:6" ht="18" customHeight="1">
+    <row r="563" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F563" s="57"/>
     </row>
-    <row r="564" spans="6:6" ht="18" customHeight="1">
+    <row r="564" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F564" s="57"/>
     </row>
-    <row r="565" spans="6:6" ht="18" customHeight="1">
+    <row r="565" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F565" s="57"/>
     </row>
-    <row r="566" spans="6:6" ht="18" customHeight="1">
+    <row r="566" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F566" s="57"/>
     </row>
-    <row r="567" spans="6:6" ht="18" customHeight="1">
+    <row r="567" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F567" s="57"/>
     </row>
-    <row r="568" spans="6:6" ht="18" customHeight="1">
+    <row r="568" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F568" s="57"/>
     </row>
-    <row r="569" spans="6:6" ht="18" customHeight="1">
+    <row r="569" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F569" s="57"/>
     </row>
-    <row r="570" spans="6:6" ht="18" customHeight="1">
+    <row r="570" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F570" s="57"/>
     </row>
-    <row r="571" spans="6:6" ht="18" customHeight="1">
+    <row r="571" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F571" s="57"/>
     </row>
-    <row r="572" spans="6:6" ht="18" customHeight="1">
+    <row r="572" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F572" s="57"/>
     </row>
-    <row r="573" spans="6:6" ht="18" customHeight="1">
+    <row r="573" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F573" s="57"/>
     </row>
-    <row r="574" spans="6:6" ht="18" customHeight="1">
+    <row r="574" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F574" s="57"/>
     </row>
-    <row r="575" spans="6:6" ht="18" customHeight="1">
+    <row r="575" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F575" s="57"/>
     </row>
-    <row r="576" spans="6:6" ht="18" customHeight="1">
+    <row r="576" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F576" s="57"/>
     </row>
-    <row r="577" spans="6:6" ht="18" customHeight="1">
+    <row r="577" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F577" s="57"/>
     </row>
-    <row r="578" spans="6:6" ht="18" customHeight="1">
+    <row r="578" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F578" s="57"/>
     </row>
-    <row r="579" spans="6:6" ht="18" customHeight="1">
+    <row r="579" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F579" s="57"/>
     </row>
-    <row r="580" spans="6:6" ht="18" customHeight="1">
+    <row r="580" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F580" s="57"/>
     </row>
-    <row r="581" spans="6:6" ht="18" customHeight="1">
+    <row r="581" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F581" s="57"/>
     </row>
-    <row r="582" spans="6:6" ht="18" customHeight="1">
+    <row r="582" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F582" s="57"/>
     </row>
-    <row r="583" spans="6:6" ht="18" customHeight="1">
+    <row r="583" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F583" s="57"/>
     </row>
-    <row r="584" spans="6:6" ht="18" customHeight="1">
+    <row r="584" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F584" s="57"/>
     </row>
-    <row r="585" spans="6:6" ht="18" customHeight="1">
+    <row r="585" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F585" s="57"/>
     </row>
-    <row r="586" spans="6:6" ht="18" customHeight="1">
+    <row r="586" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F586" s="57"/>
     </row>
-    <row r="587" spans="6:6" ht="18" customHeight="1">
+    <row r="587" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F587" s="57"/>
     </row>
-    <row r="588" spans="6:6" ht="18" customHeight="1">
+    <row r="588" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F588" s="57"/>
     </row>
-    <row r="589" spans="6:6" ht="18" customHeight="1">
+    <row r="589" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F589" s="57"/>
     </row>
-    <row r="590" spans="6:6" ht="18" customHeight="1">
+    <row r="590" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F590" s="57"/>
     </row>
-    <row r="591" spans="6:6" ht="18" customHeight="1">
+    <row r="591" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F591" s="57"/>
     </row>
-    <row r="592" spans="6:6" ht="18" customHeight="1">
+    <row r="592" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F592" s="57"/>
     </row>
-    <row r="593" spans="6:6" ht="18" customHeight="1">
+    <row r="593" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F593" s="57"/>
     </row>
-    <row r="594" spans="6:6" ht="18" customHeight="1">
+    <row r="594" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F594" s="57"/>
     </row>
-    <row r="595" spans="6:6" ht="18" customHeight="1">
+    <row r="595" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F595" s="57"/>
     </row>
-    <row r="596" spans="6:6" ht="18" customHeight="1">
+    <row r="596" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F596" s="57"/>
     </row>
-    <row r="597" spans="6:6" ht="18" customHeight="1">
+    <row r="597" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F597" s="57"/>
     </row>
-    <row r="598" spans="6:6" ht="18" customHeight="1">
+    <row r="598" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F598" s="57"/>
     </row>
-    <row r="599" spans="6:6" ht="18" customHeight="1">
+    <row r="599" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F599" s="57"/>
     </row>
-    <row r="600" spans="6:6" ht="18" customHeight="1">
+    <row r="600" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F600" s="57"/>
     </row>
-    <row r="601" spans="6:6" ht="18" customHeight="1">
+    <row r="601" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F601" s="57"/>
     </row>
-    <row r="602" spans="6:6" ht="18" customHeight="1">
+    <row r="602" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F602" s="57"/>
     </row>
-    <row r="603" spans="6:6" ht="18" customHeight="1">
+    <row r="603" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F603" s="57"/>
     </row>
-    <row r="604" spans="6:6" ht="18" customHeight="1">
+    <row r="604" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F604" s="57"/>
     </row>
-    <row r="605" spans="6:6" ht="18" customHeight="1">
+    <row r="605" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F605" s="57"/>
     </row>
-    <row r="606" spans="6:6" ht="18" customHeight="1">
+    <row r="606" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F606" s="57"/>
     </row>
-    <row r="607" spans="6:6" ht="18" customHeight="1">
+    <row r="607" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F607" s="57"/>
     </row>
-    <row r="608" spans="6:6" ht="18" customHeight="1">
+    <row r="608" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F608" s="57"/>
     </row>
-    <row r="609" spans="6:6" ht="18" customHeight="1">
+    <row r="609" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F609" s="57"/>
     </row>
-    <row r="610" spans="6:6" ht="18" customHeight="1">
+    <row r="610" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F610" s="57"/>
     </row>
-    <row r="611" spans="6:6" ht="18" customHeight="1">
+    <row r="611" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F611" s="57"/>
     </row>
-    <row r="612" spans="6:6" ht="18" customHeight="1">
+    <row r="612" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F612" s="57"/>
     </row>
-    <row r="613" spans="6:6" ht="18" customHeight="1">
+    <row r="613" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F613" s="57"/>
     </row>
-    <row r="614" spans="6:6" ht="18" customHeight="1">
+    <row r="614" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F614" s="57"/>
     </row>
-    <row r="615" spans="6:6" ht="18" customHeight="1">
+    <row r="615" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F615" s="57"/>
     </row>
-    <row r="616" spans="6:6" ht="18" customHeight="1">
+    <row r="616" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F616" s="57"/>
     </row>
-    <row r="617" spans="6:6" ht="18" customHeight="1">
+    <row r="617" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F617" s="57"/>
     </row>
-    <row r="618" spans="6:6" ht="18" customHeight="1">
+    <row r="618" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F618" s="57"/>
     </row>
-    <row r="619" spans="6:6" ht="18" customHeight="1">
+    <row r="619" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F619" s="57"/>
     </row>
-    <row r="620" spans="6:6" ht="18" customHeight="1">
+    <row r="620" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F620" s="57"/>
     </row>
-    <row r="621" spans="6:6" ht="18" customHeight="1">
+    <row r="621" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F621" s="57"/>
     </row>
-    <row r="622" spans="6:6" ht="18" customHeight="1">
+    <row r="622" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F622" s="57"/>
     </row>
-    <row r="623" spans="6:6" ht="18" customHeight="1">
+    <row r="623" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F623" s="57"/>
     </row>
-    <row r="624" spans="6:6" ht="18" customHeight="1">
+    <row r="624" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F624" s="57"/>
     </row>
-    <row r="625" spans="6:6" ht="18" customHeight="1">
+    <row r="625" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F625" s="57"/>
     </row>
-    <row r="626" spans="6:6" ht="18" customHeight="1">
+    <row r="626" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F626" s="57"/>
     </row>
-    <row r="627" spans="6:6" ht="18" customHeight="1">
+    <row r="627" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F627" s="57"/>
     </row>
-    <row r="628" spans="6:6" ht="18" customHeight="1">
+    <row r="628" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F628" s="57"/>
     </row>
-    <row r="629" spans="6:6" ht="18" customHeight="1">
+    <row r="629" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F629" s="57"/>
     </row>
-    <row r="630" spans="6:6" ht="18" customHeight="1">
+    <row r="630" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F630" s="57"/>
     </row>
-    <row r="631" spans="6:6" ht="18" customHeight="1">
+    <row r="631" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F631" s="57"/>
     </row>
-    <row r="632" spans="6:6" ht="18" customHeight="1">
+    <row r="632" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F632" s="57"/>
     </row>
-    <row r="633" spans="6:6" ht="18" customHeight="1">
+    <row r="633" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F633" s="57"/>
     </row>
-    <row r="634" spans="6:6" ht="18" customHeight="1">
+    <row r="634" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F634" s="57"/>
     </row>
-    <row r="635" spans="6:6" ht="18" customHeight="1">
+    <row r="635" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F635" s="57"/>
     </row>
-    <row r="636" spans="6:6" ht="18" customHeight="1">
+    <row r="636" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F636" s="57"/>
     </row>
-    <row r="637" spans="6:6" ht="18" customHeight="1">
+    <row r="637" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F637" s="57"/>
     </row>
-    <row r="638" spans="6:6" ht="18" customHeight="1">
+    <row r="638" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F638" s="57"/>
     </row>
-    <row r="639" spans="6:6" ht="18" customHeight="1">
+    <row r="639" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F639" s="57"/>
     </row>
-    <row r="640" spans="6:6" ht="18" customHeight="1">
+    <row r="640" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F640" s="57"/>
     </row>
-    <row r="641" spans="6:6" ht="18" customHeight="1">
+    <row r="641" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F641" s="57"/>
     </row>
-    <row r="642" spans="6:6" ht="18" customHeight="1">
+    <row r="642" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F642" s="57"/>
     </row>
-    <row r="643" spans="6:6" ht="18" customHeight="1">
+    <row r="643" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F643" s="57"/>
     </row>
-    <row r="644" spans="6:6" ht="18" customHeight="1">
+    <row r="644" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F644" s="57"/>
     </row>
-    <row r="645" spans="6:6" ht="18" customHeight="1">
+    <row r="645" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F645" s="57"/>
     </row>
-    <row r="646" spans="6:6" ht="18" customHeight="1">
+    <row r="646" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F646" s="57"/>
     </row>
-    <row r="647" spans="6:6" ht="18" customHeight="1">
+    <row r="647" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F647" s="57"/>
     </row>
-    <row r="648" spans="6:6" ht="18" customHeight="1">
+    <row r="648" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F648" s="57"/>
     </row>
-    <row r="649" spans="6:6" ht="18" customHeight="1">
+    <row r="649" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F649" s="57"/>
     </row>
-    <row r="650" spans="6:6" ht="18" customHeight="1">
+    <row r="650" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F650" s="57"/>
     </row>
-    <row r="651" spans="6:6" ht="18" customHeight="1">
+    <row r="651" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F651" s="57"/>
     </row>
-    <row r="652" spans="6:6" ht="18" customHeight="1">
+    <row r="652" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F652" s="57"/>
     </row>
-    <row r="653" spans="6:6" ht="18" customHeight="1">
+    <row r="653" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F653" s="57"/>
     </row>
-    <row r="654" spans="6:6" ht="18" customHeight="1">
+    <row r="654" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F654" s="57"/>
     </row>
-    <row r="655" spans="6:6" ht="18" customHeight="1">
+    <row r="655" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F655" s="57"/>
     </row>
-    <row r="656" spans="6:6" ht="18" customHeight="1">
+    <row r="656" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F656" s="57"/>
     </row>
-    <row r="657" spans="6:6" ht="18" customHeight="1">
+    <row r="657" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F657" s="57"/>
     </row>
-    <row r="658" spans="6:6" ht="18" customHeight="1">
+    <row r="658" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F658" s="57"/>
     </row>
-    <row r="659" spans="6:6" ht="18" customHeight="1">
+    <row r="659" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F659" s="57"/>
     </row>
-    <row r="660" spans="6:6" ht="18" customHeight="1">
+    <row r="660" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F660" s="57"/>
     </row>
-    <row r="661" spans="6:6" ht="18" customHeight="1">
+    <row r="661" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F661" s="57"/>
     </row>
-    <row r="662" spans="6:6" ht="18" customHeight="1">
+    <row r="662" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F662" s="57"/>
     </row>
-    <row r="663" spans="6:6" ht="18" customHeight="1">
+    <row r="663" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F663" s="57"/>
     </row>
-    <row r="664" spans="6:6" ht="18" customHeight="1">
+    <row r="664" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F664" s="57"/>
     </row>
-    <row r="665" spans="6:6" ht="18" customHeight="1">
+    <row r="665" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F665" s="57"/>
     </row>
-    <row r="666" spans="6:6" ht="18" customHeight="1">
+    <row r="666" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F666" s="57"/>
     </row>
-    <row r="667" spans="6:6" ht="18" customHeight="1">
+    <row r="667" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F667" s="57"/>
     </row>
-    <row r="668" spans="6:6" ht="18" customHeight="1">
+    <row r="668" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F668" s="57"/>
     </row>
-    <row r="669" spans="6:6" ht="18" customHeight="1">
+    <row r="669" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F669" s="57"/>
     </row>
-    <row r="670" spans="6:6" ht="18" customHeight="1">
+    <row r="670" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F670" s="57"/>
     </row>
-    <row r="671" spans="6:6" ht="18" customHeight="1">
+    <row r="671" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F671" s="57"/>
     </row>
-    <row r="672" spans="6:6" ht="18" customHeight="1">
+    <row r="672" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F672" s="57"/>
     </row>
-    <row r="673" spans="6:6" ht="18" customHeight="1">
+    <row r="673" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F673" s="57"/>
     </row>
-    <row r="674" spans="6:6" ht="18" customHeight="1">
+    <row r="674" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F674" s="57"/>
     </row>
-    <row r="675" spans="6:6" ht="18" customHeight="1">
+    <row r="675" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F675" s="57"/>
     </row>
-    <row r="676" spans="6:6" ht="18" customHeight="1">
+    <row r="676" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F676" s="57"/>
     </row>
-    <row r="677" spans="6:6" ht="18" customHeight="1">
+    <row r="677" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F677" s="57"/>
     </row>
-    <row r="678" spans="6:6" ht="18" customHeight="1">
+    <row r="678" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F678" s="57"/>
     </row>
-    <row r="679" spans="6:6" ht="18" customHeight="1">
+    <row r="679" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F679" s="57"/>
     </row>
-    <row r="680" spans="6:6" ht="18" customHeight="1">
+    <row r="680" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F680" s="57"/>
     </row>
-    <row r="681" spans="6:6" ht="18" customHeight="1">
+    <row r="681" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F681" s="57"/>
     </row>
-    <row r="682" spans="6:6" ht="18" customHeight="1">
+    <row r="682" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F682" s="57"/>
     </row>
-    <row r="683" spans="6:6" ht="18" customHeight="1">
+    <row r="683" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F683" s="57"/>
     </row>
-    <row r="684" spans="6:6" ht="18" customHeight="1">
+    <row r="684" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F684" s="57"/>
     </row>
-    <row r="685" spans="6:6" ht="18" customHeight="1">
+    <row r="685" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F685" s="57"/>
     </row>
-    <row r="686" spans="6:6" ht="18" customHeight="1">
+    <row r="686" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F686" s="57"/>
     </row>
-    <row r="687" spans="6:6" ht="18" customHeight="1">
+    <row r="687" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F687" s="57"/>
     </row>
-    <row r="688" spans="6:6" ht="18" customHeight="1">
+    <row r="688" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F688" s="57"/>
     </row>
-    <row r="689" spans="6:6" ht="18" customHeight="1">
+    <row r="689" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F689" s="57"/>
     </row>
-    <row r="690" spans="6:6" ht="18" customHeight="1">
+    <row r="690" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F690" s="57"/>
     </row>
-    <row r="691" spans="6:6" ht="18" customHeight="1">
+    <row r="691" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F691" s="57"/>
     </row>
-    <row r="692" spans="6:6" ht="18" customHeight="1">
+    <row r="692" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F692" s="57"/>
     </row>
-    <row r="693" spans="6:6" ht="18" customHeight="1">
+    <row r="693" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F693" s="57"/>
     </row>
-    <row r="694" spans="6:6" ht="18" customHeight="1">
+    <row r="694" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F694" s="57"/>
     </row>
-    <row r="695" spans="6:6" ht="18" customHeight="1">
+    <row r="695" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F695" s="57"/>
     </row>
-    <row r="696" spans="6:6" ht="18" customHeight="1">
+    <row r="696" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F696" s="57"/>
     </row>
-    <row r="697" spans="6:6" ht="18" customHeight="1">
+    <row r="697" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F697" s="57"/>
     </row>
-    <row r="698" spans="6:6" ht="18" customHeight="1">
+    <row r="698" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F698" s="57"/>
     </row>
-    <row r="699" spans="6:6" ht="18" customHeight="1">
+    <row r="699" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F699" s="57"/>
     </row>
-    <row r="700" spans="6:6" ht="18" customHeight="1">
+    <row r="700" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F700" s="57"/>
     </row>
-    <row r="701" spans="6:6" ht="18" customHeight="1">
+    <row r="701" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F701" s="57"/>
     </row>
-    <row r="702" spans="6:6" ht="18" customHeight="1">
+    <row r="702" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F702" s="57"/>
     </row>
-    <row r="703" spans="6:6" ht="18" customHeight="1">
+    <row r="703" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F703" s="57"/>
     </row>
-    <row r="704" spans="6:6" ht="18" customHeight="1">
+    <row r="704" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F704" s="57"/>
     </row>
-    <row r="705" spans="6:6" ht="18" customHeight="1">
+    <row r="705" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F705" s="57"/>
     </row>
-    <row r="706" spans="6:6" ht="18" customHeight="1">
+    <row r="706" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F706" s="57"/>
     </row>
-    <row r="707" spans="6:6" ht="18" customHeight="1">
+    <row r="707" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F707" s="57"/>
     </row>
-    <row r="708" spans="6:6" ht="18" customHeight="1">
+    <row r="708" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F708" s="57"/>
     </row>
-    <row r="709" spans="6:6" ht="18" customHeight="1">
+    <row r="709" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F709" s="57"/>
     </row>
-    <row r="710" spans="6:6" ht="18" customHeight="1">
+    <row r="710" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F710" s="57"/>
     </row>
-    <row r="711" spans="6:6" ht="18" customHeight="1">
+    <row r="711" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F711" s="57"/>
     </row>
-    <row r="712" spans="6:6" ht="18" customHeight="1">
+    <row r="712" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F712" s="57"/>
     </row>
-    <row r="713" spans="6:6" ht="18" customHeight="1">
+    <row r="713" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F713" s="57"/>
     </row>
-    <row r="714" spans="6:6" ht="18" customHeight="1">
+    <row r="714" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F714" s="57"/>
     </row>
-    <row r="715" spans="6:6" ht="18" customHeight="1">
+    <row r="715" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F715" s="57"/>
     </row>
-    <row r="716" spans="6:6" ht="18" customHeight="1">
+    <row r="716" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F716" s="57"/>
     </row>
-    <row r="717" spans="6:6" ht="18" customHeight="1">
+    <row r="717" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F717" s="57"/>
     </row>
-    <row r="718" spans="6:6" ht="18" customHeight="1">
+    <row r="718" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F718" s="57"/>
     </row>
-    <row r="719" spans="6:6" ht="18" customHeight="1">
+    <row r="719" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F719" s="57"/>
     </row>
-    <row r="720" spans="6:6" ht="18" customHeight="1">
+    <row r="720" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F720" s="57"/>
     </row>
-    <row r="721" spans="6:6" ht="18" customHeight="1">
+    <row r="721" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F721" s="57"/>
     </row>
-    <row r="722" spans="6:6" ht="18" customHeight="1">
+    <row r="722" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F722" s="57"/>
     </row>
-    <row r="723" spans="6:6" ht="18" customHeight="1">
+    <row r="723" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F723" s="57"/>
     </row>
-    <row r="724" spans="6:6" ht="18" customHeight="1">
+    <row r="724" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F724" s="57"/>
     </row>
-    <row r="725" spans="6:6" ht="18" customHeight="1">
+    <row r="725" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F725" s="57"/>
     </row>
-    <row r="726" spans="6:6" ht="18" customHeight="1">
+    <row r="726" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F726" s="57"/>
     </row>
-    <row r="727" spans="6:6" ht="18" customHeight="1">
+    <row r="727" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F727" s="57"/>
     </row>
-    <row r="728" spans="6:6" ht="18" customHeight="1">
+    <row r="728" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F728" s="57"/>
     </row>
-    <row r="729" spans="6:6" ht="18" customHeight="1">
+    <row r="729" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F729" s="57"/>
     </row>
-    <row r="730" spans="6:6" ht="18" customHeight="1">
+    <row r="730" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F730" s="57"/>
     </row>
-    <row r="731" spans="6:6" ht="18" customHeight="1">
+    <row r="731" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F731" s="57"/>
     </row>
-    <row r="732" spans="6:6" ht="18" customHeight="1">
+    <row r="732" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F732" s="57"/>
     </row>
-    <row r="733" spans="6:6" ht="18" customHeight="1">
+    <row r="733" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F733" s="57"/>
     </row>
-    <row r="734" spans="6:6" ht="18" customHeight="1">
+    <row r="734" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F734" s="57"/>
     </row>
-    <row r="735" spans="6:6" ht="18" customHeight="1">
+    <row r="735" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F735" s="57"/>
     </row>
-    <row r="736" spans="6:6" ht="18" customHeight="1">
+    <row r="736" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F736" s="57"/>
     </row>
-    <row r="737" spans="6:6" ht="18" customHeight="1">
+    <row r="737" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F737" s="57"/>
     </row>
-    <row r="738" spans="6:6" ht="18" customHeight="1">
+    <row r="738" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F738" s="57"/>
     </row>
-    <row r="739" spans="6:6" ht="18" customHeight="1">
+    <row r="739" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F739" s="57"/>
     </row>
-    <row r="740" spans="6:6" ht="18" customHeight="1">
+    <row r="740" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F740" s="57"/>
     </row>
-    <row r="741" spans="6:6" ht="18" customHeight="1">
+    <row r="741" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F741" s="57"/>
     </row>
-    <row r="742" spans="6:6" ht="18" customHeight="1">
+    <row r="742" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F742" s="57"/>
     </row>
-    <row r="743" spans="6:6" ht="18" customHeight="1">
+    <row r="743" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F743" s="57"/>
     </row>
-    <row r="744" spans="6:6" ht="18" customHeight="1">
+    <row r="744" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F744" s="57"/>
     </row>
-    <row r="745" spans="6:6" ht="18" customHeight="1">
+    <row r="745" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F745" s="57"/>
     </row>
-    <row r="746" spans="6:6" ht="18" customHeight="1">
+    <row r="746" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F746" s="57"/>
     </row>
-    <row r="747" spans="6:6" ht="18" customHeight="1">
+    <row r="747" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F747" s="57"/>
     </row>
-    <row r="748" spans="6:6" ht="18" customHeight="1">
+    <row r="748" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F748" s="57"/>
     </row>
-    <row r="749" spans="6:6" ht="18" customHeight="1">
+    <row r="749" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F749" s="57"/>
     </row>
-    <row r="750" spans="6:6" ht="18" customHeight="1">
+    <row r="750" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F750" s="57"/>
     </row>
-    <row r="751" spans="6:6" ht="18" customHeight="1">
+    <row r="751" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F751" s="57"/>
     </row>
-    <row r="752" spans="6:6" ht="18" customHeight="1">
+    <row r="752" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F752" s="57"/>
     </row>
-    <row r="753" spans="6:6" ht="18" customHeight="1">
+    <row r="753" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F753" s="57"/>
     </row>
-    <row r="754" spans="6:6" ht="18" customHeight="1">
+    <row r="754" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F754" s="57"/>
     </row>
-    <row r="755" spans="6:6" ht="18" customHeight="1">
+    <row r="755" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F755" s="57"/>
     </row>
-    <row r="756" spans="6:6" ht="18" customHeight="1">
+    <row r="756" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F756" s="57"/>
     </row>
-    <row r="757" spans="6:6" ht="18" customHeight="1">
+    <row r="757" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F757" s="57"/>
     </row>
-    <row r="758" spans="6:6" ht="18" customHeight="1">
+    <row r="758" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F758" s="57"/>
     </row>
-    <row r="759" spans="6:6" ht="18" customHeight="1">
+    <row r="759" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F759" s="57"/>
     </row>
-    <row r="760" spans="6:6" ht="18" customHeight="1">
+    <row r="760" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F760" s="57"/>
     </row>
-    <row r="761" spans="6:6" ht="18" customHeight="1">
+    <row r="761" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F761" s="57"/>
     </row>
-    <row r="762" spans="6:6" ht="18" customHeight="1">
+    <row r="762" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F762" s="57"/>
     </row>
-    <row r="763" spans="6:6" ht="18" customHeight="1">
+    <row r="763" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F763" s="57"/>
     </row>
-    <row r="764" spans="6:6" ht="18" customHeight="1">
+    <row r="764" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F764" s="57"/>
     </row>
-    <row r="765" spans="6:6" ht="18" customHeight="1">
+    <row r="765" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F765" s="57"/>
     </row>
-    <row r="766" spans="6:6" ht="18" customHeight="1">
+    <row r="766" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F766" s="57"/>
     </row>
-    <row r="767" spans="6:6" ht="18" customHeight="1">
+    <row r="767" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F767" s="57"/>
     </row>
-    <row r="768" spans="6:6" ht="18" customHeight="1">
+    <row r="768" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F768" s="57"/>
     </row>
-    <row r="769" spans="6:6" ht="18" customHeight="1">
+    <row r="769" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F769" s="57"/>
     </row>
-    <row r="770" spans="6:6" ht="18" customHeight="1">
+    <row r="770" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F770" s="57"/>
     </row>
-    <row r="771" spans="6:6" ht="18" customHeight="1">
+    <row r="771" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F771" s="57"/>
     </row>
-    <row r="772" spans="6:6" ht="18" customHeight="1">
+    <row r="772" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F772" s="57"/>
     </row>
-    <row r="773" spans="6:6" ht="18" customHeight="1">
+    <row r="773" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F773" s="57"/>
     </row>
-    <row r="774" spans="6:6" ht="18" customHeight="1">
+    <row r="774" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F774" s="57"/>
     </row>
-    <row r="775" spans="6:6" ht="18" customHeight="1">
+    <row r="775" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F775" s="57"/>
     </row>
-    <row r="776" spans="6:6" ht="18" customHeight="1">
+    <row r="776" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F776" s="57"/>
     </row>
-    <row r="777" spans="6:6" ht="18" customHeight="1">
+    <row r="777" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F777" s="57"/>
     </row>
-    <row r="778" spans="6:6" ht="18" customHeight="1">
+    <row r="778" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F778" s="57"/>
     </row>
-    <row r="779" spans="6:6" ht="18" customHeight="1">
+    <row r="779" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F779" s="57"/>
     </row>
-    <row r="780" spans="6:6" ht="18" customHeight="1">
+    <row r="780" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F780" s="57"/>
     </row>
-    <row r="781" spans="6:6" ht="18" customHeight="1">
+    <row r="781" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F781" s="57"/>
     </row>
-    <row r="782" spans="6:6" ht="18" customHeight="1">
+    <row r="782" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F782" s="57"/>
     </row>
-    <row r="783" spans="6:6" ht="18" customHeight="1">
+    <row r="783" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F783" s="57"/>
     </row>
-    <row r="784" spans="6:6" ht="18" customHeight="1">
+    <row r="784" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F784" s="57"/>
     </row>
-    <row r="785" spans="6:6" ht="18" customHeight="1">
+    <row r="785" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F785" s="57"/>
     </row>
-    <row r="786" spans="6:6" ht="18" customHeight="1">
+    <row r="786" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F786" s="57"/>
     </row>
-    <row r="787" spans="6:6" ht="18" customHeight="1">
+    <row r="787" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F787" s="57"/>
     </row>
-    <row r="788" spans="6:6" ht="18" customHeight="1">
+    <row r="788" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F788" s="57"/>
     </row>
-    <row r="789" spans="6:6" ht="18" customHeight="1">
+    <row r="789" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F789" s="57"/>
     </row>
-    <row r="790" spans="6:6" ht="18" customHeight="1">
+    <row r="790" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F790" s="57"/>
     </row>
-    <row r="791" spans="6:6" ht="18" customHeight="1">
+    <row r="791" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F791" s="57"/>
     </row>
-    <row r="792" spans="6:6" ht="18" customHeight="1">
+    <row r="792" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F792" s="57"/>
     </row>
-    <row r="793" spans="6:6" ht="18" customHeight="1">
+    <row r="793" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F793" s="57"/>
     </row>
-    <row r="794" spans="6:6" ht="18" customHeight="1">
+    <row r="794" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F794" s="57"/>
     </row>
-    <row r="795" spans="6:6" ht="18" customHeight="1">
+    <row r="795" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F795" s="57"/>
     </row>
-    <row r="796" spans="6:6" ht="18" customHeight="1">
+    <row r="796" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F796" s="57"/>
     </row>
-    <row r="797" spans="6:6" ht="18" customHeight="1">
+    <row r="797" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F797" s="57"/>
     </row>
-    <row r="798" spans="6:6" ht="18" customHeight="1">
+    <row r="798" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F798" s="57"/>
     </row>
-    <row r="799" spans="6:6" ht="18" customHeight="1">
+    <row r="799" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F799" s="57"/>
     </row>
-    <row r="800" spans="6:6" ht="18" customHeight="1">
+    <row r="800" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F800" s="57"/>
     </row>
-    <row r="801" spans="6:6" ht="18" customHeight="1">
+    <row r="801" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F801" s="57"/>
     </row>
-    <row r="802" spans="6:6" ht="18" customHeight="1">
+    <row r="802" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F802" s="57"/>
     </row>
-    <row r="803" spans="6:6" ht="18" customHeight="1">
+    <row r="803" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F803" s="57"/>
     </row>
-    <row r="804" spans="6:6" ht="18" customHeight="1">
+    <row r="804" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F804" s="57"/>
     </row>
-    <row r="805" spans="6:6" ht="18" customHeight="1">
+    <row r="805" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F805" s="57"/>
     </row>
-    <row r="806" spans="6:6" ht="18" customHeight="1">
+    <row r="806" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F806" s="57"/>
     </row>
-    <row r="807" spans="6:6" ht="18" customHeight="1">
+    <row r="807" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F807" s="57"/>
     </row>
-    <row r="808" spans="6:6" ht="18" customHeight="1">
+    <row r="808" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F808" s="57"/>
     </row>
-    <row r="809" spans="6:6" ht="18" customHeight="1">
+    <row r="809" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F809" s="57"/>
     </row>
-    <row r="810" spans="6:6" ht="18" customHeight="1">
+    <row r="810" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F810" s="57"/>
     </row>
-    <row r="811" spans="6:6" ht="18" customHeight="1">
+    <row r="811" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F811" s="57"/>
     </row>
-    <row r="812" spans="6:6" ht="18" customHeight="1">
+    <row r="812" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F812" s="57"/>
     </row>
-    <row r="813" spans="6:6" ht="18" customHeight="1">
+    <row r="813" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F813" s="57"/>
     </row>
-    <row r="814" spans="6:6" ht="18" customHeight="1">
+    <row r="814" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F814" s="57"/>
     </row>
-    <row r="815" spans="6:6" ht="18" customHeight="1">
+    <row r="815" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F815" s="57"/>
     </row>
-    <row r="816" spans="6:6" ht="18" customHeight="1">
+    <row r="816" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F816" s="57"/>
     </row>
-    <row r="817" spans="6:6" ht="18" customHeight="1">
+    <row r="817" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F817" s="57"/>
     </row>
-    <row r="818" spans="6:6" ht="18" customHeight="1">
+    <row r="818" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F818" s="57"/>
     </row>
-    <row r="819" spans="6:6" ht="18" customHeight="1">
+    <row r="819" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F819" s="57"/>
     </row>
-    <row r="820" spans="6:6" ht="18" customHeight="1">
+    <row r="820" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F820" s="57"/>
     </row>
-    <row r="821" spans="6:6" ht="18" customHeight="1">
+    <row r="821" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F821" s="57"/>
     </row>
-    <row r="822" spans="6:6" ht="18" customHeight="1">
+    <row r="822" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F822" s="57"/>
     </row>
-    <row r="823" spans="6:6" ht="18" customHeight="1">
+    <row r="823" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F823" s="57"/>
     </row>
-    <row r="824" spans="6:6" ht="18" customHeight="1">
+    <row r="824" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F824" s="57"/>
     </row>
-    <row r="825" spans="6:6" ht="18" customHeight="1">
+    <row r="825" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F825" s="57"/>
     </row>
-    <row r="826" spans="6:6" ht="18" customHeight="1">
+    <row r="826" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F826" s="57"/>
     </row>
-    <row r="827" spans="6:6" ht="18" customHeight="1">
+    <row r="827" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F827" s="57"/>
     </row>
-    <row r="828" spans="6:6" ht="18" customHeight="1">
+    <row r="828" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F828" s="57"/>
     </row>
-    <row r="829" spans="6:6" ht="18" customHeight="1">
+    <row r="829" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F829" s="57"/>
     </row>
-    <row r="830" spans="6:6" ht="18" customHeight="1">
+    <row r="830" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F830" s="57"/>
     </row>
-    <row r="831" spans="6:6" ht="18" customHeight="1">
+    <row r="831" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F831" s="57"/>
     </row>
-    <row r="832" spans="6:6" ht="18" customHeight="1">
+    <row r="832" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F832" s="57"/>
     </row>
-    <row r="833" spans="6:6" ht="18" customHeight="1">
+    <row r="833" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F833" s="57"/>
     </row>
-    <row r="834" spans="6:6" ht="18" customHeight="1">
+    <row r="834" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F834" s="57"/>
     </row>
-    <row r="835" spans="6:6" ht="18" customHeight="1">
+    <row r="835" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F835" s="57"/>
     </row>
-    <row r="836" spans="6:6" ht="18" customHeight="1">
+    <row r="836" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F836" s="57"/>
     </row>
-    <row r="837" spans="6:6" ht="18" customHeight="1">
+    <row r="837" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F837" s="57"/>
     </row>
-    <row r="838" spans="6:6" ht="18" customHeight="1">
+    <row r="838" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F838" s="57"/>
     </row>
-    <row r="839" spans="6:6" ht="18" customHeight="1">
+    <row r="839" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F839" s="57"/>
     </row>
-    <row r="840" spans="6:6" ht="18" customHeight="1">
+    <row r="840" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F840" s="57"/>
     </row>
-    <row r="841" spans="6:6" ht="18" customHeight="1">
+    <row r="841" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F841" s="57"/>
     </row>
-    <row r="842" spans="6:6" ht="18" customHeight="1">
+    <row r="842" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F842" s="57"/>
     </row>
-    <row r="843" spans="6:6" ht="18" customHeight="1">
+    <row r="843" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F843" s="57"/>
     </row>
-    <row r="844" spans="6:6" ht="18" customHeight="1">
+    <row r="844" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F844" s="57"/>
     </row>
-    <row r="845" spans="6:6" ht="18" customHeight="1">
+    <row r="845" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F845" s="57"/>
     </row>
-    <row r="846" spans="6:6" ht="18" customHeight="1">
+    <row r="846" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F846" s="57"/>
     </row>
-    <row r="847" spans="6:6" ht="18" customHeight="1">
+    <row r="847" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F847" s="57"/>
     </row>
-    <row r="848" spans="6:6" ht="18" customHeight="1">
+    <row r="848" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F848" s="57"/>
     </row>
-    <row r="849" spans="6:6" ht="18" customHeight="1">
+    <row r="849" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F849" s="57"/>
     </row>
-    <row r="850" spans="6:6" ht="18" customHeight="1">
+    <row r="850" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F850" s="57"/>
     </row>
-    <row r="851" spans="6:6" ht="18" customHeight="1">
+    <row r="851" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F851" s="57"/>
     </row>
-    <row r="852" spans="6:6" ht="18" customHeight="1">
+    <row r="852" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F852" s="57"/>
     </row>
-    <row r="853" spans="6:6" ht="18" customHeight="1">
+    <row r="853" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F853" s="57"/>
     </row>
-    <row r="854" spans="6:6" ht="18" customHeight="1">
+    <row r="854" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F854" s="57"/>
     </row>
-    <row r="855" spans="6:6" ht="18" customHeight="1">
+    <row r="855" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F855" s="57"/>
     </row>
-    <row r="856" spans="6:6" ht="18" customHeight="1">
+    <row r="856" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F856" s="57"/>
     </row>
-    <row r="857" spans="6:6" ht="18" customHeight="1">
+    <row r="857" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F857" s="57"/>
     </row>
-    <row r="858" spans="6:6" ht="18" customHeight="1">
+    <row r="858" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F858" s="57"/>
     </row>
-    <row r="859" spans="6:6" ht="18" customHeight="1">
+    <row r="859" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F859" s="57"/>
     </row>
-    <row r="860" spans="6:6" ht="18" customHeight="1">
+    <row r="860" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F860" s="57"/>
     </row>
-    <row r="861" spans="6:6" ht="18" customHeight="1">
+    <row r="861" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F861" s="57"/>
     </row>
-    <row r="862" spans="6:6" ht="18" customHeight="1">
+    <row r="862" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F862" s="57"/>
     </row>
-    <row r="863" spans="6:6" ht="18" customHeight="1">
+    <row r="863" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F863" s="57"/>
     </row>
-    <row r="864" spans="6:6" ht="18" customHeight="1">
+    <row r="864" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F864" s="57"/>
     </row>
-    <row r="865" spans="6:6" ht="18" customHeight="1">
+    <row r="865" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F865" s="57"/>
     </row>
-    <row r="866" spans="6:6" ht="18" customHeight="1">
+    <row r="866" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F866" s="57"/>
     </row>
-    <row r="867" spans="6:6" ht="18" customHeight="1">
+    <row r="867" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F867" s="57"/>
     </row>
-    <row r="868" spans="6:6" ht="18" customHeight="1">
+    <row r="868" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F868" s="57"/>
     </row>
-    <row r="869" spans="6:6" ht="18" customHeight="1">
+    <row r="869" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F869" s="57"/>
     </row>
-    <row r="870" spans="6:6" ht="18" customHeight="1">
+    <row r="870" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F870" s="57"/>
     </row>
-    <row r="871" spans="6:6" ht="18" customHeight="1">
+    <row r="871" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F871" s="57"/>
     </row>
-    <row r="872" spans="6:6" ht="18" customHeight="1">
+    <row r="872" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F872" s="57"/>
     </row>
-    <row r="873" spans="6:6" ht="18" customHeight="1">
+    <row r="873" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F873" s="57"/>
     </row>
-    <row r="874" spans="6:6" ht="18" customHeight="1">
+    <row r="874" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F874" s="57"/>
     </row>
-    <row r="875" spans="6:6" ht="18" customHeight="1">
+    <row r="875" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F875" s="57"/>
     </row>
-    <row r="876" spans="6:6" ht="18" customHeight="1">
+    <row r="876" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F876" s="57"/>
     </row>
-    <row r="877" spans="6:6" ht="18" customHeight="1">
+    <row r="877" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F877" s="57"/>
     </row>
-    <row r="878" spans="6:6" ht="18" customHeight="1">
+    <row r="878" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F878" s="57"/>
     </row>
-    <row r="879" spans="6:6" ht="18" customHeight="1">
+    <row r="879" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F879" s="57"/>
     </row>
-    <row r="880" spans="6:6" ht="18" customHeight="1">
+    <row r="880" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F880" s="57"/>
     </row>
-    <row r="881" spans="6:6" ht="18" customHeight="1">
+    <row r="881" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F881" s="57"/>
     </row>
-    <row r="882" spans="6:6" ht="18" customHeight="1">
+    <row r="882" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F882" s="57"/>
     </row>
-    <row r="883" spans="6:6" ht="18" customHeight="1">
+    <row r="883" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F883" s="57"/>
     </row>
-    <row r="884" spans="6:6" ht="18" customHeight="1">
+    <row r="884" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F884" s="57"/>
     </row>
-    <row r="885" spans="6:6" ht="18" customHeight="1">
+    <row r="885" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F885" s="57"/>
     </row>
-    <row r="886" spans="6:6" ht="18" customHeight="1">
+    <row r="886" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F886" s="57"/>
     </row>
-    <row r="887" spans="6:6" ht="18" customHeight="1">
+    <row r="887" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F887" s="57"/>
     </row>
-    <row r="888" spans="6:6" ht="18" customHeight="1">
+    <row r="888" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F888" s="57"/>
     </row>
-    <row r="889" spans="6:6" ht="18" customHeight="1">
+    <row r="889" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F889" s="57"/>
     </row>
-    <row r="890" spans="6:6" ht="18" customHeight="1">
+    <row r="890" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F890" s="57"/>
     </row>
-    <row r="891" spans="6:6" ht="18" customHeight="1">
+    <row r="891" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F891" s="57"/>
     </row>
-    <row r="892" spans="6:6" ht="18" customHeight="1">
+    <row r="892" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F892" s="57"/>
     </row>
-    <row r="893" spans="6:6" ht="18" customHeight="1">
+    <row r="893" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F893" s="57"/>
     </row>
-    <row r="894" spans="6:6" ht="18" customHeight="1">
+    <row r="894" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F894" s="57"/>
     </row>
-    <row r="895" spans="6:6" ht="18" customHeight="1">
+    <row r="895" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F895" s="57"/>
     </row>
-    <row r="896" spans="6:6" ht="18" customHeight="1">
+    <row r="896" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F896" s="57"/>
     </row>
-    <row r="897" spans="6:6" ht="18" customHeight="1">
+    <row r="897" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F897" s="57"/>
     </row>
-    <row r="898" spans="6:6" ht="18" customHeight="1">
+    <row r="898" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F898" s="57"/>
     </row>
-    <row r="899" spans="6:6" ht="18" customHeight="1">
+    <row r="899" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F899" s="57"/>
     </row>
-    <row r="900" spans="6:6" ht="18" customHeight="1">
+    <row r="900" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F900" s="57"/>
     </row>
-    <row r="901" spans="6:6" ht="18" customHeight="1">
+    <row r="901" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F901" s="57"/>
     </row>
-    <row r="902" spans="6:6" ht="18" customHeight="1">
+    <row r="902" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F902" s="57"/>
     </row>
-    <row r="903" spans="6:6" ht="18" customHeight="1">
+    <row r="903" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F903" s="57"/>
     </row>
-    <row r="904" spans="6:6" ht="18" customHeight="1">
+    <row r="904" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F904" s="57"/>
     </row>
-    <row r="905" spans="6:6" ht="18" customHeight="1">
+    <row r="905" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F905" s="57"/>
     </row>
-    <row r="906" spans="6:6" ht="18" customHeight="1">
+    <row r="906" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F906" s="57"/>
     </row>
-    <row r="907" spans="6:6" ht="18" customHeight="1">
+    <row r="907" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F907" s="57"/>
     </row>
-    <row r="908" spans="6:6" ht="18" customHeight="1">
+    <row r="908" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F908" s="57"/>
     </row>
-    <row r="909" spans="6:6" ht="18" customHeight="1">
+    <row r="909" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F909" s="57"/>
     </row>
-    <row r="910" spans="6:6" ht="18" customHeight="1">
+    <row r="910" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F910" s="57"/>
     </row>
-    <row r="911" spans="6:6" ht="18" customHeight="1">
+    <row r="911" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F911" s="57"/>
     </row>
-    <row r="912" spans="6:6" ht="18" customHeight="1">
+    <row r="912" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F912" s="57"/>
     </row>
-    <row r="913" spans="6:6" ht="18" customHeight="1">
+    <row r="913" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F913" s="57"/>
     </row>
-    <row r="914" spans="6:6" ht="18" customHeight="1">
+    <row r="914" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F914" s="57"/>
     </row>
-    <row r="915" spans="6:6" ht="18" customHeight="1">
+    <row r="915" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F915" s="57"/>
     </row>
-    <row r="916" spans="6:6" ht="18" customHeight="1">
+    <row r="916" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F916" s="57"/>
     </row>
-    <row r="917" spans="6:6" ht="18" customHeight="1">
+    <row r="917" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F917" s="57"/>
     </row>
-    <row r="918" spans="6:6" ht="18" customHeight="1">
+    <row r="918" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F918" s="57"/>
     </row>
-    <row r="919" spans="6:6" ht="18" customHeight="1">
+    <row r="919" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F919" s="57"/>
     </row>
-    <row r="920" spans="6:6" ht="18" customHeight="1">
+    <row r="920" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F920" s="57"/>
     </row>
-    <row r="921" spans="6:6" ht="18" customHeight="1">
+    <row r="921" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F921" s="57"/>
     </row>
-    <row r="922" spans="6:6" ht="18" customHeight="1">
+    <row r="922" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F922" s="57"/>
     </row>
-    <row r="923" spans="6:6" ht="18" customHeight="1">
+    <row r="923" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F923" s="57"/>
     </row>
-    <row r="924" spans="6:6" ht="18" customHeight="1">
+    <row r="924" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F924" s="57"/>
     </row>
-    <row r="925" spans="6:6" ht="18" customHeight="1">
+    <row r="925" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F925" s="57"/>
     </row>
-    <row r="926" spans="6:6" ht="18" customHeight="1">
+    <row r="926" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F926" s="57"/>
     </row>
-    <row r="927" spans="6:6" ht="18" customHeight="1">
+    <row r="927" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F927" s="57"/>
     </row>
-    <row r="928" spans="6:6" ht="18" customHeight="1">
+    <row r="928" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F928" s="57"/>
     </row>
-    <row r="929" spans="6:6" ht="18" customHeight="1">
+    <row r="929" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F929" s="57"/>
     </row>
-    <row r="930" spans="6:6" ht="18" customHeight="1">
+    <row r="930" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F930" s="57"/>
     </row>
-    <row r="931" spans="6:6" ht="18" customHeight="1">
+    <row r="931" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F931" s="57"/>
     </row>
-    <row r="932" spans="6:6" ht="18" customHeight="1">
+    <row r="932" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F932" s="57"/>
     </row>
-    <row r="933" spans="6:6" ht="18" customHeight="1">
+    <row r="933" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F933" s="57"/>
     </row>
-    <row r="934" spans="6:6" ht="18" customHeight="1">
+    <row r="934" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F934" s="57"/>
     </row>
-    <row r="935" spans="6:6" ht="18" customHeight="1">
+    <row r="935" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F935" s="57"/>
     </row>
-    <row r="936" spans="6:6" ht="18" customHeight="1">
+    <row r="936" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F936" s="57"/>
     </row>
-    <row r="937" spans="6:6" ht="18" customHeight="1">
+    <row r="937" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F937" s="57"/>
     </row>
-    <row r="938" spans="6:6" ht="18" customHeight="1">
+    <row r="938" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F938" s="57"/>
     </row>
-    <row r="939" spans="6:6" ht="18" customHeight="1">
+    <row r="939" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F939" s="57"/>
     </row>
-    <row r="940" spans="6:6" ht="18" customHeight="1">
+    <row r="940" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F940" s="57"/>
     </row>
-    <row r="941" spans="6:6" ht="18" customHeight="1">
+    <row r="941" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F941" s="57"/>
     </row>
-    <row r="942" spans="6:6" ht="18" customHeight="1">
+    <row r="942" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F942" s="57"/>
     </row>
-    <row r="943" spans="6:6" ht="18" customHeight="1">
+    <row r="943" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F943" s="57"/>
     </row>
-    <row r="944" spans="6:6" ht="18" customHeight="1">
+    <row r="944" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F944" s="57"/>
     </row>
-    <row r="945" spans="6:6" ht="18" customHeight="1">
+    <row r="945" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F945" s="57"/>
     </row>
-    <row r="946" spans="6:6" ht="18" customHeight="1">
+    <row r="946" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F946" s="57"/>
     </row>
-    <row r="947" spans="6:6" ht="18" customHeight="1">
+    <row r="947" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F947" s="57"/>
     </row>
-    <row r="948" spans="6:6" ht="18" customHeight="1">
+    <row r="948" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F948" s="57"/>
     </row>
-    <row r="949" spans="6:6" ht="18" customHeight="1">
+    <row r="949" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F949" s="57"/>
     </row>
-    <row r="950" spans="6:6" ht="18" customHeight="1">
+    <row r="950" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F950" s="57"/>
     </row>
-    <row r="951" spans="6:6" ht="18" customHeight="1">
+    <row r="951" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F951" s="57"/>
     </row>
-    <row r="952" spans="6:6" ht="18" customHeight="1">
+    <row r="952" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F952" s="57"/>
     </row>
-    <row r="953" spans="6:6" ht="18" customHeight="1">
+    <row r="953" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F953" s="57"/>
     </row>
-    <row r="954" spans="6:6" ht="18" customHeight="1">
+    <row r="954" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F954" s="57"/>
     </row>
-    <row r="955" spans="6:6" ht="18" customHeight="1">
+    <row r="955" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F955" s="57"/>
     </row>
-    <row r="956" spans="6:6" ht="18" customHeight="1">
+    <row r="956" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F956" s="57"/>
     </row>
-    <row r="957" spans="6:6" ht="18" customHeight="1">
+    <row r="957" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F957" s="57"/>
     </row>
-    <row r="958" spans="6:6" ht="18" customHeight="1">
+    <row r="958" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F958" s="57"/>
     </row>
-    <row r="959" spans="6:6" ht="18" customHeight="1">
+    <row r="959" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F959" s="57"/>
     </row>
-    <row r="960" spans="6:6" ht="18" customHeight="1">
+    <row r="960" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F960" s="57"/>
     </row>
-    <row r="961" spans="6:6" ht="18" customHeight="1">
+    <row r="961" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F961" s="57"/>
     </row>
-    <row r="962" spans="6:6" ht="18" customHeight="1">
+    <row r="962" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F962" s="57"/>
     </row>
-    <row r="963" spans="6:6" ht="18" customHeight="1">
+    <row r="963" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F963" s="57"/>
     </row>
-    <row r="964" spans="6:6" ht="18" customHeight="1">
+    <row r="964" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F964" s="57"/>
     </row>
-    <row r="965" spans="6:6" ht="18" customHeight="1">
+    <row r="965" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F965" s="57"/>
     </row>
-    <row r="966" spans="6:6" ht="18" customHeight="1">
+    <row r="966" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F966" s="57"/>
     </row>
-    <row r="967" spans="6:6" ht="18" customHeight="1">
+    <row r="967" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F967" s="57"/>
     </row>
-    <row r="968" spans="6:6" ht="18" customHeight="1">
+    <row r="968" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F968" s="57"/>
     </row>
-    <row r="969" spans="6:6" ht="18" customHeight="1">
+    <row r="969" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F969" s="57"/>
     </row>
-    <row r="970" spans="6:6" ht="18" customHeight="1">
+    <row r="970" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F970" s="57"/>
     </row>
-    <row r="971" spans="6:6" ht="18" customHeight="1">
+    <row r="971" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F971" s="57"/>
     </row>
-    <row r="972" spans="6:6" ht="18" customHeight="1">
+    <row r="972" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F972" s="57"/>
     </row>
-    <row r="973" spans="6:6" ht="18" customHeight="1">
+    <row r="973" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F973" s="57"/>
     </row>
-    <row r="974" spans="6:6" ht="18" customHeight="1">
+    <row r="974" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F974" s="57"/>
     </row>
-    <row r="975" spans="6:6" ht="18" customHeight="1">
+    <row r="975" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F975" s="57"/>
     </row>
-    <row r="976" spans="6:6" ht="18" customHeight="1">
+    <row r="976" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F976" s="57"/>
     </row>
-    <row r="977" spans="6:6" ht="18" customHeight="1">
+    <row r="977" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F977" s="57"/>
     </row>
-    <row r="978" spans="6:6" ht="18" customHeight="1">
+    <row r="978" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F978" s="57"/>
     </row>
-    <row r="979" spans="6:6" ht="18" customHeight="1">
+    <row r="979" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F979" s="57"/>
     </row>
-    <row r="980" spans="6:6" ht="18" customHeight="1">
+    <row r="980" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F980" s="57"/>
     </row>
-    <row r="981" spans="6:6" ht="18" customHeight="1">
+    <row r="981" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F981" s="57"/>
     </row>
-    <row r="982" spans="6:6" ht="18" customHeight="1">
+    <row r="982" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F982" s="57"/>
     </row>
-    <row r="983" spans="6:6" ht="18" customHeight="1">
+    <row r="983" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F983" s="57"/>
     </row>
-    <row r="984" spans="6:6" ht="18" customHeight="1">
+    <row r="984" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F984" s="57"/>
     </row>
-    <row r="985" spans="6:6" ht="18" customHeight="1">
+    <row r="985" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F985" s="57"/>
     </row>
-    <row r="986" spans="6:6" ht="18" customHeight="1">
+    <row r="986" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F986" s="57"/>
     </row>
-    <row r="987" spans="6:6" ht="18" customHeight="1">
+    <row r="987" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F987" s="57"/>
     </row>
-    <row r="988" spans="6:6" ht="18" customHeight="1">
+    <row r="988" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F988" s="57"/>
     </row>
-    <row r="989" spans="6:6" ht="18" customHeight="1">
+    <row r="989" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F989" s="57"/>
     </row>
-    <row r="990" spans="6:6" ht="18" customHeight="1">
+    <row r="990" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F990" s="57"/>
     </row>
-    <row r="991" spans="6:6" ht="18" customHeight="1">
+    <row r="991" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F991" s="57"/>
     </row>
-    <row r="992" spans="6:6" ht="18" customHeight="1">
+    <row r="992" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F992" s="57"/>
     </row>
-    <row r="993" spans="6:6" ht="18" customHeight="1">
+    <row r="993" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F993" s="57"/>
     </row>
-    <row r="994" spans="6:6" ht="18" customHeight="1">
+    <row r="994" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F994" s="57"/>
     </row>
-    <row r="995" spans="6:6" ht="18" customHeight="1">
+    <row r="995" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F995" s="57"/>
     </row>
-    <row r="996" spans="6:6" ht="18" customHeight="1">
+    <row r="996" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F996" s="57"/>
     </row>
-    <row r="997" spans="6:6" ht="18" customHeight="1">
+    <row r="997" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F997" s="57"/>
     </row>
-    <row r="998" spans="6:6" ht="18" customHeight="1">
+    <row r="998" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F998" s="57"/>
     </row>
-    <row r="999" spans="6:6" ht="18" customHeight="1">
+    <row r="999" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F999" s="57"/>
     </row>
-    <row r="1000" spans="6:6" ht="18" customHeight="1">
+    <row r="1000" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1000" s="57"/>
     </row>
-    <row r="1001" spans="6:6" ht="18" customHeight="1">
+    <row r="1001" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1001" s="57"/>
     </row>
-    <row r="1002" spans="6:6" ht="18" customHeight="1">
+    <row r="1002" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1002" s="57"/>
     </row>
-    <row r="1003" spans="6:6" ht="18" customHeight="1">
+    <row r="1003" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1003" s="57"/>
     </row>
-    <row r="1004" spans="6:6" ht="18" customHeight="1">
+    <row r="1004" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1004" s="57"/>
     </row>
-    <row r="1005" spans="6:6" ht="18" customHeight="1">
+    <row r="1005" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1005" s="57"/>
     </row>
-    <row r="1006" spans="6:6" ht="18" customHeight="1">
+    <row r="1006" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1006" s="57"/>
     </row>
-    <row r="1007" spans="6:6" ht="18" customHeight="1">
+    <row r="1007" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1007" s="57"/>
     </row>
-    <row r="1008" spans="6:6" ht="18" customHeight="1">
+    <row r="1008" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1008" s="57"/>
     </row>
-    <row r="1009" spans="6:6" ht="18" customHeight="1">
+    <row r="1009" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1009" s="57"/>
     </row>
-    <row r="1010" spans="6:6" ht="18" customHeight="1">
+    <row r="1010" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1010" s="57"/>
     </row>
-    <row r="1011" spans="6:6" ht="18" customHeight="1">
+    <row r="1011" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1011" s="57"/>
     </row>
-    <row r="1012" spans="6:6" ht="18" customHeight="1">
+    <row r="1012" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1012" s="57"/>
     </row>
-    <row r="1013" spans="6:6" ht="18" customHeight="1">
+    <row r="1013" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1013" s="57"/>
     </row>
-    <row r="1014" spans="6:6" ht="18" customHeight="1">
+    <row r="1014" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1014" s="57"/>
     </row>
-    <row r="1015" spans="6:6" ht="18" customHeight="1">
+    <row r="1015" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1015" s="57"/>
     </row>
-    <row r="1016" spans="6:6" ht="18" customHeight="1">
+    <row r="1016" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1016" s="57"/>
     </row>
-    <row r="1017" spans="6:6" ht="18" customHeight="1">
+    <row r="1017" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1017" s="57"/>
     </row>
-    <row r="1018" spans="6:6" ht="18" customHeight="1">
+    <row r="1018" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1018" s="57"/>
     </row>
-    <row r="1019" spans="6:6" ht="18" customHeight="1">
+    <row r="1019" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1019" s="57"/>
     </row>
-    <row r="1020" spans="6:6" ht="18" customHeight="1">
+    <row r="1020" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1020" s="57"/>
     </row>
-    <row r="1021" spans="6:6" ht="18" customHeight="1">
+    <row r="1021" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1021" s="57"/>
     </row>
-    <row r="1022" spans="6:6" ht="18" customHeight="1">
+    <row r="1022" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1022" s="57"/>
     </row>
-    <row r="1023" spans="6:6" ht="18" customHeight="1">
+    <row r="1023" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1023" s="57"/>
     </row>
-    <row r="1024" spans="6:6" ht="18" customHeight="1">
+    <row r="1024" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1024" s="57"/>
     </row>
-    <row r="1025" spans="6:6" ht="18" customHeight="1">
+    <row r="1025" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1025" s="57"/>
     </row>
-    <row r="1026" spans="6:6" ht="18" customHeight="1">
+    <row r="1026" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1026" s="57"/>
     </row>
-    <row r="1027" spans="6:6" ht="18" customHeight="1">
+    <row r="1027" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1027" s="57"/>
     </row>
-    <row r="1028" spans="6:6" ht="18" customHeight="1">
+    <row r="1028" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1028" s="57"/>
     </row>
-    <row r="1029" spans="6:6" ht="18" customHeight="1">
+    <row r="1029" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1029" s="57"/>
     </row>
-    <row r="1030" spans="6:6" ht="18" customHeight="1">
+    <row r="1030" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1030" s="57"/>
     </row>
-    <row r="1031" spans="6:6" ht="18" customHeight="1">
+    <row r="1031" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1031" s="57"/>
     </row>
-    <row r="1032" spans="6:6" ht="18" customHeight="1">
+    <row r="1032" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1032" s="57"/>
     </row>
-    <row r="1033" spans="6:6" ht="18" customHeight="1">
+    <row r="1033" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1033" s="57"/>
     </row>
-    <row r="1034" spans="6:6" ht="18" customHeight="1">
+    <row r="1034" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1034" s="57"/>
     </row>
-    <row r="1035" spans="6:6" ht="18" customHeight="1">
+    <row r="1035" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1035" s="57"/>
     </row>
-    <row r="1036" spans="6:6" ht="18" customHeight="1">
+    <row r="1036" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1036" s="57"/>
     </row>
-    <row r="1037" spans="6:6" ht="18" customHeight="1">
+    <row r="1037" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1037" s="57"/>
     </row>
-    <row r="1038" spans="6:6" ht="18" customHeight="1">
+    <row r="1038" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1038" s="57"/>
     </row>
-    <row r="1039" spans="6:6" ht="18" customHeight="1">
+    <row r="1039" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1039" s="57"/>
     </row>
-    <row r="1040" spans="6:6" ht="18" customHeight="1">
+    <row r="1040" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1040" s="57"/>
     </row>
-    <row r="1041" spans="6:6" ht="18" customHeight="1">
+    <row r="1041" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1041" s="57"/>
     </row>
-    <row r="1042" spans="6:6" ht="18" customHeight="1">
+    <row r="1042" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1042" s="57"/>
     </row>
-    <row r="1043" spans="6:6" ht="18" customHeight="1">
+    <row r="1043" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1043" s="57"/>
     </row>
-    <row r="1044" spans="6:6" ht="18" customHeight="1">
+    <row r="1044" spans="6:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1044" s="57"/>
     </row>
   </sheetData>
@@ -15715,14 +15715,14 @@
   </sheetPr>
   <dimension ref="A1:AK201"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="7" ySplit="4" topLeftCell="V132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD11"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:X167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="48.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="48.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="55.6640625" style="147" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="144" customWidth="1"/>
@@ -15756,7 +15756,7 @@
     <col min="38" max="16384" width="48.5" style="130"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="111" customFormat="1" ht="146.5" customHeight="1">
+    <row r="1" spans="1:37" s="111" customFormat="1" ht="146.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
         <v>206</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="123" customFormat="1" ht="29.5" hidden="1" customHeight="1" thickBot="1">
+    <row r="2" spans="1:37" s="123" customFormat="1" ht="29.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="112"/>
       <c r="B2" s="113"/>
       <c r="C2" s="114"/>
@@ -15926,7 +15926,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="111" customFormat="1" ht="79.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:37" s="111" customFormat="1" ht="79.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="124" t="s">
         <v>22</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="154" customFormat="1" ht="18">
+    <row r="4" spans="1:37" s="154" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="174" t="s">
         <v>416</v>
       </c>
@@ -16072,7 +16072,7 @@
       <c r="AB4" s="156"/>
       <c r="AK4" s="170"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>440</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>420</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
         <v>420</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
         <v>420</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>420</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>420</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>420</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>420</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A13" s="31" t="s">
         <v>420</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A14" s="31" t="s">
         <v>420</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
         <v>420</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
         <v>420</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>420</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>420</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>420</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
         <v>421</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>421</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>421</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>421</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
         <v>421</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>421</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
         <v>421</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
         <v>422</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28" s="31" t="s">
         <v>422</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
         <v>422</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30" s="31" t="s">
         <v>422</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31" s="31" t="s">
         <v>422</v>
       </c>
@@ -18220,7 +18220,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A32" s="31" t="s">
         <v>422</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
         <v>423</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A34" s="31" t="s">
         <v>423</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
         <v>423</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A36" s="31" t="s">
         <v>423</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A37" s="31" t="s">
         <v>423</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A38" s="31" t="s">
         <v>424</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A39" s="31" t="s">
         <v>424</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A40" s="31" t="s">
         <v>424</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
         <v>424</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A42" s="31" t="s">
         <v>424</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A43" s="31" t="s">
         <v>424</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A44" s="31" t="s">
         <v>424</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A45" s="31" t="s">
         <v>424</v>
       </c>
@@ -19321,7 +19321,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
         <v>424</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
         <v>424</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A48" s="31" t="s">
         <v>425</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A49" s="31" t="s">
         <v>425</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A50" s="31" t="s">
         <v>425</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
         <v>426</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
         <v>426</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A53" s="31" t="s">
         <v>426</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A54" s="31" t="s">
         <v>426</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A55" s="31" t="s">
         <v>427</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
         <v>427</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A57" s="31" t="s">
         <v>427</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A58" s="31" t="s">
         <v>428</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A59" s="31" t="s">
         <v>428</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A60" s="31" t="s">
         <v>428</v>
       </c>
@@ -20509,7 +20509,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A61" s="31" t="s">
         <v>428</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A62" s="31" t="s">
         <v>428</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A63" s="31" t="s">
         <v>428</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A64" s="31" t="s">
         <v>428</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A65" s="31" t="s">
         <v>428</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A66" s="31" t="s">
         <v>428</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A67" s="31" t="s">
         <v>428</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A68" s="31" t="s">
         <v>429</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A69" s="31" t="s">
         <v>429</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A70" s="31" t="s">
         <v>429</v>
       </c>
@@ -21289,7 +21289,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A71" s="31" t="s">
         <v>430</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A72" s="31" t="s">
         <v>430</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A73" s="31" t="s">
         <v>430</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A74" s="31" t="s">
         <v>430</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A75" s="31" t="s">
         <v>430</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A76" s="31" t="s">
         <v>430</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A77" s="31" t="s">
         <v>430</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A78" s="31" t="s">
         <v>430</v>
       </c>
@@ -21913,7 +21913,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A79" s="31" t="s">
         <v>430</v>
       </c>
@@ -21991,7 +21991,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A80" s="31" t="s">
         <v>430</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A81" s="31" t="s">
         <v>430</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A82" s="31" t="s">
         <v>430</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A83" s="31" t="s">
         <v>430</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A84" s="31" t="s">
         <v>430</v>
       </c>
@@ -22381,7 +22381,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A85" s="31" t="s">
         <v>430</v>
       </c>
@@ -22459,7 +22459,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A86" s="31" t="s">
         <v>430</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A87" s="31" t="s">
         <v>430</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:28">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A88" s="31" t="s">
         <v>430</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:28">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A89" s="31" t="s">
         <v>430</v>
       </c>
@@ -22771,7 +22771,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:28">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A90" s="31" t="s">
         <v>430</v>
       </c>
@@ -22849,7 +22849,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A91" s="31" t="s">
         <v>430</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:28">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A92" s="31" t="s">
         <v>430</v>
       </c>
@@ -23005,7 +23005,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:28">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A93" s="31" t="s">
         <v>430</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:28">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A94" s="31" t="s">
         <v>430</v>
       </c>
@@ -23161,7 +23161,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A95" s="31" t="s">
         <v>430</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A96" s="31" t="s">
         <v>430</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A97" s="31" t="s">
         <v>430</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A98" s="31" t="s">
         <v>430</v>
       </c>
@@ -23473,7 +23473,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A99" s="31" t="s">
         <v>430</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A100" s="31" t="s">
         <v>431</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A101" s="31" t="s">
         <v>431</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A102" s="31" t="s">
         <v>431</v>
       </c>
@@ -23788,7 +23788,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A103" s="31" t="s">
         <v>431</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A104" s="31" t="s">
         <v>431</v>
       </c>
@@ -23947,7 +23947,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A105" s="31" t="s">
         <v>431</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A106" s="31" t="s">
         <v>431</v>
       </c>
@@ -24103,7 +24103,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A107" s="31" t="s">
         <v>431</v>
       </c>
@@ -24181,7 +24181,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A108" s="31" t="s">
         <v>432</v>
       </c>
@@ -24262,7 +24262,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A109" s="31" t="s">
         <v>432</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A110" s="31" t="s">
         <v>432</v>
       </c>
@@ -24427,7 +24427,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A111" s="31" t="s">
         <v>432</v>
       </c>
@@ -24508,7 +24508,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A112" s="31" t="s">
         <v>433</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A113" s="31" t="s">
         <v>433</v>
       </c>
@@ -24664,7 +24664,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A114" s="31" t="s">
         <v>433</v>
       </c>
@@ -24742,7 +24742,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A115" s="31" t="s">
         <v>433</v>
       </c>
@@ -24820,7 +24820,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A116" s="31" t="s">
         <v>433</v>
       </c>
@@ -24901,7 +24901,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A117" s="31" t="s">
         <v>433</v>
       </c>
@@ -24982,7 +24982,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A118" s="31" t="s">
         <v>433</v>
       </c>
@@ -25060,7 +25060,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
         <v>433</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A120" s="31" t="s">
         <v>434</v>
       </c>
@@ -25216,7 +25216,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A121" s="31" t="s">
         <v>434</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A122" s="31" t="s">
         <v>434</v>
       </c>
@@ -25372,7 +25372,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A123" s="31" t="s">
         <v>434</v>
       </c>
@@ -25450,7 +25450,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A124" s="31" t="s">
         <v>434</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A125" s="31" t="s">
         <v>435</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A126" s="31" t="s">
         <v>435</v>
       </c>
@@ -25681,7 +25681,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A127" s="31" t="s">
         <v>435</v>
       </c>
@@ -25756,7 +25756,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A128" s="31" t="s">
         <v>435</v>
       </c>
@@ -25831,7 +25831,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:30">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A129" s="31" t="s">
         <v>436</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:30">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A130" s="31" t="s">
         <v>436</v>
       </c>
@@ -25993,7 +25993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:30">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A131" s="31" t="s">
         <v>436</v>
       </c>
@@ -26071,7 +26071,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:30">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A132" s="31" t="s">
         <v>436</v>
       </c>
@@ -26149,7 +26149,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:30">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A133" s="31" t="s">
         <v>436</v>
       </c>
@@ -26227,7 +26227,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:30">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A134" s="31" t="s">
         <v>437</v>
       </c>
@@ -26305,7 +26305,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:30">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A135" s="31" t="s">
         <v>437</v>
       </c>
@@ -26386,7 +26386,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:30">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A136" s="31" t="s">
         <v>437</v>
       </c>
@@ -26470,7 +26470,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:30">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A137" s="31" t="s">
         <v>437</v>
       </c>
@@ -26548,7 +26548,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:30">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A138" s="31" t="s">
         <v>437</v>
       </c>
@@ -26626,7 +26626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:30">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A139" s="31" t="s">
         <v>437</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:30">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A140" s="31" t="s">
         <v>437</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:30">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A141" s="31" t="s">
         <v>437</v>
       </c>
@@ -26860,7 +26860,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:30">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A142" s="31" t="s">
         <v>437</v>
       </c>
@@ -26941,7 +26941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:30">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A143" s="31" t="s">
         <v>437</v>
       </c>
@@ -27019,7 +27019,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:30">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A144" s="31" t="s">
         <v>437</v>
       </c>
@@ -27097,7 +27097,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:29">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A145" s="31" t="s">
         <v>437</v>
       </c>
@@ -27175,7 +27175,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:29">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A146" s="31" t="s">
         <v>437</v>
       </c>
@@ -27253,7 +27253,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:29">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A147" s="31" t="s">
         <v>438</v>
       </c>
@@ -27331,7 +27331,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:29">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A148" s="31" t="s">
         <v>438</v>
       </c>
@@ -27412,7 +27412,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:29">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A149" s="31" t="s">
         <v>438</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:29">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A150" s="31" t="s">
         <v>438</v>
       </c>
@@ -27568,7 +27568,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:29">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A151" s="31" t="s">
         <v>438</v>
       </c>
@@ -27646,7 +27646,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="152" spans="1:29">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A152" s="31" t="s">
         <v>438</v>
       </c>
@@ -27727,7 +27727,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:29">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A153" s="31" t="s">
         <v>438</v>
       </c>
@@ -27808,7 +27808,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:29">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A154" s="31" t="s">
         <v>438</v>
       </c>
@@ -27889,7 +27889,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:29">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A155" s="31" t="s">
         <v>438</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="156" spans="1:29">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A156" s="31" t="s">
         <v>438</v>
       </c>
@@ -28048,7 +28048,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:29">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A157" s="31" t="s">
         <v>439</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:29">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A158" s="31" t="s">
         <v>439</v>
       </c>
@@ -28207,7 +28207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:29">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A159" s="31" t="s">
         <v>439</v>
       </c>
@@ -28285,7 +28285,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:29">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A160" s="31" t="s">
         <v>439</v>
       </c>
@@ -28363,7 +28363,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:29">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A161" s="31" t="s">
         <v>439</v>
       </c>
@@ -28441,7 +28441,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="162" spans="1:29">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A162" s="31" t="s">
         <v>439</v>
       </c>
@@ -28519,7 +28519,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="163" spans="1:29">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A163" s="31" t="s">
         <v>439</v>
       </c>
@@ -28600,7 +28600,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="1:29">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A164" s="31" t="s">
         <v>439</v>
       </c>
@@ -28681,7 +28681,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="165" spans="1:29">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A165" s="31" t="s">
         <v>439</v>
       </c>
@@ -28762,7 +28762,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="166" spans="1:29">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A166" s="31" t="s">
         <v>439</v>
       </c>
@@ -28843,7 +28843,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="1:29">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A167" s="31" t="s">
         <v>439</v>
       </c>
@@ -28921,107 +28921,107 @@
         <v>145</v>
       </c>
     </row>
-    <row r="168" spans="1:29">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B168" s="142"/>
       <c r="AA168" s="143"/>
     </row>
-    <row r="169" spans="1:29">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B169" s="142"/>
     </row>
-    <row r="170" spans="1:29">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B170" s="142"/>
     </row>
-    <row r="171" spans="1:29">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B171" s="142"/>
     </row>
-    <row r="172" spans="1:29">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B172" s="142"/>
     </row>
-    <row r="173" spans="1:29">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B173" s="142"/>
     </row>
-    <row r="174" spans="1:29">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B174" s="142"/>
     </row>
-    <row r="175" spans="1:29">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B175" s="142"/>
     </row>
-    <row r="176" spans="1:29">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B176" s="142"/>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B177" s="142"/>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B178" s="142"/>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B179" s="142"/>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B180" s="142"/>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B181" s="142"/>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B182" s="142"/>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B183" s="142"/>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B184" s="142"/>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B185" s="142"/>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B186" s="142"/>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B187" s="142"/>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B188" s="142"/>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B189" s="142"/>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B190" s="142"/>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B191" s="142"/>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B192" s="142"/>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B193" s="142"/>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B194" s="142"/>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B195" s="142"/>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B196" s="142"/>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B197" s="142"/>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B198" s="142"/>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B199" s="142"/>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B200" s="142"/>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B201" s="142"/>
     </row>
   </sheetData>
@@ -29290,7 +29290,7 @@
       <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.6640625" style="148" customWidth="1"/>
     <col min="2" max="5" width="37.1640625" style="33" customWidth="1"/>
@@ -29302,7 +29302,7 @@
     <col min="11" max="16384" width="9.6640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="91" customFormat="1" ht="153.75" customHeight="1">
+    <row r="1" spans="1:10" s="91" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
         <v>359</v>
       </c>
@@ -29318,7 +29318,7 @@
       <c r="I1" s="90"/>
       <c r="J1" s="131"/>
     </row>
-    <row r="2" spans="1:10" s="91" customFormat="1" ht="40.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" s="91" customFormat="1" ht="40.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>360</v>
       </c>
@@ -29336,7 +29336,7 @@
       <c r="I2" s="134"/>
       <c r="J2" s="136"/>
     </row>
-    <row r="3" spans="1:10" s="91" customFormat="1" ht="28.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10" s="91" customFormat="1" ht="28.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="132" t="s">
         <v>89</v>
       </c>
@@ -29368,7 +29368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="148" t="s">
         <v>95</v>
       </c>
@@ -29458,7 +29458,7 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" style="149" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" style="32" bestFit="1" customWidth="1"/>
@@ -29475,7 +29475,7 @@
     <col min="13" max="16384" width="9.6640625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" ht="175.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" s="31" customFormat="1" ht="175.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="139"/>
       <c r="B1" s="140" t="s">
         <v>74</v>
@@ -29498,7 +29498,7 @@
       <c r="J1" s="206"/>
       <c r="K1" s="206"/>
     </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" ht="84" customHeight="1" thickBot="1">
+    <row r="2" spans="1:11" s="31" customFormat="1" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="124" t="s">
         <v>22</v>
       </c>
@@ -29531,7 +29531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>440</v>
       </c>
@@ -29542,7 +29542,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>420</v>
       </c>
@@ -29553,7 +29553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>421</v>
       </c>
@@ -29564,7 +29564,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>422</v>
       </c>
@@ -29575,7 +29575,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
         <v>423</v>
       </c>
@@ -29586,7 +29586,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
         <v>424</v>
       </c>
@@ -29600,7 +29600,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>424</v>
       </c>
@@ -29614,7 +29614,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>424</v>
       </c>
@@ -29628,7 +29628,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>425</v>
       </c>
@@ -29639,7 +29639,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>426</v>
       </c>
@@ -29650,7 +29650,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="31" t="s">
         <v>427</v>
       </c>
@@ -29664,7 +29664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="31" t="s">
         <v>427</v>
       </c>
@@ -29678,7 +29678,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
         <v>428</v>
       </c>
@@ -29689,7 +29689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
         <v>429</v>
       </c>
@@ -29700,7 +29700,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>430</v>
       </c>
@@ -29714,7 +29714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>430</v>
       </c>
@@ -29728,7 +29728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>431</v>
       </c>
@@ -29742,7 +29742,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
         <v>431</v>
       </c>
@@ -29756,7 +29756,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="31" t="s">
         <v>432</v>
       </c>
@@ -29770,7 +29770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>432</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
         <v>433</v>
       </c>
@@ -29798,7 +29798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
         <v>433</v>
       </c>
@@ -29812,7 +29812,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>434</v>
       </c>
@@ -29823,7 +29823,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
         <v>435</v>
       </c>
@@ -29834,7 +29834,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
         <v>436</v>
       </c>
@@ -29848,7 +29848,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="31" t="s">
         <v>436</v>
       </c>
@@ -29862,7 +29862,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
         <v>437</v>
       </c>
@@ -29876,7 +29876,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="31" t="s">
         <v>437</v>
       </c>
@@ -29890,7 +29890,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="31" t="s">
         <v>437</v>
       </c>
@@ -29904,7 +29904,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="31" t="s">
         <v>437</v>
       </c>
@@ -29918,7 +29918,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
         <v>438</v>
       </c>
@@ -29932,7 +29932,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="31" t="s">
         <v>438</v>
       </c>
@@ -29946,7 +29946,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
         <v>439</v>
       </c>
@@ -29960,7 +29960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="31" t="s">
         <v>439</v>
       </c>
@@ -30023,7 +30023,7 @@
       <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="31" customWidth="1"/>
@@ -30032,7 +30032,7 @@
     <col min="5" max="16384" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" ht="162" customHeight="1" thickBot="1">
+    <row r="1" spans="1:4" customFormat="1" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="207" t="s">
         <v>343</v>
       </c>
@@ -30044,7 +30044,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" ht="39.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:4" customFormat="1" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>330</v>
       </c>
@@ -30058,7 +30058,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>672</v>
       </c>
@@ -30072,7 +30072,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>674</v>
       </c>
@@ -30086,7 +30086,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>340</v>
       </c>
@@ -30140,7 +30140,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
@@ -30160,7 +30160,7 @@
     <col min="28" max="28" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="34" customFormat="1">
+    <row r="1" spans="1:28" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>100</v>
       </c>
@@ -30222,7 +30222,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -30287,7 +30287,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -30352,7 +30352,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -30402,7 +30402,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -30443,7 +30443,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -30478,7 +30478,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -30510,7 +30510,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -30539,7 +30539,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -30568,7 +30568,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -30597,7 +30597,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -30626,7 +30626,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -30655,7 +30655,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -30684,7 +30684,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -30713,7 +30713,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -30739,7 +30739,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -30759,7 +30759,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -30779,7 +30779,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
         <v>393</v>
       </c>
@@ -30796,7 +30796,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J19" t="s">
         <v>88</v>
       </c>
@@ -30810,7 +30810,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J20" t="s">
         <v>398</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J21" t="s">
         <v>143</v>
       </c>
@@ -30838,7 +30838,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
         <v>144</v>
       </c>
@@ -30852,7 +30852,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
         <v>138</v>
       </c>
@@ -30866,7 +30866,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
         <v>399</v>
       </c>
@@ -30880,7 +30880,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J25" t="s">
         <v>400</v>
       </c>
@@ -30894,7 +30894,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
         <v>72</v>
       </c>
@@ -30905,7 +30905,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N27">
         <v>25</v>
       </c>
@@ -30913,7 +30913,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N28">
         <v>26</v>
       </c>
@@ -30921,7 +30921,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N29">
         <v>27</v>
       </c>
@@ -30929,7 +30929,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N30">
         <v>28</v>
       </c>
@@ -30937,92 +30937,92 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O31" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O32" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="15:15">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O33" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="15:15">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O34" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="15:15">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O35" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="15:15">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O36" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="15:15">
+    <row r="37" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O37" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="15:15">
+    <row r="38" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="15:15">
+    <row r="39" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O39" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="15:15">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O40" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="15:15">
+    <row r="41" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O41" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="15:15">
+    <row r="42" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="15:15">
+    <row r="43" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O43" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="15:15">
+    <row r="44" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O44" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="15:15">
+    <row r="45" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O45" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="15:15">
+    <row r="46" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O46" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="15:15">
+    <row r="47" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O47" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="15:15">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O48" t="s">
         <v>255</v>
       </c>
